--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -732,25 +732,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>64200</v>
+        <v>62000</v>
       </c>
       <c r="E8" s="3">
-        <v>62000</v>
+        <v>59800</v>
       </c>
       <c r="F8" s="3">
-        <v>51700</v>
+        <v>49900</v>
       </c>
       <c r="G8" s="3">
-        <v>61400</v>
+        <v>59200</v>
       </c>
       <c r="H8" s="3">
-        <v>49000</v>
+        <v>47300</v>
       </c>
       <c r="I8" s="3">
-        <v>46400</v>
+        <v>44800</v>
       </c>
       <c r="J8" s="3">
-        <v>41300</v>
+        <v>39900</v>
       </c>
       <c r="K8" s="3">
         <v>113000</v>
@@ -770,25 +770,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>39700</v>
+        <v>38300</v>
       </c>
       <c r="E9" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>30800</v>
+      </c>
+      <c r="G9" s="3">
         <v>37700</v>
       </c>
-      <c r="F9" s="3">
-        <v>31900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>39100</v>
-      </c>
       <c r="H9" s="3">
-        <v>29400</v>
+        <v>28400</v>
       </c>
       <c r="I9" s="3">
-        <v>28100</v>
+        <v>27100</v>
       </c>
       <c r="J9" s="3">
-        <v>24400</v>
+        <v>23500</v>
       </c>
       <c r="K9" s="3">
         <v>70000</v>
@@ -808,25 +808,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>24500</v>
+        <v>23700</v>
       </c>
       <c r="E10" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="F10" s="3">
-        <v>19800</v>
+        <v>19100</v>
       </c>
       <c r="G10" s="3">
-        <v>22300</v>
+        <v>21500</v>
       </c>
       <c r="H10" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="I10" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="J10" s="3">
-        <v>17000</v>
+        <v>16400</v>
       </c>
       <c r="K10" s="3">
         <v>43000</v>
@@ -947,7 +947,7 @@
         <v>400</v>
       </c>
       <c r="G14" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -976,10 +976,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E15" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F15" s="3">
         <v>1400</v>
@@ -991,7 +991,7 @@
         <v>1200</v>
       </c>
       <c r="I15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J15" s="3">
         <v>1100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>65800</v>
+        <v>63500</v>
       </c>
       <c r="E17" s="3">
-        <v>65800</v>
+        <v>63500</v>
       </c>
       <c r="F17" s="3">
-        <v>58100</v>
+        <v>56100</v>
       </c>
       <c r="G17" s="3">
-        <v>70500</v>
+        <v>68000</v>
       </c>
       <c r="H17" s="3">
-        <v>53400</v>
+        <v>51600</v>
       </c>
       <c r="I17" s="3">
-        <v>47600</v>
+        <v>46000</v>
       </c>
       <c r="J17" s="3">
-        <v>42800</v>
+        <v>41300</v>
       </c>
       <c r="K17" s="3">
         <v>106000</v>
@@ -1065,25 +1065,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E18" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="F18" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="G18" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="H18" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="I18" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="J18" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K18" s="3">
         <v>7000</v>
@@ -1160,16 +1160,16 @@
         <v>300</v>
       </c>
       <c r="E21" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F21" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="G21" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="H21" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="I21" s="3">
         <v>-400</v>
@@ -1207,7 +1207,7 @@
         <v>1900</v>
       </c>
       <c r="H22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="3">
         <v>1000</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="E23" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="F23" s="3">
-        <v>-7800</v>
+        <v>-7500</v>
       </c>
       <c r="G23" s="3">
-        <v>-11000</v>
+        <v>-10600</v>
       </c>
       <c r="H23" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="I23" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J23" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="K23" s="3">
         <v>3400</v>
@@ -1347,25 +1347,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="E26" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="F26" s="3">
-        <v>-7800</v>
+        <v>-7500</v>
       </c>
       <c r="G26" s="3">
-        <v>-11000</v>
+        <v>-10600</v>
       </c>
       <c r="H26" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="I26" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J26" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="K26" s="3">
         <v>3400</v>
@@ -1385,25 +1385,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="E27" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="F27" s="3">
-        <v>-7800</v>
+        <v>-7500</v>
       </c>
       <c r="G27" s="3">
-        <v>-11000</v>
+        <v>-10600</v>
       </c>
       <c r="H27" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="I27" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J27" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="K27" s="3">
         <v>3400</v>
@@ -1470,13 +1470,13 @@
         <v>-300</v>
       </c>
       <c r="G29" s="3">
-        <v>25800</v>
+        <v>24900</v>
       </c>
       <c r="H29" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I29" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="J29" s="3">
         <v>1500</v>
@@ -1613,25 +1613,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="E33" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="F33" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="G33" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="H33" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="I33" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="J33" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K33" s="3">
         <v>3400</v>
@@ -1689,25 +1689,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="E35" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="F35" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="G35" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="H35" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="I35" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="J35" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K35" s="3">
         <v>3400</v>
@@ -1811,16 +1811,16 @@
         <v>900</v>
       </c>
       <c r="G41" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H41" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I41" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J41" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K41" s="3">
         <v>1700</v>
@@ -1878,25 +1878,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E43" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F43" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G43" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="H43" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I43" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="J43" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="K43" s="3">
         <v>7700</v>
@@ -1916,25 +1916,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>76500</v>
+        <v>73900</v>
       </c>
       <c r="E44" s="3">
-        <v>68900</v>
+        <v>66500</v>
       </c>
       <c r="F44" s="3">
-        <v>66700</v>
+        <v>64400</v>
       </c>
       <c r="G44" s="3">
-        <v>63900</v>
+        <v>61600</v>
       </c>
       <c r="H44" s="3">
-        <v>54200</v>
+        <v>52300</v>
       </c>
       <c r="I44" s="3">
-        <v>99400</v>
+        <v>96000</v>
       </c>
       <c r="J44" s="3">
-        <v>107500</v>
+        <v>103800</v>
       </c>
       <c r="K44" s="3">
         <v>102600</v>
@@ -1963,16 +1963,16 @@
         <v>2500</v>
       </c>
       <c r="G45" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H45" s="3">
-        <v>74700</v>
+        <v>72100</v>
       </c>
       <c r="I45" s="3">
         <v>1600</v>
       </c>
       <c r="J45" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K45" s="3">
         <v>1300</v>
@@ -1992,25 +1992,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>83900</v>
+        <v>81000</v>
       </c>
       <c r="E46" s="3">
-        <v>74100</v>
+        <v>71500</v>
       </c>
       <c r="F46" s="3">
-        <v>73200</v>
+        <v>70600</v>
       </c>
       <c r="G46" s="3">
-        <v>73000</v>
+        <v>70500</v>
       </c>
       <c r="H46" s="3">
-        <v>134100</v>
+        <v>129500</v>
       </c>
       <c r="I46" s="3">
-        <v>112700</v>
+        <v>108800</v>
       </c>
       <c r="J46" s="3">
-        <v>119700</v>
+        <v>115600</v>
       </c>
       <c r="K46" s="3">
         <v>113300</v>
@@ -2030,10 +2030,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E47" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F47" s="3">
         <v>700</v>
@@ -2068,25 +2068,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>70000</v>
+        <v>67600</v>
       </c>
       <c r="E48" s="3">
-        <v>22400</v>
+        <v>21600</v>
       </c>
       <c r="F48" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="G48" s="3">
-        <v>14600</v>
+        <v>14100</v>
       </c>
       <c r="H48" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="I48" s="3">
-        <v>17300</v>
+        <v>16700</v>
       </c>
       <c r="J48" s="3">
-        <v>22000</v>
+        <v>21200</v>
       </c>
       <c r="K48" s="3">
         <v>21900</v>
@@ -2106,25 +2106,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G49" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I49" s="3">
         <v>500</v>
       </c>
       <c r="J49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K49" s="3">
         <v>600</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
@@ -2296,25 +2296,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>160100</v>
+        <v>154600</v>
       </c>
       <c r="E54" s="3">
-        <v>100700</v>
+        <v>97200</v>
       </c>
       <c r="F54" s="3">
-        <v>96400</v>
+        <v>93100</v>
       </c>
       <c r="G54" s="3">
-        <v>90500</v>
+        <v>87400</v>
       </c>
       <c r="H54" s="3">
-        <v>147400</v>
+        <v>142300</v>
       </c>
       <c r="I54" s="3">
-        <v>134700</v>
+        <v>130000</v>
       </c>
       <c r="J54" s="3">
-        <v>142700</v>
+        <v>137700</v>
       </c>
       <c r="K54" s="3">
         <v>136200</v>
@@ -2366,25 +2366,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30200</v>
+        <v>29200</v>
       </c>
       <c r="E57" s="3">
-        <v>25000</v>
+        <v>24200</v>
       </c>
       <c r="F57" s="3">
-        <v>20400</v>
+        <v>19700</v>
       </c>
       <c r="G57" s="3">
-        <v>19800</v>
+        <v>19200</v>
       </c>
       <c r="H57" s="3">
-        <v>17300</v>
+        <v>16700</v>
       </c>
       <c r="I57" s="3">
+        <v>33900</v>
+      </c>
+      <c r="J57" s="3">
         <v>35100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>36400</v>
       </c>
       <c r="K57" s="3">
         <v>34800</v>
@@ -2404,25 +2404,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>45600</v>
+        <v>44000</v>
       </c>
       <c r="E58" s="3">
-        <v>36100</v>
+        <v>34900</v>
       </c>
       <c r="F58" s="3">
-        <v>35300</v>
+        <v>34100</v>
       </c>
       <c r="G58" s="3">
-        <v>30300</v>
+        <v>29300</v>
       </c>
       <c r="H58" s="3">
-        <v>41900</v>
+        <v>40400</v>
       </c>
       <c r="I58" s="3">
-        <v>55100</v>
+        <v>53200</v>
       </c>
       <c r="J58" s="3">
-        <v>58800</v>
+        <v>56800</v>
       </c>
       <c r="K58" s="3">
         <v>50700</v>
@@ -2442,25 +2442,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="E59" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="F59" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="G59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>69500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J59" s="3">
         <v>5600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>72000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>5800</v>
       </c>
       <c r="K59" s="3">
         <v>6700</v>
@@ -2480,25 +2480,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>84900</v>
+        <v>81900</v>
       </c>
       <c r="E60" s="3">
-        <v>68500</v>
+        <v>66100</v>
       </c>
       <c r="F60" s="3">
-        <v>62300</v>
+        <v>60100</v>
       </c>
       <c r="G60" s="3">
-        <v>55800</v>
+        <v>53900</v>
       </c>
       <c r="H60" s="3">
-        <v>131200</v>
+        <v>126600</v>
       </c>
       <c r="I60" s="3">
-        <v>96600</v>
+        <v>93200</v>
       </c>
       <c r="J60" s="3">
-        <v>101000</v>
+        <v>97500</v>
       </c>
       <c r="K60" s="3">
         <v>92200</v>
@@ -2518,25 +2518,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="E61" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="F61" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="G61" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H61" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I61" s="3">
-        <v>23000</v>
+        <v>22200</v>
       </c>
       <c r="J61" s="3">
-        <v>33500</v>
+        <v>32400</v>
       </c>
       <c r="K61" s="3">
         <v>34700</v>
@@ -2556,25 +2556,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55600</v>
+        <v>53600</v>
       </c>
       <c r="E62" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="F62" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="G62" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="H62" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I62" s="3">
         <v>5300</v>
       </c>
-      <c r="I62" s="3">
-        <v>5500</v>
-      </c>
       <c r="J62" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="K62" s="3">
         <v>3600</v>
@@ -2708,25 +2708,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>151300</v>
+        <v>146100</v>
       </c>
       <c r="E66" s="3">
-        <v>90300</v>
+        <v>87200</v>
       </c>
       <c r="F66" s="3">
-        <v>80100</v>
+        <v>77300</v>
       </c>
       <c r="G66" s="3">
-        <v>66100</v>
+        <v>63800</v>
       </c>
       <c r="H66" s="3">
-        <v>140500</v>
+        <v>135700</v>
       </c>
       <c r="I66" s="3">
-        <v>125100</v>
+        <v>120700</v>
       </c>
       <c r="J66" s="3">
-        <v>138200</v>
+        <v>133400</v>
       </c>
       <c r="K66" s="3">
         <v>130400</v>
@@ -2914,25 +2914,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-75800</v>
+        <v>-73200</v>
       </c>
       <c r="E72" s="3">
-        <v>-74100</v>
+        <v>-71600</v>
       </c>
       <c r="F72" s="3">
-        <v>-68200</v>
+        <v>-65800</v>
       </c>
       <c r="G72" s="3">
-        <v>-60100</v>
+        <v>-58000</v>
       </c>
       <c r="H72" s="3">
-        <v>-58900</v>
+        <v>-56900</v>
       </c>
       <c r="I72" s="3">
-        <v>-55600</v>
+        <v>-53700</v>
       </c>
       <c r="J72" s="3">
-        <v>-60900</v>
+        <v>-58700</v>
       </c>
       <c r="K72" s="3">
         <v>-58700</v>
@@ -3066,25 +3066,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8800</v>
+        <v>8500</v>
       </c>
       <c r="E76" s="3">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="F76" s="3">
-        <v>16400</v>
+        <v>15800</v>
       </c>
       <c r="G76" s="3">
-        <v>24400</v>
+        <v>23600</v>
       </c>
       <c r="H76" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="I76" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="J76" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="K76" s="3">
         <v>5700</v>
@@ -3185,25 +3185,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="E81" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="F81" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="G81" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="H81" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="I81" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="J81" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K81" s="3">
         <v>3400</v>
@@ -3239,10 +3239,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E83" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F83" s="3">
         <v>1400</v>
@@ -3254,10 +3254,10 @@
         <v>1200</v>
       </c>
       <c r="I83" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K83" s="3">
         <v>2000</v>
@@ -3467,22 +3467,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="E89" s="3">
         <v>1700</v>
       </c>
       <c r="F89" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="G89" s="3">
-        <v>-12800</v>
+        <v>-12300</v>
       </c>
       <c r="H89" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="I89" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="J89" s="3">
         <v>-1700</v>
@@ -3521,25 +3521,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="E91" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="F91" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="G91" s="3">
         <v>-2500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K91" s="3">
         <v>-1100</v>
@@ -3635,16 +3635,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="F94" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="G94" s="3">
-        <v>98900</v>
+        <v>95500</v>
       </c>
       <c r="H94" s="3">
         <v>-2100</v>
@@ -3653,7 +3653,7 @@
         <v>-2000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="K94" s="3">
         <v>-2400</v>
@@ -3841,25 +3841,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="E100" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F100" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="G100" s="3">
-        <v>-70100</v>
+        <v>-67700</v>
       </c>
       <c r="H100" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="I100" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="J100" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="K100" s="3">
         <v>-8000</v>
@@ -3926,16 +3926,16 @@
         <v>200</v>
       </c>
       <c r="G102" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="H102" s="3">
         <v>400</v>
       </c>
       <c r="I102" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="J102" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K102" s="3">
         <v>-1200</v>

--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>BGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43554</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43372</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43001</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42819</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42637</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42455</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42273</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42091</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>64900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>62600</v>
+      </c>
+      <c r="G8" s="3">
+        <v>52300</v>
+      </c>
+      <c r="H8" s="3">
         <v>62000</v>
       </c>
-      <c r="E8" s="3">
-        <v>59800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>49900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>59200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>47300</v>
-      </c>
       <c r="I8" s="3">
-        <v>44800</v>
+        <v>49500</v>
       </c>
       <c r="J8" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K8" s="3">
         <v>39900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>113000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>99700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>161900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>38300</v>
+        <v>39700</v>
       </c>
       <c r="E9" s="3">
-        <v>36400</v>
+        <v>40100</v>
       </c>
       <c r="F9" s="3">
-        <v>30800</v>
+        <v>38100</v>
       </c>
       <c r="G9" s="3">
-        <v>37700</v>
+        <v>32200</v>
       </c>
       <c r="H9" s="3">
+        <v>39500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J9" s="3">
         <v>28400</v>
       </c>
-      <c r="I9" s="3">
-        <v>27100</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>23500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>70000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>61300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>99500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>23700</v>
+        <v>24300</v>
       </c>
       <c r="E10" s="3">
-        <v>23400</v>
+        <v>24800</v>
       </c>
       <c r="F10" s="3">
-        <v>19100</v>
+        <v>24500</v>
       </c>
       <c r="G10" s="3">
-        <v>21500</v>
+        <v>20100</v>
       </c>
       <c r="H10" s="3">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="I10" s="3">
-        <v>17700</v>
+        <v>19800</v>
       </c>
       <c r="J10" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K10" s="3">
         <v>16400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,84 +949,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
-        <v>400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
-      <c r="L14" s="3">
-        <v>500</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5500</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G15" s="3">
         <v>1400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1200</v>
       </c>
       <c r="H15" s="3">
         <v>1200</v>
       </c>
       <c r="I15" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="J15" s="3">
+        <v>900</v>
+      </c>
+      <c r="K15" s="3">
         <v>1100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>63500</v>
+        <v>67400</v>
       </c>
       <c r="E17" s="3">
-        <v>63500</v>
+        <v>66500</v>
       </c>
       <c r="F17" s="3">
-        <v>56100</v>
+        <v>66600</v>
       </c>
       <c r="G17" s="3">
-        <v>68000</v>
+        <v>58800</v>
       </c>
       <c r="H17" s="3">
-        <v>51600</v>
+        <v>71300</v>
       </c>
       <c r="I17" s="3">
-        <v>46000</v>
+        <v>54000</v>
       </c>
       <c r="J17" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K17" s="3">
         <v>41300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>106000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>95200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>161900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1500</v>
+        <v>-3400</v>
       </c>
       <c r="E18" s="3">
-        <v>-3700</v>
+        <v>-1600</v>
       </c>
       <c r="F18" s="3">
-        <v>-6200</v>
+        <v>-3900</v>
       </c>
       <c r="G18" s="3">
-        <v>-8800</v>
+        <v>-6500</v>
       </c>
       <c r="H18" s="3">
-        <v>-4300</v>
+        <v>-9200</v>
       </c>
       <c r="I18" s="3">
-        <v>-1200</v>
+        <v>-4500</v>
       </c>
       <c r="J18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4500</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,8 +1146,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,122 +1185,134 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
-        <v>-2300</v>
-      </c>
       <c r="F21" s="3">
-        <v>-4800</v>
+        <v>-2400</v>
       </c>
       <c r="G21" s="3">
-        <v>-7600</v>
+        <v>-5000</v>
       </c>
       <c r="H21" s="3">
-        <v>-3100</v>
+        <v>-8000</v>
       </c>
       <c r="I21" s="3">
-        <v>-400</v>
+        <v>-3200</v>
       </c>
       <c r="J21" s="3">
         <v>-400</v>
       </c>
       <c r="K21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L21" s="3">
         <v>7200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3200</v>
+        <v>-5900</v>
       </c>
       <c r="E23" s="3">
-        <v>-5800</v>
+        <v>-3400</v>
       </c>
       <c r="F23" s="3">
-        <v>-7500</v>
+        <v>-6000</v>
       </c>
       <c r="G23" s="3">
-        <v>-10600</v>
+        <v>-7900</v>
       </c>
       <c r="H23" s="3">
-        <v>-5300</v>
+        <v>-11100</v>
       </c>
       <c r="I23" s="3">
-        <v>-2200</v>
+        <v>-5600</v>
       </c>
       <c r="J23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1303,8 +1349,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3200</v>
+        <v>-5900</v>
       </c>
       <c r="E26" s="3">
-        <v>-5800</v>
+        <v>-3400</v>
       </c>
       <c r="F26" s="3">
-        <v>-7500</v>
+        <v>-6000</v>
       </c>
       <c r="G26" s="3">
-        <v>-10600</v>
+        <v>-7900</v>
       </c>
       <c r="H26" s="3">
-        <v>-5300</v>
+        <v>-11100</v>
       </c>
       <c r="I26" s="3">
-        <v>-2200</v>
+        <v>-5600</v>
       </c>
       <c r="J26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3200</v>
+        <v>-5900</v>
       </c>
       <c r="E27" s="3">
-        <v>-5800</v>
+        <v>-3400</v>
       </c>
       <c r="F27" s="3">
-        <v>-7500</v>
+        <v>-6000</v>
       </c>
       <c r="G27" s="3">
-        <v>-10600</v>
+        <v>-7900</v>
       </c>
       <c r="H27" s="3">
-        <v>-5300</v>
+        <v>-11100</v>
       </c>
       <c r="I27" s="3">
-        <v>-2200</v>
+        <v>-5600</v>
       </c>
       <c r="J27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,46 +1513,52 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-300</v>
       </c>
-      <c r="G29" s="3">
-        <v>24900</v>
-      </c>
       <c r="H29" s="3">
-        <v>1300</v>
+        <v>26100</v>
       </c>
       <c r="I29" s="3">
-        <v>7200</v>
+        <v>1400</v>
       </c>
       <c r="J29" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K29" s="3">
         <v>1500</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,8 +1636,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1607,46 +1677,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3300</v>
+        <v>-6200</v>
       </c>
       <c r="E33" s="3">
-        <v>-5700</v>
+        <v>-3500</v>
       </c>
       <c r="F33" s="3">
-        <v>-7900</v>
+        <v>-6000</v>
       </c>
       <c r="G33" s="3">
-        <v>14300</v>
+        <v>-8200</v>
       </c>
       <c r="H33" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>600</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="O33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3300</v>
+        <v>-6200</v>
       </c>
       <c r="E35" s="3">
-        <v>-5700</v>
+        <v>-3500</v>
       </c>
       <c r="F35" s="3">
-        <v>-7900</v>
+        <v>-6000</v>
       </c>
       <c r="G35" s="3">
-        <v>14300</v>
+        <v>-8200</v>
       </c>
       <c r="H35" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>600</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="O35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43554</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43372</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43001</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42819</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42637</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42455</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42273</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42091</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,46 +1882,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>900</v>
       </c>
       <c r="F41" s="3">
         <v>900</v>
       </c>
       <c r="G41" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H41" s="3">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="I41" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="J41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1872,84 +1962,93 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E43" s="3">
-        <v>2600</v>
+        <v>4700</v>
       </c>
       <c r="F43" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="G43" s="3">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="H43" s="3">
-        <v>3300</v>
+        <v>4700</v>
       </c>
       <c r="I43" s="3">
-        <v>9900</v>
+        <v>3400</v>
       </c>
       <c r="J43" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K43" s="3">
         <v>7300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>73900</v>
+        <v>77600</v>
       </c>
       <c r="E44" s="3">
-        <v>66500</v>
+        <v>77400</v>
       </c>
       <c r="F44" s="3">
-        <v>64400</v>
+        <v>69700</v>
       </c>
       <c r="G44" s="3">
-        <v>61600</v>
+        <v>67400</v>
       </c>
       <c r="H44" s="3">
-        <v>52300</v>
+        <v>64600</v>
       </c>
       <c r="I44" s="3">
-        <v>96000</v>
+        <v>54800</v>
       </c>
       <c r="J44" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K44" s="3">
         <v>103800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>102600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>101300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>135700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>150400</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1957,92 +2056,98 @@
         <v>1500</v>
       </c>
       <c r="E45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
-        <v>2500</v>
-      </c>
       <c r="G45" s="3">
-        <v>3600</v>
+        <v>2600</v>
       </c>
       <c r="H45" s="3">
-        <v>72100</v>
+        <v>3800</v>
       </c>
       <c r="I45" s="3">
+        <v>75500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>81000</v>
+        <v>84100</v>
       </c>
       <c r="E46" s="3">
-        <v>71500</v>
+        <v>84800</v>
       </c>
       <c r="F46" s="3">
-        <v>70600</v>
+        <v>74900</v>
       </c>
       <c r="G46" s="3">
-        <v>70500</v>
+        <v>74000</v>
       </c>
       <c r="H46" s="3">
-        <v>129500</v>
+        <v>73800</v>
       </c>
       <c r="I46" s="3">
-        <v>108800</v>
+        <v>135600</v>
       </c>
       <c r="J46" s="3">
+        <v>114000</v>
+      </c>
+      <c r="K46" s="3">
         <v>115600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>113300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>112500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>148000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="E47" s="3">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
@@ -2056,90 +2161,99 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>67600</v>
+        <v>69000</v>
       </c>
       <c r="E48" s="3">
-        <v>21600</v>
+        <v>70800</v>
       </c>
       <c r="F48" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>18300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J48" s="3">
         <v>17500</v>
       </c>
-      <c r="G48" s="3">
-        <v>14100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>10400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>16700</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="E49" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F49" s="3">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="G49" s="3">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="H49" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="I49" s="3">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
       </c>
       <c r="K49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L49" s="3">
         <v>600</v>
       </c>
       <c r="M49" s="3">
+        <v>600</v>
+      </c>
+      <c r="N49" s="3">
         <v>900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,8 +2331,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2228,32 +2348,35 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>4200</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
       <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>154600</v>
+        <v>160300</v>
       </c>
       <c r="E54" s="3">
-        <v>97200</v>
+        <v>161900</v>
       </c>
       <c r="F54" s="3">
-        <v>93100</v>
+        <v>101800</v>
       </c>
       <c r="G54" s="3">
-        <v>87400</v>
+        <v>97500</v>
       </c>
       <c r="H54" s="3">
-        <v>142300</v>
+        <v>91500</v>
       </c>
       <c r="I54" s="3">
-        <v>130000</v>
+        <v>149000</v>
       </c>
       <c r="J54" s="3">
+        <v>136200</v>
+      </c>
+      <c r="K54" s="3">
         <v>137700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>136200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>136800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>180200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29200</v>
+        <v>36700</v>
       </c>
       <c r="E57" s="3">
-        <v>24200</v>
+        <v>30500</v>
       </c>
       <c r="F57" s="3">
-        <v>19700</v>
+        <v>25300</v>
       </c>
       <c r="G57" s="3">
-        <v>19200</v>
+        <v>20700</v>
       </c>
       <c r="H57" s="3">
-        <v>16700</v>
+        <v>20100</v>
       </c>
       <c r="I57" s="3">
-        <v>33900</v>
+        <v>17500</v>
       </c>
       <c r="J57" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K57" s="3">
         <v>35100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>44000</v>
+        <v>44200</v>
       </c>
       <c r="E58" s="3">
-        <v>34900</v>
+        <v>46100</v>
       </c>
       <c r="F58" s="3">
-        <v>34100</v>
+        <v>36500</v>
       </c>
       <c r="G58" s="3">
-        <v>29300</v>
+        <v>35700</v>
       </c>
       <c r="H58" s="3">
-        <v>40400</v>
+        <v>30700</v>
       </c>
       <c r="I58" s="3">
-        <v>53200</v>
+        <v>42300</v>
       </c>
       <c r="J58" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K58" s="3">
         <v>56800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>50700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>58200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>69100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8800</v>
+        <v>8000</v>
       </c>
       <c r="E59" s="3">
-        <v>7000</v>
+        <v>9200</v>
       </c>
       <c r="F59" s="3">
-        <v>6300</v>
+        <v>7300</v>
       </c>
       <c r="G59" s="3">
-        <v>5400</v>
+        <v>6600</v>
       </c>
       <c r="H59" s="3">
-        <v>69500</v>
+        <v>5700</v>
       </c>
       <c r="I59" s="3">
-        <v>6100</v>
+        <v>72800</v>
       </c>
       <c r="J59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>81900</v>
+        <v>88900</v>
       </c>
       <c r="E60" s="3">
-        <v>66100</v>
+        <v>85800</v>
       </c>
       <c r="F60" s="3">
-        <v>60100</v>
+        <v>69200</v>
       </c>
       <c r="G60" s="3">
-        <v>53900</v>
+        <v>63000</v>
       </c>
       <c r="H60" s="3">
-        <v>126600</v>
+        <v>56400</v>
       </c>
       <c r="I60" s="3">
-        <v>93200</v>
+        <v>132600</v>
       </c>
       <c r="J60" s="3">
+        <v>97600</v>
+      </c>
+      <c r="K60" s="3">
         <v>97500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>92200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>95700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>121900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10500</v>
+        <v>12300</v>
       </c>
       <c r="E61" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="F61" s="3">
-        <v>10500</v>
+        <v>12300</v>
       </c>
       <c r="G61" s="3">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="H61" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="I61" s="3">
-        <v>22200</v>
+        <v>4100</v>
       </c>
       <c r="J61" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K61" s="3">
         <v>32400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36200</v>
-      </c>
-      <c r="M61" s="3">
-        <v>52000</v>
       </c>
       <c r="N61" s="3">
         <v>52000</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53600</v>
+        <v>56500</v>
       </c>
       <c r="E62" s="3">
-        <v>9400</v>
+        <v>56200</v>
       </c>
       <c r="F62" s="3">
-        <v>6600</v>
+        <v>9900</v>
       </c>
       <c r="G62" s="3">
-        <v>6400</v>
+        <v>7000</v>
       </c>
       <c r="H62" s="3">
-        <v>5200</v>
+        <v>6700</v>
       </c>
       <c r="I62" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="J62" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K62" s="3">
         <v>3500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>146100</v>
+        <v>157700</v>
       </c>
       <c r="E66" s="3">
-        <v>87200</v>
+        <v>153000</v>
       </c>
       <c r="F66" s="3">
-        <v>77300</v>
+        <v>91300</v>
       </c>
       <c r="G66" s="3">
-        <v>63800</v>
+        <v>81000</v>
       </c>
       <c r="H66" s="3">
-        <v>135700</v>
+        <v>66800</v>
       </c>
       <c r="I66" s="3">
-        <v>120700</v>
+        <v>142100</v>
       </c>
       <c r="J66" s="3">
+        <v>126400</v>
+      </c>
+      <c r="K66" s="3">
         <v>133400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>130400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>134600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>177400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-73200</v>
+        <v>-82900</v>
       </c>
       <c r="E72" s="3">
-        <v>-71600</v>
+        <v>-76600</v>
       </c>
       <c r="F72" s="3">
-        <v>-65800</v>
+        <v>-74900</v>
       </c>
       <c r="G72" s="3">
-        <v>-58000</v>
+        <v>-68900</v>
       </c>
       <c r="H72" s="3">
-        <v>-56900</v>
+        <v>-60700</v>
       </c>
       <c r="I72" s="3">
-        <v>-53700</v>
+        <v>-59600</v>
       </c>
       <c r="J72" s="3">
-        <v>-58700</v>
+        <v>-56300</v>
       </c>
       <c r="K72" s="3">
         <v>-58700</v>
       </c>
       <c r="L72" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="M72" s="3">
         <v>-62100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-84300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-79700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8500</v>
+        <v>2600</v>
       </c>
       <c r="E76" s="3">
-        <v>10000</v>
+        <v>8900</v>
       </c>
       <c r="F76" s="3">
-        <v>15800</v>
+        <v>10500</v>
       </c>
       <c r="G76" s="3">
-        <v>23600</v>
+        <v>16500</v>
       </c>
       <c r="H76" s="3">
-        <v>6700</v>
+        <v>24700</v>
       </c>
       <c r="I76" s="3">
-        <v>9300</v>
+        <v>7000</v>
       </c>
       <c r="J76" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K76" s="3">
         <v>4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43554</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43372</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43001</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42819</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42637</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42455</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42273</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42091</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3300</v>
+        <v>-6200</v>
       </c>
       <c r="E81" s="3">
-        <v>-5700</v>
+        <v>-3500</v>
       </c>
       <c r="F81" s="3">
-        <v>-7900</v>
+        <v>-6000</v>
       </c>
       <c r="G81" s="3">
-        <v>14300</v>
+        <v>-8200</v>
       </c>
       <c r="H81" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>600</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="O81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,46 +3431,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G83" s="3">
         <v>1400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1200</v>
       </c>
       <c r="H83" s="3">
         <v>1200</v>
       </c>
       <c r="I83" s="3">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="J83" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K83" s="3">
         <v>2000</v>
       </c>
       <c r="L83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M83" s="3">
         <v>1900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3000</v>
       </c>
       <c r="N83" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4600</v>
+        <v>1500</v>
       </c>
       <c r="E89" s="3">
-        <v>1700</v>
+        <v>-4800</v>
       </c>
       <c r="F89" s="3">
-        <v>-5100</v>
+        <v>1800</v>
       </c>
       <c r="G89" s="3">
-        <v>-12300</v>
+        <v>-5300</v>
       </c>
       <c r="H89" s="3">
-        <v>-9000</v>
+        <v>-12900</v>
       </c>
       <c r="I89" s="3">
-        <v>7000</v>
+        <v>-9400</v>
       </c>
       <c r="J89" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2900</v>
+        <v>-1400</v>
       </c>
       <c r="E91" s="3">
-        <v>-3700</v>
+        <v>-3000</v>
       </c>
       <c r="F91" s="3">
-        <v>-4800</v>
+        <v>-3800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2500</v>
+        <v>-5000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1200</v>
+        <v>-2600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1700</v>
+        <v>-1300</v>
       </c>
       <c r="J91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-2400</v>
       </c>
       <c r="M91" s="3">
         <v>-2400</v>
       </c>
       <c r="N91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="O91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2900</v>
+        <v>-1900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3400</v>
+        <v>-3000</v>
       </c>
       <c r="F94" s="3">
-        <v>-6500</v>
+        <v>-3600</v>
       </c>
       <c r="G94" s="3">
-        <v>95500</v>
+        <v>-6800</v>
       </c>
       <c r="H94" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2100</v>
       </c>
-      <c r="I94" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,8 +3916,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3721,8 +3955,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7800</v>
+        <v>-400</v>
       </c>
       <c r="E100" s="3">
-        <v>1700</v>
+        <v>8200</v>
       </c>
       <c r="F100" s="3">
-        <v>11700</v>
+        <v>1800</v>
       </c>
       <c r="G100" s="3">
-        <v>-67700</v>
+        <v>12300</v>
       </c>
       <c r="H100" s="3">
-        <v>16500</v>
+        <v>-70900</v>
       </c>
       <c r="I100" s="3">
-        <v>-7000</v>
+        <v>17200</v>
       </c>
       <c r="J100" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K100" s="3">
         <v>5100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
-        <v>400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>BGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43372</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43001</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42819</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42637</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42455</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42273</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42091</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>64000</v>
+        <v>43900</v>
       </c>
       <c r="E8" s="3">
-        <v>64900</v>
+        <v>64700</v>
       </c>
       <c r="F8" s="3">
-        <v>62600</v>
+        <v>65700</v>
       </c>
       <c r="G8" s="3">
-        <v>52300</v>
+        <v>63400</v>
       </c>
       <c r="H8" s="3">
-        <v>62000</v>
+        <v>52900</v>
       </c>
       <c r="I8" s="3">
-        <v>49500</v>
+        <v>62700</v>
       </c>
       <c r="J8" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K8" s="3">
         <v>46900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>113000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>99700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>161900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>39700</v>
+        <v>26300</v>
       </c>
       <c r="E9" s="3">
-        <v>40100</v>
+        <v>40200</v>
       </c>
       <c r="F9" s="3">
-        <v>38100</v>
+        <v>40600</v>
       </c>
       <c r="G9" s="3">
-        <v>32200</v>
+        <v>38600</v>
       </c>
       <c r="H9" s="3">
-        <v>39500</v>
+        <v>32600</v>
       </c>
       <c r="I9" s="3">
-        <v>29700</v>
+        <v>39900</v>
       </c>
       <c r="J9" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K9" s="3">
         <v>28400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>70000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>61300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>99500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>24300</v>
+        <v>17600</v>
       </c>
       <c r="E10" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>25100</v>
+      </c>
+      <c r="G10" s="3">
         <v>24800</v>
       </c>
-      <c r="F10" s="3">
-        <v>24500</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>20300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>22800</v>
+      </c>
+      <c r="J10" s="3">
         <v>20100</v>
       </c>
-      <c r="H10" s="3">
-        <v>22500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>19800</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>43000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>62400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,90 +969,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5500</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E15" s="3">
         <v>1900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1500</v>
       </c>
-      <c r="G15" s="3">
-        <v>1400</v>
-      </c>
       <c r="H15" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="I15" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K15" s="3">
         <v>900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>67400</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>66500</v>
+        <v>68200</v>
       </c>
       <c r="F17" s="3">
-        <v>66600</v>
+        <v>67300</v>
       </c>
       <c r="G17" s="3">
-        <v>58800</v>
+        <v>67300</v>
       </c>
       <c r="H17" s="3">
-        <v>71300</v>
+        <v>59400</v>
       </c>
       <c r="I17" s="3">
-        <v>54000</v>
+        <v>72100</v>
       </c>
       <c r="J17" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K17" s="3">
         <v>48100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>106000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>95200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>161900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
-        <v>-3900</v>
-      </c>
       <c r="G18" s="3">
-        <v>-6500</v>
+        <v>-4000</v>
       </c>
       <c r="H18" s="3">
-        <v>-9200</v>
+        <v>-6600</v>
       </c>
       <c r="I18" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4500</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,13 +1180,14 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1188,136 +1222,148 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H21" s="3">
-        <v>-8000</v>
+        <v>-5100</v>
       </c>
       <c r="I21" s="3">
-        <v>-3200</v>
+        <v>-8100</v>
       </c>
       <c r="J21" s="3">
-        <v>-400</v>
+        <v>-3300</v>
       </c>
       <c r="K21" s="3">
         <v>-400</v>
       </c>
       <c r="L21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M21" s="3">
         <v>7200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
-        <v>1800</v>
-      </c>
       <c r="F22" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="G22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
-        <v>1900</v>
-      </c>
       <c r="I22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-5900</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G23" s="3">
-        <v>-7900</v>
+        <v>-6100</v>
       </c>
       <c r="H23" s="3">
-        <v>-11100</v>
+        <v>-8000</v>
       </c>
       <c r="I23" s="3">
-        <v>-5600</v>
+        <v>-11300</v>
       </c>
       <c r="J23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1352,8 +1398,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5900</v>
+        <v>-2200</v>
       </c>
       <c r="E26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G26" s="3">
-        <v>-7900</v>
+        <v>-6100</v>
       </c>
       <c r="H26" s="3">
-        <v>-11100</v>
+        <v>-8000</v>
       </c>
       <c r="I26" s="3">
-        <v>-5600</v>
+        <v>-11300</v>
       </c>
       <c r="J26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5900</v>
+        <v>-2200</v>
       </c>
       <c r="E27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G27" s="3">
-        <v>-7900</v>
+        <v>-6100</v>
       </c>
       <c r="H27" s="3">
-        <v>-11100</v>
+        <v>-8000</v>
       </c>
       <c r="I27" s="3">
-        <v>-5600</v>
+        <v>-11300</v>
       </c>
       <c r="J27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,49 +1574,55 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-300</v>
       </c>
-      <c r="H29" s="3">
-        <v>26100</v>
-      </c>
       <c r="I29" s="3">
+        <v>26400</v>
+      </c>
+      <c r="J29" s="3">
         <v>1400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>7600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1500</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,13 +1706,16 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1680,49 +1750,55 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6200</v>
+        <v>-2200</v>
       </c>
       <c r="E33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G33" s="3">
-        <v>-8200</v>
+        <v>-6100</v>
       </c>
       <c r="H33" s="3">
-        <v>14900</v>
+        <v>-8300</v>
       </c>
       <c r="I33" s="3">
-        <v>-4200</v>
+        <v>15100</v>
       </c>
       <c r="J33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K33" s="3">
         <v>5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6200</v>
+        <v>-2200</v>
       </c>
       <c r="E35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G35" s="3">
-        <v>-8200</v>
+        <v>-6100</v>
       </c>
       <c r="H35" s="3">
-        <v>14900</v>
+        <v>-8300</v>
       </c>
       <c r="I35" s="3">
-        <v>-4200</v>
+        <v>15100</v>
       </c>
       <c r="J35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K35" s="3">
         <v>5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43372</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43001</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42819</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42637</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42455</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42273</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42091</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,49 +1969,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>900</v>
       </c>
       <c r="G41" s="3">
         <v>900</v>
       </c>
       <c r="H41" s="3">
+        <v>900</v>
+      </c>
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1965,192 +2055,207 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E43" s="3">
         <v>4600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
-        <v>3000</v>
-      </c>
       <c r="H43" s="3">
-        <v>4700</v>
+        <v>3100</v>
       </c>
       <c r="I43" s="3">
-        <v>3400</v>
+        <v>4800</v>
       </c>
       <c r="J43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K43" s="3">
         <v>10300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>77600</v>
+        <v>77200</v>
       </c>
       <c r="E44" s="3">
-        <v>77400</v>
+        <v>78400</v>
       </c>
       <c r="F44" s="3">
-        <v>69700</v>
+        <v>78300</v>
       </c>
       <c r="G44" s="3">
-        <v>67400</v>
+        <v>70500</v>
       </c>
       <c r="H44" s="3">
-        <v>64600</v>
+        <v>68200</v>
       </c>
       <c r="I44" s="3">
-        <v>54800</v>
+        <v>65300</v>
       </c>
       <c r="J44" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K44" s="3">
         <v>100500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>103800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>102600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>101300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>135700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>150400</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E45" s="3">
         <v>1500</v>
       </c>
       <c r="F45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
-        <v>75500</v>
-      </c>
       <c r="J45" s="3">
+        <v>76400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>84100</v>
+        <v>85500</v>
       </c>
       <c r="E46" s="3">
-        <v>84800</v>
+        <v>85100</v>
       </c>
       <c r="F46" s="3">
-        <v>74900</v>
+        <v>85800</v>
       </c>
       <c r="G46" s="3">
-        <v>74000</v>
+        <v>75700</v>
       </c>
       <c r="H46" s="3">
-        <v>73800</v>
+        <v>74800</v>
       </c>
       <c r="I46" s="3">
-        <v>135600</v>
+        <v>74700</v>
       </c>
       <c r="J46" s="3">
+        <v>137200</v>
+      </c>
+      <c r="K46" s="3">
         <v>114000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>115600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>113300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>112500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>148000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E47" s="3">
         <v>3500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>700</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -2164,55 +2269,61 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>69000</v>
+        <v>65700</v>
       </c>
       <c r="E48" s="3">
-        <v>70800</v>
+        <v>69800</v>
       </c>
       <c r="F48" s="3">
-        <v>22600</v>
+        <v>71600</v>
       </c>
       <c r="G48" s="3">
-        <v>18300</v>
+        <v>22900</v>
       </c>
       <c r="H48" s="3">
-        <v>14800</v>
+        <v>18500</v>
       </c>
       <c r="I48" s="3">
-        <v>10900</v>
+        <v>15000</v>
       </c>
       <c r="J48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K48" s="3">
         <v>17500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2220,40 +2331,43 @@
         <v>3800</v>
       </c>
       <c r="E49" s="3">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="F49" s="3">
         <v>3400</v>
       </c>
       <c r="G49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H49" s="3">
         <v>4500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3000</v>
       </c>
-      <c r="I49" s="3">
-        <v>2500</v>
-      </c>
       <c r="J49" s="3">
-        <v>500</v>
+        <v>2600</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
       </c>
       <c r="L49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M49" s="3">
         <v>600</v>
       </c>
       <c r="N49" s="3">
+        <v>600</v>
+      </c>
+      <c r="O49" s="3">
         <v>900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,8 +2451,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2351,32 +2471,35 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>4200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
       </c>
       <c r="M52" s="3">
+        <v>400</v>
+      </c>
+      <c r="N52" s="3">
         <v>1600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>160300</v>
+        <v>158600</v>
       </c>
       <c r="E54" s="3">
-        <v>161900</v>
+        <v>162200</v>
       </c>
       <c r="F54" s="3">
-        <v>101800</v>
+        <v>163700</v>
       </c>
       <c r="G54" s="3">
-        <v>97500</v>
+        <v>103000</v>
       </c>
       <c r="H54" s="3">
-        <v>91500</v>
+        <v>98600</v>
       </c>
       <c r="I54" s="3">
-        <v>149000</v>
+        <v>92600</v>
       </c>
       <c r="J54" s="3">
+        <v>150800</v>
+      </c>
+      <c r="K54" s="3">
         <v>136200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>137700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>136200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>136800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>180200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>36700</v>
+        <v>27800</v>
       </c>
       <c r="E57" s="3">
-        <v>30500</v>
+        <v>37100</v>
       </c>
       <c r="F57" s="3">
-        <v>25300</v>
+        <v>30900</v>
       </c>
       <c r="G57" s="3">
-        <v>20700</v>
+        <v>25600</v>
       </c>
       <c r="H57" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="I57" s="3">
-        <v>17500</v>
+        <v>20300</v>
       </c>
       <c r="J57" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K57" s="3">
         <v>35500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>44700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>44200</v>
+        <v>48100</v>
       </c>
       <c r="E58" s="3">
-        <v>46100</v>
+        <v>44700</v>
       </c>
       <c r="F58" s="3">
-        <v>36500</v>
+        <v>46600</v>
       </c>
       <c r="G58" s="3">
-        <v>35700</v>
+        <v>37000</v>
       </c>
       <c r="H58" s="3">
-        <v>30700</v>
+        <v>36100</v>
       </c>
       <c r="I58" s="3">
-        <v>42300</v>
+        <v>31000</v>
       </c>
       <c r="J58" s="3">
+        <v>42800</v>
+      </c>
+      <c r="K58" s="3">
         <v>55700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>56800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>50700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>58200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>69100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8000</v>
+        <v>9900</v>
       </c>
       <c r="E59" s="3">
-        <v>9200</v>
+        <v>8100</v>
       </c>
       <c r="F59" s="3">
-        <v>7300</v>
+        <v>9300</v>
       </c>
       <c r="G59" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H59" s="3">
         <v>6600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="L59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="N59" s="3">
         <v>5700</v>
       </c>
-      <c r="I59" s="3">
-        <v>72800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>6400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>5600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>6700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>5700</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>88900</v>
+        <v>85900</v>
       </c>
       <c r="E60" s="3">
-        <v>85800</v>
+        <v>89900</v>
       </c>
       <c r="F60" s="3">
-        <v>69200</v>
+        <v>86800</v>
       </c>
       <c r="G60" s="3">
-        <v>63000</v>
+        <v>70000</v>
       </c>
       <c r="H60" s="3">
-        <v>56400</v>
+        <v>63700</v>
       </c>
       <c r="I60" s="3">
-        <v>132600</v>
+        <v>57100</v>
       </c>
       <c r="J60" s="3">
+        <v>134100</v>
+      </c>
+      <c r="K60" s="3">
         <v>97600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>97500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>92200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>95700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>121900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12300</v>
+        <v>18100</v>
       </c>
       <c r="E61" s="3">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="F61" s="3">
-        <v>12300</v>
+        <v>11100</v>
       </c>
       <c r="G61" s="3">
-        <v>11000</v>
+        <v>12400</v>
       </c>
       <c r="H61" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I61" s="3">
         <v>3700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36200</v>
-      </c>
-      <c r="N61" s="3">
-        <v>52000</v>
       </c>
       <c r="O61" s="3">
         <v>52000</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56500</v>
+        <v>54000</v>
       </c>
       <c r="E62" s="3">
-        <v>56200</v>
+        <v>57200</v>
       </c>
       <c r="F62" s="3">
-        <v>9900</v>
+        <v>56800</v>
       </c>
       <c r="G62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H62" s="3">
         <v>7000</v>
       </c>
-      <c r="H62" s="3">
-        <v>6700</v>
-      </c>
       <c r="I62" s="3">
-        <v>5400</v>
+        <v>6800</v>
       </c>
       <c r="J62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K62" s="3">
         <v>5600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>157700</v>
+        <v>158100</v>
       </c>
       <c r="E66" s="3">
-        <v>153000</v>
+        <v>159500</v>
       </c>
       <c r="F66" s="3">
-        <v>91300</v>
+        <v>154800</v>
       </c>
       <c r="G66" s="3">
-        <v>81000</v>
+        <v>92400</v>
       </c>
       <c r="H66" s="3">
-        <v>66800</v>
+        <v>81900</v>
       </c>
       <c r="I66" s="3">
-        <v>142100</v>
+        <v>67600</v>
       </c>
       <c r="J66" s="3">
+        <v>143700</v>
+      </c>
+      <c r="K66" s="3">
         <v>126400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>133400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>130400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>134600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>177400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-82900</v>
+        <v>-86000</v>
       </c>
       <c r="E72" s="3">
-        <v>-76600</v>
+        <v>-83800</v>
       </c>
       <c r="F72" s="3">
-        <v>-74900</v>
+        <v>-77500</v>
       </c>
       <c r="G72" s="3">
-        <v>-68900</v>
+        <v>-75800</v>
       </c>
       <c r="H72" s="3">
-        <v>-60700</v>
+        <v>-69700</v>
       </c>
       <c r="I72" s="3">
-        <v>-59600</v>
+        <v>-61400</v>
       </c>
       <c r="J72" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-56300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-58700</v>
       </c>
       <c r="L72" s="3">
         <v>-58700</v>
       </c>
       <c r="M72" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="N72" s="3">
         <v>-62100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-84300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-79700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2600</v>
       </c>
-      <c r="E76" s="3">
-        <v>8900</v>
-      </c>
       <c r="F76" s="3">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="G76" s="3">
-        <v>16500</v>
+        <v>10600</v>
       </c>
       <c r="H76" s="3">
-        <v>24700</v>
+        <v>16700</v>
       </c>
       <c r="I76" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J76" s="3">
         <v>7000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43372</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43001</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42819</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42637</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42455</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42273</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42091</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6200</v>
+        <v>-2200</v>
       </c>
       <c r="E81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G81" s="3">
-        <v>-8200</v>
+        <v>-6100</v>
       </c>
       <c r="H81" s="3">
-        <v>14900</v>
+        <v>-8300</v>
       </c>
       <c r="I81" s="3">
-        <v>-4200</v>
+        <v>15100</v>
       </c>
       <c r="J81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K81" s="3">
         <v>5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,49 +3630,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
-        <v>1400</v>
-      </c>
       <c r="H83" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="I83" s="3">
         <v>1300</v>
       </c>
       <c r="J83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2000</v>
       </c>
       <c r="L83" s="3">
         <v>2000</v>
       </c>
       <c r="M83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N83" s="3">
         <v>1900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3000</v>
       </c>
       <c r="O83" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
         <v>1500</v>
       </c>
-      <c r="E89" s="3">
-        <v>-4800</v>
-      </c>
       <c r="F89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="G89" s="3">
         <v>1800</v>
       </c>
-      <c r="G89" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H89" s="3">
-        <v>-12900</v>
+        <v>-5400</v>
       </c>
       <c r="I89" s="3">
-        <v>-9400</v>
+        <v>-13000</v>
       </c>
       <c r="J89" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="K89" s="3">
         <v>7300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
-        <v>-3000</v>
-      </c>
       <c r="F91" s="3">
-        <v>-3800</v>
+        <v>-3100</v>
       </c>
       <c r="G91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-2400</v>
       </c>
       <c r="N91" s="3">
         <v>-2400</v>
       </c>
       <c r="O91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
-        <v>-3000</v>
-      </c>
       <c r="F94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-3600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6800</v>
       </c>
-      <c r="H94" s="3">
-        <v>100000</v>
-      </c>
       <c r="I94" s="3">
+        <v>101200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,8 +4150,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3958,8 +4192,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,49 +4324,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
-        <v>12300</v>
-      </c>
       <c r="H100" s="3">
-        <v>-70900</v>
+        <v>12400</v>
       </c>
       <c r="I100" s="3">
-        <v>17200</v>
+        <v>-71700</v>
       </c>
       <c r="J100" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-7300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4133,75 +4382,81 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>43900</v>
+        <v>45200</v>
       </c>
       <c r="E8" s="3">
-        <v>64700</v>
+        <v>66700</v>
       </c>
       <c r="F8" s="3">
-        <v>65700</v>
+        <v>67600</v>
       </c>
       <c r="G8" s="3">
-        <v>63400</v>
+        <v>65300</v>
       </c>
       <c r="H8" s="3">
-        <v>52900</v>
+        <v>54500</v>
       </c>
       <c r="I8" s="3">
-        <v>62700</v>
+        <v>64600</v>
       </c>
       <c r="J8" s="3">
-        <v>50100</v>
+        <v>51600</v>
       </c>
       <c r="K8" s="3">
         <v>46900</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>26300</v>
+        <v>27100</v>
       </c>
       <c r="E9" s="3">
-        <v>40200</v>
+        <v>41400</v>
       </c>
       <c r="F9" s="3">
-        <v>40600</v>
+        <v>41800</v>
       </c>
       <c r="G9" s="3">
-        <v>38600</v>
+        <v>39700</v>
       </c>
       <c r="H9" s="3">
-        <v>32600</v>
+        <v>33600</v>
       </c>
       <c r="I9" s="3">
-        <v>39900</v>
+        <v>41200</v>
       </c>
       <c r="J9" s="3">
-        <v>30000</v>
+        <v>30900</v>
       </c>
       <c r="K9" s="3">
         <v>28400</v>
@@ -828,25 +828,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>17600</v>
+        <v>18100</v>
       </c>
       <c r="E10" s="3">
-        <v>24500</v>
+        <v>25300</v>
       </c>
       <c r="F10" s="3">
-        <v>25100</v>
+        <v>25800</v>
       </c>
       <c r="G10" s="3">
-        <v>24800</v>
+        <v>25500</v>
       </c>
       <c r="H10" s="3">
-        <v>20300</v>
+        <v>20900</v>
       </c>
       <c r="I10" s="3">
-        <v>22800</v>
+        <v>23500</v>
       </c>
       <c r="J10" s="3">
-        <v>20100</v>
+        <v>20700</v>
       </c>
       <c r="K10" s="3">
         <v>18500</v>
@@ -993,7 +993,7 @@
         <v>400</v>
       </c>
       <c r="I14" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>2200</v>
       </c>
       <c r="E15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F15" s="3">
         <v>1900</v>
       </c>
-      <c r="F15" s="3">
-        <v>1800</v>
-      </c>
       <c r="G15" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H15" s="3">
         <v>1500</v>
@@ -1084,22 +1084,22 @@
         <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>68200</v>
+        <v>70200</v>
       </c>
       <c r="F17" s="3">
-        <v>67300</v>
+        <v>69300</v>
       </c>
       <c r="G17" s="3">
-        <v>67300</v>
+        <v>69300</v>
       </c>
       <c r="H17" s="3">
-        <v>59400</v>
+        <v>61200</v>
       </c>
       <c r="I17" s="3">
-        <v>72100</v>
+        <v>74300</v>
       </c>
       <c r="J17" s="3">
-        <v>54600</v>
+        <v>56300</v>
       </c>
       <c r="K17" s="3">
         <v>48100</v>
@@ -1128,22 +1128,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="F18" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G18" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="H18" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="I18" s="3">
-        <v>-9300</v>
+        <v>-9600</v>
       </c>
       <c r="J18" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="K18" s="3">
         <v>-1300</v>
@@ -1240,16 +1240,16 @@
         <v>300</v>
       </c>
       <c r="G21" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H21" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="I21" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="J21" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="K21" s="3">
         <v>-400</v>
@@ -1278,7 +1278,7 @@
         <v>1100</v>
       </c>
       <c r="E22" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F22" s="3">
         <v>1900</v>
@@ -1287,7 +1287,7 @@
         <v>2200</v>
       </c>
       <c r="H22" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I22" s="3">
         <v>2000</v>
@@ -1322,22 +1322,22 @@
         <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="F23" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="G23" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="H23" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="I23" s="3">
-        <v>-11300</v>
+        <v>-11600</v>
       </c>
       <c r="J23" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K23" s="3">
         <v>-2300</v>
@@ -1454,22 +1454,22 @@
         <v>-2200</v>
       </c>
       <c r="E26" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="F26" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="G26" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="H26" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="I26" s="3">
-        <v>-11300</v>
+        <v>-11600</v>
       </c>
       <c r="J26" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K26" s="3">
         <v>-2300</v>
@@ -1498,22 +1498,22 @@
         <v>-2200</v>
       </c>
       <c r="E27" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="F27" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="G27" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="H27" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="I27" s="3">
-        <v>-11300</v>
+        <v>-11600</v>
       </c>
       <c r="J27" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K27" s="3">
         <v>-2300</v>
@@ -1595,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I29" s="3">
-        <v>26400</v>
+        <v>27200</v>
       </c>
       <c r="J29" s="3">
         <v>1400</v>
@@ -1762,22 +1762,22 @@
         <v>-2200</v>
       </c>
       <c r="E33" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="F33" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G33" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="H33" s="3">
-        <v>-8300</v>
+        <v>-8600</v>
       </c>
       <c r="I33" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="J33" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="K33" s="3">
         <v>5300</v>
@@ -1850,22 +1850,22 @@
         <v>-2200</v>
       </c>
       <c r="E35" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="F35" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G35" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="H35" s="3">
-        <v>-8300</v>
+        <v>-8600</v>
       </c>
       <c r="I35" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="J35" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="K35" s="3">
         <v>5300</v>
@@ -1982,19 +1982,19 @@
         <v>400</v>
       </c>
       <c r="F41" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G41" s="3">
         <v>900</v>
       </c>
       <c r="H41" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I41" s="3">
         <v>800</v>
       </c>
       <c r="J41" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K41" s="3">
         <v>1500</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4800</v>
       </c>
-      <c r="E43" s="3">
-        <v>4600</v>
-      </c>
       <c r="F43" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="G43" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H43" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I43" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="J43" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K43" s="3">
         <v>10300</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>77200</v>
+        <v>79600</v>
       </c>
       <c r="E44" s="3">
-        <v>78400</v>
+        <v>80800</v>
       </c>
       <c r="F44" s="3">
-        <v>78300</v>
+        <v>80600</v>
       </c>
       <c r="G44" s="3">
-        <v>70500</v>
+        <v>72600</v>
       </c>
       <c r="H44" s="3">
-        <v>68200</v>
+        <v>70300</v>
       </c>
       <c r="I44" s="3">
-        <v>65300</v>
+        <v>67300</v>
       </c>
       <c r="J44" s="3">
-        <v>55400</v>
+        <v>57100</v>
       </c>
       <c r="K44" s="3">
         <v>100500</v>
@@ -2155,22 +2155,22 @@
         <v>1600</v>
       </c>
       <c r="E45" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F45" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G45" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H45" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I45" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J45" s="3">
-        <v>76400</v>
+        <v>78700</v>
       </c>
       <c r="K45" s="3">
         <v>1700</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>85500</v>
+        <v>88100</v>
       </c>
       <c r="E46" s="3">
-        <v>85100</v>
+        <v>87600</v>
       </c>
       <c r="F46" s="3">
-        <v>85800</v>
+        <v>88300</v>
       </c>
       <c r="G46" s="3">
-        <v>75700</v>
+        <v>78000</v>
       </c>
       <c r="H46" s="3">
-        <v>74800</v>
+        <v>77100</v>
       </c>
       <c r="I46" s="3">
-        <v>74700</v>
+        <v>76900</v>
       </c>
       <c r="J46" s="3">
-        <v>137200</v>
+        <v>141300</v>
       </c>
       <c r="K46" s="3">
         <v>114000</v>
@@ -2240,13 +2240,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E47" s="3">
         <v>3600</v>
       </c>
-      <c r="E47" s="3">
-        <v>3500</v>
-      </c>
       <c r="F47" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G47" s="3">
         <v>1000</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>65700</v>
+        <v>67600</v>
       </c>
       <c r="E48" s="3">
-        <v>69800</v>
+        <v>71900</v>
       </c>
       <c r="F48" s="3">
-        <v>71600</v>
+        <v>73800</v>
       </c>
       <c r="G48" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="H48" s="3">
-        <v>18500</v>
+        <v>19100</v>
       </c>
       <c r="I48" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="J48" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="K48" s="3">
         <v>17500</v>
@@ -2328,22 +2328,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E49" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F49" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G49" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H49" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="I49" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J49" s="3">
         <v>2600</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>158600</v>
+        <v>163300</v>
       </c>
       <c r="E54" s="3">
-        <v>162200</v>
+        <v>167100</v>
       </c>
       <c r="F54" s="3">
-        <v>163700</v>
+        <v>168700</v>
       </c>
       <c r="G54" s="3">
-        <v>103000</v>
+        <v>106100</v>
       </c>
       <c r="H54" s="3">
-        <v>98600</v>
+        <v>101600</v>
       </c>
       <c r="I54" s="3">
-        <v>92600</v>
+        <v>95400</v>
       </c>
       <c r="J54" s="3">
-        <v>150800</v>
+        <v>155300</v>
       </c>
       <c r="K54" s="3">
         <v>136200</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27800</v>
+        <v>28700</v>
       </c>
       <c r="E57" s="3">
-        <v>37100</v>
+        <v>38200</v>
       </c>
       <c r="F57" s="3">
-        <v>30900</v>
+        <v>31800</v>
       </c>
       <c r="G57" s="3">
-        <v>25600</v>
+        <v>26400</v>
       </c>
       <c r="H57" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I57" s="3">
         <v>20900</v>
       </c>
-      <c r="I57" s="3">
-        <v>20300</v>
-      </c>
       <c r="J57" s="3">
-        <v>17700</v>
+        <v>18200</v>
       </c>
       <c r="K57" s="3">
         <v>35500</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>48100</v>
+        <v>49600</v>
       </c>
       <c r="E58" s="3">
-        <v>44700</v>
+        <v>46100</v>
       </c>
       <c r="F58" s="3">
-        <v>46600</v>
+        <v>48000</v>
       </c>
       <c r="G58" s="3">
-        <v>37000</v>
+        <v>38100</v>
       </c>
       <c r="H58" s="3">
-        <v>36100</v>
+        <v>37200</v>
       </c>
       <c r="I58" s="3">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="J58" s="3">
-        <v>42800</v>
+        <v>44100</v>
       </c>
       <c r="K58" s="3">
         <v>55700</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="E59" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="F59" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="G59" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="H59" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="I59" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="J59" s="3">
-        <v>73600</v>
+        <v>75900</v>
       </c>
       <c r="K59" s="3">
         <v>6400</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>85900</v>
+        <v>88500</v>
       </c>
       <c r="E60" s="3">
-        <v>89900</v>
+        <v>92600</v>
       </c>
       <c r="F60" s="3">
-        <v>86800</v>
+        <v>89400</v>
       </c>
       <c r="G60" s="3">
-        <v>70000</v>
+        <v>72100</v>
       </c>
       <c r="H60" s="3">
-        <v>63700</v>
+        <v>65600</v>
       </c>
       <c r="I60" s="3">
-        <v>57100</v>
+        <v>58800</v>
       </c>
       <c r="J60" s="3">
-        <v>134100</v>
+        <v>138200</v>
       </c>
       <c r="K60" s="3">
         <v>97600</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18100</v>
+        <v>18700</v>
       </c>
       <c r="E61" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="F61" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="G61" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="H61" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="I61" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="J61" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K61" s="3">
         <v>23200</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>54000</v>
+        <v>55700</v>
       </c>
       <c r="E62" s="3">
-        <v>57200</v>
+        <v>58900</v>
       </c>
       <c r="F62" s="3">
-        <v>56800</v>
+        <v>58500</v>
       </c>
       <c r="G62" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="H62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I62" s="3">
         <v>7000</v>
       </c>
-      <c r="I62" s="3">
-        <v>6800</v>
-      </c>
       <c r="J62" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="K62" s="3">
         <v>5600</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>158100</v>
+        <v>162800</v>
       </c>
       <c r="E66" s="3">
-        <v>159500</v>
+        <v>164300</v>
       </c>
       <c r="F66" s="3">
-        <v>154800</v>
+        <v>159400</v>
       </c>
       <c r="G66" s="3">
-        <v>92400</v>
+        <v>95200</v>
       </c>
       <c r="H66" s="3">
-        <v>81900</v>
+        <v>84300</v>
       </c>
       <c r="I66" s="3">
-        <v>67600</v>
+        <v>69600</v>
       </c>
       <c r="J66" s="3">
-        <v>143700</v>
+        <v>148000</v>
       </c>
       <c r="K66" s="3">
         <v>126400</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-86000</v>
+        <v>-88600</v>
       </c>
       <c r="E72" s="3">
-        <v>-83800</v>
+        <v>-86300</v>
       </c>
       <c r="F72" s="3">
-        <v>-77500</v>
+        <v>-79800</v>
       </c>
       <c r="G72" s="3">
-        <v>-75800</v>
+        <v>-78100</v>
       </c>
       <c r="H72" s="3">
-        <v>-69700</v>
+        <v>-71800</v>
       </c>
       <c r="I72" s="3">
-        <v>-61400</v>
+        <v>-63300</v>
       </c>
       <c r="J72" s="3">
-        <v>-60200</v>
+        <v>-62100</v>
       </c>
       <c r="K72" s="3">
         <v>-56300</v>
@@ -3441,22 +3441,22 @@
         <v>500</v>
       </c>
       <c r="E76" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F76" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="G76" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="H76" s="3">
-        <v>16700</v>
+        <v>17200</v>
       </c>
       <c r="I76" s="3">
-        <v>25000</v>
+        <v>25800</v>
       </c>
       <c r="J76" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="K76" s="3">
         <v>9700</v>
@@ -3578,22 +3578,22 @@
         <v>-2200</v>
       </c>
       <c r="E81" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="F81" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G81" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="H81" s="3">
-        <v>-8300</v>
+        <v>-8600</v>
       </c>
       <c r="I81" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="J81" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="K81" s="3">
         <v>5300</v>
@@ -3643,10 +3643,10 @@
         <v>1900</v>
       </c>
       <c r="F83" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H83" s="3">
         <v>1500</v>
@@ -3907,19 +3907,19 @@
         <v>1500</v>
       </c>
       <c r="F89" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="G89" s="3">
         <v>1800</v>
       </c>
       <c r="H89" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="I89" s="3">
-        <v>-13000</v>
+        <v>-13400</v>
       </c>
       <c r="J89" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="K89" s="3">
         <v>7300</v>
@@ -3966,22 +3966,22 @@
         <v>-800</v>
       </c>
       <c r="E91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1300</v>
       </c>
       <c r="K91" s="3">
         <v>-1800</v>
@@ -4101,16 +4101,16 @@
         <v>-1900</v>
       </c>
       <c r="F94" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="H94" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="I94" s="3">
-        <v>101200</v>
+        <v>104200</v>
       </c>
       <c r="J94" s="3">
         <v>-2200</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="E100" s="3">
         <v>-400</v>
       </c>
       <c r="F100" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="G100" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H100" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="I100" s="3">
-        <v>-71700</v>
+        <v>-73900</v>
       </c>
       <c r="J100" s="3">
-        <v>17400</v>
+        <v>18000</v>
       </c>
       <c r="K100" s="3">
         <v>-7300</v>
@@ -4421,7 +4421,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E102" s="3">
         <v>-800</v>

--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>45200</v>
+        <v>47300</v>
       </c>
       <c r="E8" s="3">
-        <v>66700</v>
+        <v>69700</v>
       </c>
       <c r="F8" s="3">
+        <v>70700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>68200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>57000</v>
+      </c>
+      <c r="I8" s="3">
         <v>67600</v>
       </c>
-      <c r="G8" s="3">
-        <v>65300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>54500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>64600</v>
-      </c>
       <c r="J8" s="3">
-        <v>51600</v>
+        <v>54000</v>
       </c>
       <c r="K8" s="3">
         <v>46900</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>27100</v>
+        <v>28300</v>
       </c>
       <c r="E9" s="3">
-        <v>41400</v>
+        <v>43300</v>
       </c>
       <c r="F9" s="3">
-        <v>41800</v>
+        <v>43700</v>
       </c>
       <c r="G9" s="3">
-        <v>39700</v>
+        <v>41500</v>
       </c>
       <c r="H9" s="3">
-        <v>33600</v>
+        <v>35100</v>
       </c>
       <c r="I9" s="3">
-        <v>41200</v>
+        <v>43000</v>
       </c>
       <c r="J9" s="3">
-        <v>30900</v>
+        <v>32300</v>
       </c>
       <c r="K9" s="3">
         <v>28400</v>
@@ -828,25 +828,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>18100</v>
+        <v>18900</v>
       </c>
       <c r="E10" s="3">
-        <v>25300</v>
+        <v>26400</v>
       </c>
       <c r="F10" s="3">
-        <v>25800</v>
+        <v>27000</v>
       </c>
       <c r="G10" s="3">
-        <v>25500</v>
+        <v>26700</v>
       </c>
       <c r="H10" s="3">
-        <v>20900</v>
+        <v>21800</v>
       </c>
       <c r="I10" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="J10" s="3">
-        <v>20700</v>
+        <v>21600</v>
       </c>
       <c r="K10" s="3">
         <v>18500</v>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>400</v>
       </c>
       <c r="I14" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E15" s="3">
         <v>2000</v>
       </c>
       <c r="F15" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="3">
         <v>1600</v>
       </c>
       <c r="H15" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I15" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J15" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K15" s="3">
         <v>900</v>
@@ -1084,22 +1084,22 @@
         <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>70200</v>
+        <v>73400</v>
       </c>
       <c r="F17" s="3">
-        <v>69300</v>
+        <v>72500</v>
       </c>
       <c r="G17" s="3">
-        <v>69300</v>
+        <v>72500</v>
       </c>
       <c r="H17" s="3">
-        <v>61200</v>
+        <v>64000</v>
       </c>
       <c r="I17" s="3">
-        <v>74300</v>
+        <v>77600</v>
       </c>
       <c r="J17" s="3">
-        <v>56300</v>
+        <v>58800</v>
       </c>
       <c r="K17" s="3">
         <v>48100</v>
@@ -1128,22 +1128,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="F18" s="3">
         <v>-1700</v>
       </c>
       <c r="G18" s="3">
-        <v>-4100</v>
+        <v>-4300</v>
       </c>
       <c r="H18" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
       </c>
       <c r="I18" s="3">
-        <v>-9600</v>
+        <v>-10100</v>
       </c>
       <c r="J18" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="K18" s="3">
         <v>-1300</v>
@@ -1234,22 +1234,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F21" s="3">
         <v>300</v>
       </c>
       <c r="G21" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="H21" s="3">
-        <v>-5200</v>
+        <v>-5500</v>
       </c>
       <c r="I21" s="3">
-        <v>-8300</v>
+        <v>-8700</v>
       </c>
       <c r="J21" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="K21" s="3">
         <v>-400</v>
@@ -1275,25 +1275,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F22" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G22" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H22" s="3">
         <v>1500</v>
       </c>
       <c r="I22" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K22" s="3">
         <v>1000</v>
@@ -1322,22 +1322,22 @@
         <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="F23" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="G23" s="3">
-        <v>-6300</v>
+        <v>-6600</v>
       </c>
       <c r="H23" s="3">
-        <v>-8200</v>
+        <v>-8600</v>
       </c>
       <c r="I23" s="3">
-        <v>-11600</v>
+        <v>-12100</v>
       </c>
       <c r="J23" s="3">
-        <v>-5800</v>
+        <v>-6100</v>
       </c>
       <c r="K23" s="3">
         <v>-2300</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="E26" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="F26" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="G26" s="3">
-        <v>-6300</v>
+        <v>-6600</v>
       </c>
       <c r="H26" s="3">
-        <v>-8200</v>
+        <v>-8600</v>
       </c>
       <c r="I26" s="3">
-        <v>-11600</v>
+        <v>-12100</v>
       </c>
       <c r="J26" s="3">
-        <v>-5800</v>
+        <v>-6100</v>
       </c>
       <c r="K26" s="3">
         <v>-2300</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="E27" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="F27" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="G27" s="3">
-        <v>-6300</v>
+        <v>-6600</v>
       </c>
       <c r="H27" s="3">
-        <v>-8200</v>
+        <v>-8600</v>
       </c>
       <c r="I27" s="3">
-        <v>-11600</v>
+        <v>-12100</v>
       </c>
       <c r="J27" s="3">
-        <v>-5800</v>
+        <v>-6100</v>
       </c>
       <c r="K27" s="3">
         <v>-2300</v>
@@ -1586,22 +1586,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F29" s="3">
         <v>-100</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H29" s="3">
         <v>-400</v>
       </c>
       <c r="I29" s="3">
-        <v>27200</v>
+        <v>28400</v>
       </c>
       <c r="J29" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K29" s="3">
         <v>7600</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="E33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-6500</v>
       </c>
-      <c r="F33" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-6200</v>
-      </c>
       <c r="H33" s="3">
-        <v>-8600</v>
+        <v>-9000</v>
       </c>
       <c r="I33" s="3">
-        <v>15600</v>
+        <v>16300</v>
       </c>
       <c r="J33" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="K33" s="3">
         <v>5300</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="E35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-6500</v>
       </c>
-      <c r="F35" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-6200</v>
-      </c>
       <c r="H35" s="3">
-        <v>-8600</v>
+        <v>-9000</v>
       </c>
       <c r="I35" s="3">
-        <v>15600</v>
+        <v>16300</v>
       </c>
       <c r="J35" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="K35" s="3">
         <v>5300</v>
@@ -1976,16 +1976,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>1300</v>
       </c>
       <c r="G41" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H41" s="3">
         <v>1000</v>
@@ -1994,7 +1994,7 @@
         <v>800</v>
       </c>
       <c r="J41" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K41" s="3">
         <v>1500</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="3">
         <v>5000</v>
       </c>
-      <c r="E43" s="3">
-        <v>4800</v>
-      </c>
       <c r="F43" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="G43" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H43" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I43" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="J43" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K43" s="3">
         <v>10300</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>79600</v>
+        <v>83200</v>
       </c>
       <c r="E44" s="3">
-        <v>80800</v>
+        <v>84500</v>
       </c>
       <c r="F44" s="3">
-        <v>80600</v>
+        <v>84300</v>
       </c>
       <c r="G44" s="3">
-        <v>72600</v>
+        <v>75900</v>
       </c>
       <c r="H44" s="3">
+        <v>73500</v>
+      </c>
+      <c r="I44" s="3">
         <v>70300</v>
       </c>
-      <c r="I44" s="3">
-        <v>67300</v>
-      </c>
       <c r="J44" s="3">
-        <v>57100</v>
+        <v>59700</v>
       </c>
       <c r="K44" s="3">
         <v>100500</v>
@@ -2152,25 +2152,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E45" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F45" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G45" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H45" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I45" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="J45" s="3">
-        <v>78700</v>
+        <v>82200</v>
       </c>
       <c r="K45" s="3">
         <v>1700</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>88100</v>
+        <v>92100</v>
       </c>
       <c r="E46" s="3">
-        <v>87600</v>
+        <v>91600</v>
       </c>
       <c r="F46" s="3">
-        <v>88300</v>
+        <v>92400</v>
       </c>
       <c r="G46" s="3">
-        <v>78000</v>
+        <v>81600</v>
       </c>
       <c r="H46" s="3">
-        <v>77100</v>
+        <v>80600</v>
       </c>
       <c r="I46" s="3">
-        <v>76900</v>
+        <v>80400</v>
       </c>
       <c r="J46" s="3">
-        <v>141300</v>
+        <v>147700</v>
       </c>
       <c r="K46" s="3">
         <v>114000</v>
@@ -2240,19 +2240,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="E47" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="F47" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G47" s="3">
         <v>1000</v>
       </c>
       <c r="H47" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>67600</v>
+        <v>70700</v>
       </c>
       <c r="E48" s="3">
-        <v>71900</v>
+        <v>75200</v>
       </c>
       <c r="F48" s="3">
-        <v>73800</v>
+        <v>77100</v>
       </c>
       <c r="G48" s="3">
-        <v>23600</v>
+        <v>24600</v>
       </c>
       <c r="H48" s="3">
-        <v>19100</v>
+        <v>19900</v>
       </c>
       <c r="I48" s="3">
-        <v>15400</v>
+        <v>16100</v>
       </c>
       <c r="J48" s="3">
-        <v>11400</v>
+        <v>11900</v>
       </c>
       <c r="K48" s="3">
         <v>17500</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="F49" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G49" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="H49" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="I49" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J49" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>163300</v>
+        <v>170800</v>
       </c>
       <c r="E54" s="3">
-        <v>167100</v>
+        <v>174600</v>
       </c>
       <c r="F54" s="3">
-        <v>168700</v>
+        <v>176300</v>
       </c>
       <c r="G54" s="3">
-        <v>106100</v>
+        <v>110900</v>
       </c>
       <c r="H54" s="3">
-        <v>101600</v>
+        <v>106200</v>
       </c>
       <c r="I54" s="3">
-        <v>95400</v>
+        <v>99700</v>
       </c>
       <c r="J54" s="3">
-        <v>155300</v>
+        <v>162300</v>
       </c>
       <c r="K54" s="3">
         <v>136200</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28700</v>
+        <v>30000</v>
       </c>
       <c r="E57" s="3">
-        <v>38200</v>
+        <v>39900</v>
       </c>
       <c r="F57" s="3">
-        <v>31800</v>
+        <v>33300</v>
       </c>
       <c r="G57" s="3">
-        <v>26400</v>
+        <v>27600</v>
       </c>
       <c r="H57" s="3">
-        <v>21500</v>
+        <v>22500</v>
       </c>
       <c r="I57" s="3">
-        <v>20900</v>
+        <v>21900</v>
       </c>
       <c r="J57" s="3">
-        <v>18200</v>
+        <v>19000</v>
       </c>
       <c r="K57" s="3">
         <v>35500</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>49600</v>
+        <v>51800</v>
       </c>
       <c r="E58" s="3">
+        <v>48200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>50200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>39800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>38900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>33400</v>
+      </c>
+      <c r="J58" s="3">
         <v>46100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>48000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>38100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>37200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>32000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>44100</v>
       </c>
       <c r="K58" s="3">
         <v>55700</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10200</v>
+        <v>10700</v>
       </c>
       <c r="E59" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="F59" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="G59" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="H59" s="3">
-        <v>6800</v>
+        <v>7200</v>
       </c>
       <c r="I59" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="J59" s="3">
-        <v>75900</v>
+        <v>79300</v>
       </c>
       <c r="K59" s="3">
         <v>6400</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>88500</v>
+        <v>92500</v>
       </c>
       <c r="E60" s="3">
-        <v>92600</v>
+        <v>96800</v>
       </c>
       <c r="F60" s="3">
-        <v>89400</v>
+        <v>93500</v>
       </c>
       <c r="G60" s="3">
-        <v>72100</v>
+        <v>75400</v>
       </c>
       <c r="H60" s="3">
-        <v>65600</v>
+        <v>68600</v>
       </c>
       <c r="I60" s="3">
-        <v>58800</v>
+        <v>61500</v>
       </c>
       <c r="J60" s="3">
-        <v>138200</v>
+        <v>144500</v>
       </c>
       <c r="K60" s="3">
         <v>97600</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18700</v>
+        <v>19500</v>
       </c>
       <c r="E61" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="F61" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="G61" s="3">
-        <v>12800</v>
+        <v>13400</v>
       </c>
       <c r="H61" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="I61" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="J61" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="K61" s="3">
         <v>23200</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55700</v>
+        <v>58200</v>
       </c>
       <c r="E62" s="3">
-        <v>58900</v>
+        <v>61600</v>
       </c>
       <c r="F62" s="3">
-        <v>58500</v>
+        <v>61200</v>
       </c>
       <c r="G62" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="H62" s="3">
-        <v>7200</v>
+        <v>7600</v>
       </c>
       <c r="I62" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="J62" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="K62" s="3">
         <v>5600</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>162800</v>
+        <v>170200</v>
       </c>
       <c r="E66" s="3">
-        <v>164300</v>
+        <v>171800</v>
       </c>
       <c r="F66" s="3">
-        <v>159400</v>
+        <v>166700</v>
       </c>
       <c r="G66" s="3">
-        <v>95200</v>
+        <v>99500</v>
       </c>
       <c r="H66" s="3">
-        <v>84300</v>
+        <v>88200</v>
       </c>
       <c r="I66" s="3">
-        <v>69600</v>
+        <v>72800</v>
       </c>
       <c r="J66" s="3">
-        <v>148000</v>
+        <v>154800</v>
       </c>
       <c r="K66" s="3">
         <v>126400</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-88600</v>
+        <v>-92600</v>
       </c>
       <c r="E72" s="3">
-        <v>-86300</v>
+        <v>-90300</v>
       </c>
       <c r="F72" s="3">
-        <v>-79800</v>
+        <v>-83500</v>
       </c>
       <c r="G72" s="3">
-        <v>-78100</v>
+        <v>-81600</v>
       </c>
       <c r="H72" s="3">
-        <v>-71800</v>
+        <v>-75100</v>
       </c>
       <c r="I72" s="3">
-        <v>-63300</v>
+        <v>-66100</v>
       </c>
       <c r="J72" s="3">
-        <v>-62100</v>
+        <v>-64900</v>
       </c>
       <c r="K72" s="3">
         <v>-56300</v>
@@ -3441,22 +3441,22 @@
         <v>500</v>
       </c>
       <c r="E76" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F76" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="G76" s="3">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="H76" s="3">
-        <v>17200</v>
+        <v>18000</v>
       </c>
       <c r="I76" s="3">
-        <v>25800</v>
+        <v>26900</v>
       </c>
       <c r="J76" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="K76" s="3">
         <v>9700</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="E81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-6500</v>
       </c>
-      <c r="F81" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-6200</v>
-      </c>
       <c r="H81" s="3">
-        <v>-8600</v>
+        <v>-9000</v>
       </c>
       <c r="I81" s="3">
-        <v>15600</v>
+        <v>16300</v>
       </c>
       <c r="J81" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="K81" s="3">
         <v>5300</v>
@@ -3637,25 +3637,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G83" s="3">
         <v>1600</v>
       </c>
       <c r="H83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I83" s="3">
         <v>1300</v>
       </c>
       <c r="J83" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K83" s="3">
         <v>1800</v>
@@ -3904,22 +3904,22 @@
         <v>4</v>
       </c>
       <c r="E89" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F89" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="G89" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H89" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="I89" s="3">
-        <v>-13400</v>
+        <v>-14000</v>
       </c>
       <c r="J89" s="3">
-        <v>-9800</v>
+        <v>-10200</v>
       </c>
       <c r="K89" s="3">
         <v>7300</v>
@@ -3969,16 +3969,16 @@
         <v>-1500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="G91" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="H91" s="3">
-        <v>-5200</v>
+        <v>-5400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="J91" s="3">
         <v>-1400</v>
@@ -4098,22 +4098,22 @@
         <v>-800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="H94" s="3">
-        <v>-7000</v>
+        <v>-7400</v>
       </c>
       <c r="I94" s="3">
-        <v>104200</v>
+        <v>109000</v>
       </c>
       <c r="J94" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="K94" s="3">
         <v>-2100</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9300</v>
+        <v>9800</v>
       </c>
       <c r="E100" s="3">
         <v>-400</v>
       </c>
       <c r="F100" s="3">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="G100" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H100" s="3">
-        <v>12800</v>
+        <v>13400</v>
       </c>
       <c r="I100" s="3">
-        <v>-73900</v>
+        <v>-77300</v>
       </c>
       <c r="J100" s="3">
-        <v>18000</v>
+        <v>18800</v>
       </c>
       <c r="K100" s="3">
         <v>-7300</v>
@@ -4436,7 +4436,7 @@
         <v>200</v>
       </c>
       <c r="I102" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J102" s="3">
         <v>400</v>

--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>BGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43001</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42819</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42637</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42455</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42273</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42091</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47300</v>
+        <v>67100</v>
       </c>
       <c r="E8" s="3">
-        <v>69700</v>
+        <v>44400</v>
       </c>
       <c r="F8" s="3">
-        <v>70700</v>
+        <v>65600</v>
       </c>
       <c r="G8" s="3">
-        <v>68200</v>
+        <v>66500</v>
       </c>
       <c r="H8" s="3">
-        <v>57000</v>
+        <v>64200</v>
       </c>
       <c r="I8" s="3">
-        <v>67600</v>
+        <v>53600</v>
       </c>
       <c r="J8" s="3">
+        <v>63500</v>
+      </c>
+      <c r="K8" s="3">
         <v>54000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>113000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>99700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>161900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>28300</v>
+        <v>41000</v>
       </c>
       <c r="E9" s="3">
-        <v>43300</v>
+        <v>26700</v>
       </c>
       <c r="F9" s="3">
-        <v>43700</v>
+        <v>40700</v>
       </c>
       <c r="G9" s="3">
-        <v>41500</v>
+        <v>41100</v>
       </c>
       <c r="H9" s="3">
-        <v>35100</v>
+        <v>39100</v>
       </c>
       <c r="I9" s="3">
-        <v>43000</v>
+        <v>33000</v>
       </c>
       <c r="J9" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K9" s="3">
         <v>32300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>70000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>61300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>99500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>18900</v>
+        <v>26100</v>
       </c>
       <c r="E10" s="3">
-        <v>26400</v>
+        <v>17800</v>
       </c>
       <c r="F10" s="3">
-        <v>27000</v>
+        <v>24900</v>
       </c>
       <c r="G10" s="3">
-        <v>26700</v>
+        <v>25400</v>
       </c>
       <c r="H10" s="3">
-        <v>21800</v>
+        <v>25100</v>
       </c>
       <c r="I10" s="3">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="J10" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K10" s="3">
         <v>21600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>62400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,96 +989,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>300</v>
-      </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
-        <v>3100</v>
-      </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5500</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L15" s="3">
+        <v>900</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N15" s="3">
         <v>2000</v>
       </c>
-      <c r="F15" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>900</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>68200</v>
       </c>
       <c r="E17" s="3">
-        <v>73400</v>
+        <v>45500</v>
       </c>
       <c r="F17" s="3">
-        <v>72500</v>
+        <v>69100</v>
       </c>
       <c r="G17" s="3">
-        <v>72500</v>
+        <v>68100</v>
       </c>
       <c r="H17" s="3">
-        <v>64000</v>
+        <v>68200</v>
       </c>
       <c r="I17" s="3">
-        <v>77600</v>
+        <v>60200</v>
       </c>
       <c r="J17" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K17" s="3">
         <v>58800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>106000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>95200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>161900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-1100</v>
       </c>
       <c r="E18" s="3">
-        <v>-3700</v>
+        <v>-1100</v>
       </c>
       <c r="F18" s="3">
-        <v>-1700</v>
+        <v>-3500</v>
       </c>
       <c r="G18" s="3">
-        <v>-4300</v>
+        <v>-1600</v>
       </c>
       <c r="H18" s="3">
-        <v>-7100</v>
+        <v>-4000</v>
       </c>
       <c r="I18" s="3">
-        <v>-10100</v>
+        <v>-6600</v>
       </c>
       <c r="J18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4500</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,13 +1214,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1225,52 +1259,58 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>900</v>
       </c>
       <c r="E21" s="3">
-        <v>-1700</v>
+        <v>1100</v>
       </c>
       <c r="F21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H21" s="3">
-        <v>-5500</v>
+        <v>-2500</v>
       </c>
       <c r="I21" s="3">
-        <v>-8700</v>
+        <v>-5200</v>
       </c>
       <c r="J21" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-400</v>
       </c>
       <c r="L21" s="3">
         <v>-400</v>
       </c>
       <c r="M21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N21" s="3">
         <v>7200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1278,92 +1318,98 @@
         <v>1200</v>
       </c>
       <c r="E22" s="3">
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="F22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-2300</v>
       </c>
       <c r="E23" s="3">
-        <v>-6400</v>
+        <v>-2200</v>
       </c>
       <c r="F23" s="3">
-        <v>-3700</v>
+        <v>-6000</v>
       </c>
       <c r="G23" s="3">
-        <v>-6600</v>
+        <v>-3500</v>
       </c>
       <c r="H23" s="3">
-        <v>-8600</v>
+        <v>-6200</v>
       </c>
       <c r="I23" s="3">
-        <v>-12100</v>
+        <v>-8100</v>
       </c>
       <c r="J23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1401,8 +1447,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,8 +1494,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1454,43 +1506,46 @@
         <v>-2300</v>
       </c>
       <c r="E26" s="3">
-        <v>-6400</v>
+        <v>-2200</v>
       </c>
       <c r="F26" s="3">
-        <v>-3700</v>
+        <v>-6000</v>
       </c>
       <c r="G26" s="3">
-        <v>-6600</v>
+        <v>-3500</v>
       </c>
       <c r="H26" s="3">
-        <v>-8600</v>
+        <v>-6200</v>
       </c>
       <c r="I26" s="3">
-        <v>-12100</v>
+        <v>-8100</v>
       </c>
       <c r="J26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1498,43 +1553,46 @@
         <v>-2300</v>
       </c>
       <c r="E27" s="3">
-        <v>-6400</v>
+        <v>-2200</v>
       </c>
       <c r="F27" s="3">
-        <v>-3700</v>
+        <v>-6000</v>
       </c>
       <c r="G27" s="3">
-        <v>-6600</v>
+        <v>-3500</v>
       </c>
       <c r="H27" s="3">
-        <v>-8600</v>
+        <v>-6200</v>
       </c>
       <c r="I27" s="3">
-        <v>-12100</v>
+        <v>-8100</v>
       </c>
       <c r="J27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1586,43 +1647,46 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3">
-        <v>100</v>
-      </c>
       <c r="H29" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>28400</v>
+        <v>-300</v>
       </c>
       <c r="J29" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K29" s="3">
         <v>1500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1500</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,13 +1776,16 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1753,8 +1823,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1762,43 +1835,46 @@
         <v>-2300</v>
       </c>
       <c r="E33" s="3">
-        <v>-6800</v>
+        <v>-2200</v>
       </c>
       <c r="F33" s="3">
-        <v>-3800</v>
+        <v>-6400</v>
       </c>
       <c r="G33" s="3">
-        <v>-6500</v>
+        <v>-3600</v>
       </c>
       <c r="H33" s="3">
-        <v>-9000</v>
+        <v>-6100</v>
       </c>
       <c r="I33" s="3">
-        <v>16300</v>
+        <v>-8400</v>
       </c>
       <c r="J33" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,8 +1917,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1850,92 +1929,98 @@
         <v>-2300</v>
       </c>
       <c r="E35" s="3">
-        <v>-6800</v>
+        <v>-2200</v>
       </c>
       <c r="F35" s="3">
-        <v>-3800</v>
+        <v>-6400</v>
       </c>
       <c r="G35" s="3">
-        <v>-6500</v>
+        <v>-3600</v>
       </c>
       <c r="H35" s="3">
-        <v>-9000</v>
+        <v>-6100</v>
       </c>
       <c r="I35" s="3">
-        <v>16300</v>
+        <v>-8400</v>
       </c>
       <c r="J35" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43001</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42819</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42637</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42455</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42273</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42091</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,52 +2056,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="F41" s="3">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="G41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>900</v>
+      </c>
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2058,207 +2148,222 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5200</v>
+        <v>5700</v>
       </c>
       <c r="E43" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F43" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="G43" s="3">
-        <v>2900</v>
+        <v>4800</v>
       </c>
       <c r="H43" s="3">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="I43" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="J43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>83200</v>
+        <v>76200</v>
       </c>
       <c r="E44" s="3">
-        <v>84500</v>
+        <v>78200</v>
       </c>
       <c r="F44" s="3">
-        <v>84300</v>
+        <v>79400</v>
       </c>
       <c r="G44" s="3">
-        <v>75900</v>
+        <v>79300</v>
       </c>
       <c r="H44" s="3">
-        <v>73500</v>
+        <v>71400</v>
       </c>
       <c r="I44" s="3">
-        <v>70300</v>
+        <v>69100</v>
       </c>
       <c r="J44" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K44" s="3">
         <v>59700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>100500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>103800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>102600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>101300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>135700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>150400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="I45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K45" s="3">
+        <v>82200</v>
+      </c>
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>82200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>92100</v>
+        <v>84900</v>
       </c>
       <c r="E46" s="3">
-        <v>91600</v>
+        <v>86600</v>
       </c>
       <c r="F46" s="3">
-        <v>92400</v>
+        <v>86100</v>
       </c>
       <c r="G46" s="3">
-        <v>81600</v>
+        <v>86900</v>
       </c>
       <c r="H46" s="3">
-        <v>80600</v>
+        <v>76700</v>
       </c>
       <c r="I46" s="3">
-        <v>80400</v>
+        <v>75800</v>
       </c>
       <c r="J46" s="3">
+        <v>75600</v>
+      </c>
+      <c r="K46" s="3">
         <v>147700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>114000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>115600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>113300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>112500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>148000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3900</v>
+        <v>4400</v>
       </c>
       <c r="E47" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="F47" s="3">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="G47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H47" s="3">
         <v>1000</v>
       </c>
-      <c r="H47" s="3">
-        <v>800</v>
-      </c>
       <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+        <v>700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -2272,102 +2377,111 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>66500</v>
+      </c>
+      <c r="F48" s="3">
         <v>70700</v>
       </c>
-      <c r="E48" s="3">
-        <v>75200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>77100</v>
-      </c>
       <c r="G48" s="3">
-        <v>24600</v>
+        <v>72500</v>
       </c>
       <c r="H48" s="3">
-        <v>19900</v>
+        <v>23200</v>
       </c>
       <c r="I48" s="3">
-        <v>16100</v>
+        <v>18800</v>
       </c>
       <c r="J48" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K48" s="3">
         <v>11900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="E49" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="F49" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="G49" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="H49" s="3">
-        <v>4900</v>
+        <v>3400</v>
       </c>
       <c r="I49" s="3">
-        <v>3200</v>
+        <v>4600</v>
       </c>
       <c r="J49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>500</v>
       </c>
       <c r="L49" s="3">
         <v>500</v>
       </c>
       <c r="M49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N49" s="3">
         <v>600</v>
       </c>
       <c r="O49" s="3">
+        <v>600</v>
+      </c>
+      <c r="P49" s="3">
         <v>900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,8 +2571,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2474,32 +2594,35 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>4200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
       </c>
       <c r="N52" s="3">
+        <v>400</v>
+      </c>
+      <c r="O52" s="3">
         <v>1600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>170800</v>
+        <v>157200</v>
       </c>
       <c r="E54" s="3">
-        <v>174600</v>
+        <v>160600</v>
       </c>
       <c r="F54" s="3">
-        <v>176300</v>
+        <v>164200</v>
       </c>
       <c r="G54" s="3">
-        <v>110900</v>
+        <v>165800</v>
       </c>
       <c r="H54" s="3">
-        <v>106200</v>
+        <v>104300</v>
       </c>
       <c r="I54" s="3">
-        <v>99700</v>
+        <v>99900</v>
       </c>
       <c r="J54" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K54" s="3">
         <v>162300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>136200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>137700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>136200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>136800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>180200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30000</v>
+        <v>29600</v>
       </c>
       <c r="E57" s="3">
-        <v>39900</v>
+        <v>28200</v>
       </c>
       <c r="F57" s="3">
-        <v>33300</v>
+        <v>37600</v>
       </c>
       <c r="G57" s="3">
-        <v>27600</v>
+        <v>31300</v>
       </c>
       <c r="H57" s="3">
-        <v>22500</v>
+        <v>25900</v>
       </c>
       <c r="I57" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="J57" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K57" s="3">
         <v>19000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>44700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>51800</v>
+        <v>43900</v>
       </c>
       <c r="E58" s="3">
-        <v>48200</v>
+        <v>48700</v>
       </c>
       <c r="F58" s="3">
-        <v>50200</v>
+        <v>45300</v>
       </c>
       <c r="G58" s="3">
-        <v>39800</v>
+        <v>47200</v>
       </c>
       <c r="H58" s="3">
-        <v>38900</v>
+        <v>37400</v>
       </c>
       <c r="I58" s="3">
-        <v>33400</v>
+        <v>36600</v>
       </c>
       <c r="J58" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K58" s="3">
         <v>46100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>55700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>56800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>50700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>58200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>69100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10700</v>
+        <v>13600</v>
       </c>
       <c r="E59" s="3">
-        <v>8700</v>
+        <v>10100</v>
       </c>
       <c r="F59" s="3">
-        <v>10000</v>
+        <v>8200</v>
       </c>
       <c r="G59" s="3">
-        <v>8000</v>
+        <v>9400</v>
       </c>
       <c r="H59" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="I59" s="3">
-        <v>6200</v>
+        <v>6700</v>
       </c>
       <c r="J59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K59" s="3">
         <v>79300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>92500</v>
+        <v>87200</v>
       </c>
       <c r="E60" s="3">
-        <v>96800</v>
+        <v>87000</v>
       </c>
       <c r="F60" s="3">
-        <v>93500</v>
+        <v>91000</v>
       </c>
       <c r="G60" s="3">
-        <v>75400</v>
+        <v>87900</v>
       </c>
       <c r="H60" s="3">
-        <v>68600</v>
+        <v>70900</v>
       </c>
       <c r="I60" s="3">
-        <v>61500</v>
+        <v>64500</v>
       </c>
       <c r="J60" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K60" s="3">
         <v>144500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>97600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>97500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>92200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>95700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>121900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="E61" s="3">
-        <v>13400</v>
+        <v>18400</v>
       </c>
       <c r="F61" s="3">
-        <v>12000</v>
+        <v>12600</v>
       </c>
       <c r="G61" s="3">
-        <v>13400</v>
+        <v>11300</v>
       </c>
       <c r="H61" s="3">
-        <v>12000</v>
+        <v>12600</v>
       </c>
       <c r="I61" s="3">
-        <v>4000</v>
+        <v>11300</v>
       </c>
       <c r="J61" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K61" s="3">
         <v>4400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36200</v>
-      </c>
-      <c r="O61" s="3">
-        <v>52000</v>
       </c>
       <c r="P61" s="3">
         <v>52000</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>58200</v>
+        <v>53200</v>
       </c>
       <c r="E62" s="3">
-        <v>61600</v>
+        <v>54700</v>
       </c>
       <c r="F62" s="3">
-        <v>61200</v>
+        <v>57900</v>
       </c>
       <c r="G62" s="3">
-        <v>10700</v>
+        <v>57600</v>
       </c>
       <c r="H62" s="3">
-        <v>7600</v>
+        <v>10100</v>
       </c>
       <c r="I62" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="J62" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K62" s="3">
         <v>5900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>170200</v>
+        <v>158400</v>
       </c>
       <c r="E66" s="3">
-        <v>171800</v>
+        <v>160100</v>
       </c>
       <c r="F66" s="3">
-        <v>166700</v>
+        <v>161600</v>
       </c>
       <c r="G66" s="3">
-        <v>99500</v>
+        <v>156700</v>
       </c>
       <c r="H66" s="3">
-        <v>88200</v>
+        <v>93600</v>
       </c>
       <c r="I66" s="3">
-        <v>72800</v>
+        <v>82900</v>
       </c>
       <c r="J66" s="3">
+        <v>68500</v>
+      </c>
+      <c r="K66" s="3">
         <v>154800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>126400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>133400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>130400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>134600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>177400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-92600</v>
+        <v>-89400</v>
       </c>
       <c r="E72" s="3">
-        <v>-90300</v>
+        <v>-87100</v>
       </c>
       <c r="F72" s="3">
-        <v>-83500</v>
+        <v>-84900</v>
       </c>
       <c r="G72" s="3">
-        <v>-81600</v>
+        <v>-78500</v>
       </c>
       <c r="H72" s="3">
-        <v>-75100</v>
+        <v>-76800</v>
       </c>
       <c r="I72" s="3">
-        <v>-66100</v>
+        <v>-70600</v>
       </c>
       <c r="J72" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-64900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-56300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-58700</v>
       </c>
       <c r="M72" s="3">
         <v>-58700</v>
       </c>
       <c r="N72" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="O72" s="3">
         <v>-62100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-84300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-79700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K76" s="3">
+        <v>7600</v>
+      </c>
+      <c r="L76" s="3">
+        <v>9700</v>
+      </c>
+      <c r="M76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N76" s="3">
+        <v>5700</v>
+      </c>
+      <c r="O76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P76" s="3">
         <v>2800</v>
       </c>
-      <c r="F76" s="3">
-        <v>9700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>11400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>18000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>26900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>7600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>9700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>4300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>5700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>2800</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,57 +3709,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43001</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42819</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42637</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42455</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42273</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42091</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3578,43 +3773,46 @@
         <v>-2300</v>
       </c>
       <c r="E81" s="3">
-        <v>-6800</v>
+        <v>-2200</v>
       </c>
       <c r="F81" s="3">
-        <v>-3800</v>
+        <v>-6400</v>
       </c>
       <c r="G81" s="3">
-        <v>-6500</v>
+        <v>-3600</v>
       </c>
       <c r="H81" s="3">
-        <v>-9000</v>
+        <v>-6100</v>
       </c>
       <c r="I81" s="3">
-        <v>16300</v>
+        <v>-8400</v>
       </c>
       <c r="J81" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,52 +3829,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="E83" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G83" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="H83" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2000</v>
       </c>
       <c r="M83" s="3">
         <v>2000</v>
       </c>
       <c r="N83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O83" s="3">
         <v>1900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>3000</v>
       </c>
       <c r="P83" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>5600</v>
       </c>
       <c r="E89" s="3">
-        <v>1600</v>
+        <v>-7000</v>
       </c>
       <c r="F89" s="3">
-        <v>-5200</v>
+        <v>1500</v>
       </c>
       <c r="G89" s="3">
-        <v>1900</v>
+        <v>-4900</v>
       </c>
       <c r="H89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>7300</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N89" s="3">
+        <v>9300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-5800</v>
       </c>
-      <c r="I89" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>7300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M89" s="3">
-        <v>9300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1500</v>
-      </c>
       <c r="F91" s="3">
-        <v>-3300</v>
+        <v>-1400</v>
       </c>
       <c r="G91" s="3">
-        <v>-4200</v>
+        <v>-3100</v>
       </c>
       <c r="H91" s="3">
-        <v>-5400</v>
+        <v>-3900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2800</v>
+        <v>-5100</v>
       </c>
       <c r="J91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-2400</v>
       </c>
       <c r="O91" s="3">
         <v>-2400</v>
       </c>
       <c r="P91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
-        <v>-2000</v>
-      </c>
       <c r="F94" s="3">
-        <v>-3300</v>
+        <v>-1900</v>
       </c>
       <c r="G94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>102500</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="O94" s="3">
+        <v>600</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-3900</v>
       </c>
-      <c r="H94" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>109000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="N94" s="3">
-        <v>600</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-3900</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,8 +4384,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4195,8 +4429,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,52 +4570,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9800</v>
+        <v>-4500</v>
       </c>
       <c r="E100" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
-        <v>8900</v>
-      </c>
       <c r="G100" s="3">
-        <v>2000</v>
+        <v>8400</v>
       </c>
       <c r="H100" s="3">
-        <v>13400</v>
+        <v>1900</v>
       </c>
       <c r="I100" s="3">
-        <v>-77300</v>
+        <v>12600</v>
       </c>
       <c r="J100" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="K100" s="3">
         <v>18800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4385,78 +4634,84 @@
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1500</v>
+        <v>-500</v>
       </c>
       <c r="E102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>BGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E7" s="2">
         <v>44282</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43001</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42819</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42637</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42455</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42273</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42091</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>67100</v>
+        <v>66400</v>
       </c>
       <c r="E8" s="3">
-        <v>44400</v>
+        <v>67500</v>
       </c>
       <c r="F8" s="3">
-        <v>65600</v>
+        <v>44700</v>
       </c>
       <c r="G8" s="3">
-        <v>66500</v>
+        <v>66000</v>
       </c>
       <c r="H8" s="3">
-        <v>64200</v>
+        <v>67000</v>
       </c>
       <c r="I8" s="3">
-        <v>53600</v>
+        <v>64600</v>
       </c>
       <c r="J8" s="3">
+        <v>53900</v>
+      </c>
+      <c r="K8" s="3">
         <v>63500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>54000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>113000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>99700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>161900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>41200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>26800</v>
+      </c>
+      <c r="G9" s="3">
         <v>41000</v>
       </c>
-      <c r="E9" s="3">
-        <v>26700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>40700</v>
-      </c>
-      <c r="G9" s="3">
-        <v>41100</v>
-      </c>
       <c r="H9" s="3">
-        <v>39100</v>
+        <v>41400</v>
       </c>
       <c r="I9" s="3">
-        <v>33000</v>
+        <v>39300</v>
       </c>
       <c r="J9" s="3">
+        <v>33300</v>
+      </c>
+      <c r="K9" s="3">
         <v>40500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>28400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>23500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>70000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>61300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>99500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>26100</v>
+        <v>27400</v>
       </c>
       <c r="E10" s="3">
-        <v>17800</v>
+        <v>26300</v>
       </c>
       <c r="F10" s="3">
-        <v>24900</v>
+        <v>17900</v>
       </c>
       <c r="G10" s="3">
-        <v>25400</v>
+        <v>25000</v>
       </c>
       <c r="H10" s="3">
-        <v>25100</v>
+        <v>25600</v>
       </c>
       <c r="I10" s="3">
-        <v>20500</v>
+        <v>25300</v>
       </c>
       <c r="J10" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K10" s="3">
         <v>23100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>43000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>62400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,102 +1009,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5500</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="E15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F15" s="3">
         <v>2200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1900</v>
       </c>
       <c r="G15" s="3">
         <v>1900</v>
       </c>
       <c r="H15" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="I15" s="3">
         <v>1500</v>
       </c>
       <c r="J15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K15" s="3">
         <v>1300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>68200</v>
+        <v>64300</v>
       </c>
       <c r="E17" s="3">
-        <v>45500</v>
+        <v>68700</v>
       </c>
       <c r="F17" s="3">
-        <v>69100</v>
+        <v>45900</v>
       </c>
       <c r="G17" s="3">
-        <v>68100</v>
+        <v>69500</v>
       </c>
       <c r="H17" s="3">
-        <v>68200</v>
+        <v>68600</v>
       </c>
       <c r="I17" s="3">
-        <v>60200</v>
+        <v>68600</v>
       </c>
       <c r="J17" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K17" s="3">
         <v>73000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>48100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>106000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>95200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>161900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4000</v>
       </c>
-      <c r="I18" s="3">
-        <v>-6600</v>
-      </c>
       <c r="J18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-9500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4500</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,8 +1248,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1262,149 +1296,161 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>900</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>1100</v>
+        <v>3200</v>
       </c>
       <c r="F21" s="3">
-        <v>-1600</v>
+        <v>-2700</v>
       </c>
       <c r="G21" s="3">
         <v>300</v>
       </c>
       <c r="H21" s="3">
-        <v>-2500</v>
+        <v>-2800</v>
       </c>
       <c r="I21" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="J21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-8200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-400</v>
       </c>
       <c r="M21" s="3">
         <v>-400</v>
       </c>
       <c r="N21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O21" s="3">
         <v>7200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
-        <v>2500</v>
-      </c>
       <c r="G22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H22" s="3">
         <v>1900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1450,8 +1496,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,55 +1696,61 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>26700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>7600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1500</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,8 +1846,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1826,55 +1896,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2300</v>
+        <v>800</v>
       </c>
       <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3600</v>
       </c>
-      <c r="H33" s="3">
-        <v>-6100</v>
-      </c>
       <c r="I33" s="3">
-        <v>-8400</v>
+        <v>-6200</v>
       </c>
       <c r="J33" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K33" s="3">
         <v>15300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2300</v>
+        <v>800</v>
       </c>
       <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3600</v>
       </c>
-      <c r="H35" s="3">
-        <v>-6100</v>
-      </c>
       <c r="I35" s="3">
-        <v>-8400</v>
+        <v>-6200</v>
       </c>
       <c r="J35" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K35" s="3">
         <v>15300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E38" s="2">
         <v>44282</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43001</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42819</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42637</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42455</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42273</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42091</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,55 +2143,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2151,107 +2241,116 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E43" s="3">
         <v>5700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>76200</v>
+        <v>69500</v>
       </c>
       <c r="E44" s="3">
-        <v>78200</v>
+        <v>76800</v>
       </c>
       <c r="F44" s="3">
-        <v>79400</v>
+        <v>78800</v>
       </c>
       <c r="G44" s="3">
-        <v>79300</v>
+        <v>80000</v>
       </c>
       <c r="H44" s="3">
-        <v>71400</v>
+        <v>79800</v>
       </c>
       <c r="I44" s="3">
-        <v>69100</v>
+        <v>71900</v>
       </c>
       <c r="J44" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K44" s="3">
         <v>66100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>59700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>100500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>103800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>102600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>101300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>135700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>150400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E45" s="3">
         <v>1600</v>
@@ -2263,110 +2362,116 @@
         <v>1600</v>
       </c>
       <c r="H45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
-        <v>2600</v>
-      </c>
       <c r="J45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K45" s="3">
         <v>3800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>82200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>84900</v>
+        <v>79700</v>
       </c>
       <c r="E46" s="3">
-        <v>86600</v>
+        <v>85500</v>
       </c>
       <c r="F46" s="3">
-        <v>86100</v>
+        <v>87200</v>
       </c>
       <c r="G46" s="3">
-        <v>86900</v>
+        <v>86700</v>
       </c>
       <c r="H46" s="3">
-        <v>76700</v>
+        <v>87500</v>
       </c>
       <c r="I46" s="3">
-        <v>75800</v>
+        <v>77200</v>
       </c>
       <c r="J46" s="3">
+        <v>76300</v>
+      </c>
+      <c r="K46" s="3">
         <v>75600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>147700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>114000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>115600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>113300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>112500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>148000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E47" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F47" s="3">
         <v>3700</v>
       </c>
-      <c r="F47" s="3">
-        <v>3500</v>
-      </c>
       <c r="G47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H47" s="3">
         <v>3100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>700</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2380,66 +2485,72 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>64100</v>
+        <v>64500</v>
       </c>
       <c r="E48" s="3">
-        <v>66500</v>
+        <v>64500</v>
       </c>
       <c r="F48" s="3">
-        <v>70700</v>
+        <v>67000</v>
       </c>
       <c r="G48" s="3">
-        <v>72500</v>
+        <v>71200</v>
       </c>
       <c r="H48" s="3">
-        <v>23200</v>
+        <v>73000</v>
       </c>
       <c r="I48" s="3">
-        <v>18800</v>
+        <v>23300</v>
       </c>
       <c r="J48" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K48" s="3">
         <v>15100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3800</v>
+        <v>4300</v>
       </c>
       <c r="E49" s="3">
         <v>3800</v>
@@ -2448,40 +2559,43 @@
         <v>3900</v>
       </c>
       <c r="G49" s="3">
-        <v>3400</v>
+        <v>3900</v>
       </c>
       <c r="H49" s="3">
         <v>3400</v>
       </c>
       <c r="I49" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J49" s="3">
         <v>4600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>500</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
       </c>
       <c r="N49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O49" s="3">
         <v>600</v>
       </c>
       <c r="P49" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q49" s="3">
         <v>900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,28 +2691,31 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2604,25 +2724,28 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>4200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
       </c>
       <c r="O52" s="3">
+        <v>400</v>
+      </c>
+      <c r="P52" s="3">
         <v>1600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>157200</v>
+        <v>153000</v>
       </c>
       <c r="E54" s="3">
-        <v>160600</v>
+        <v>158300</v>
       </c>
       <c r="F54" s="3">
-        <v>164200</v>
+        <v>161700</v>
       </c>
       <c r="G54" s="3">
-        <v>165800</v>
+        <v>165400</v>
       </c>
       <c r="H54" s="3">
-        <v>104300</v>
+        <v>167000</v>
       </c>
       <c r="I54" s="3">
-        <v>99900</v>
+        <v>105000</v>
       </c>
       <c r="J54" s="3">
+        <v>100600</v>
+      </c>
+      <c r="K54" s="3">
         <v>93800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>162300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>136200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>137700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>136200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>136800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>180200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,102 +2883,109 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29600</v>
+        <v>27200</v>
       </c>
       <c r="E57" s="3">
-        <v>28200</v>
+        <v>29800</v>
       </c>
       <c r="F57" s="3">
-        <v>37600</v>
+        <v>28400</v>
       </c>
       <c r="G57" s="3">
-        <v>31300</v>
+        <v>37800</v>
       </c>
       <c r="H57" s="3">
-        <v>25900</v>
+        <v>31500</v>
       </c>
       <c r="I57" s="3">
-        <v>21200</v>
+        <v>26100</v>
       </c>
       <c r="J57" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K57" s="3">
         <v>20600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>35100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>44700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>43900</v>
+        <v>40500</v>
       </c>
       <c r="E58" s="3">
-        <v>48700</v>
+        <v>44200</v>
       </c>
       <c r="F58" s="3">
-        <v>45300</v>
+        <v>49100</v>
       </c>
       <c r="G58" s="3">
-        <v>47200</v>
+        <v>45600</v>
       </c>
       <c r="H58" s="3">
-        <v>37400</v>
+        <v>47500</v>
       </c>
       <c r="I58" s="3">
-        <v>36600</v>
+        <v>37700</v>
       </c>
       <c r="J58" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K58" s="3">
         <v>31400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>46100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>55700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>56800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>50700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>58200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>69100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2856,187 +2993,199 @@
         <v>13600</v>
       </c>
       <c r="E59" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F59" s="3">
         <v>10100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8200</v>
       </c>
-      <c r="G59" s="3">
-        <v>9400</v>
-      </c>
       <c r="H59" s="3">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="I59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L59" s="3">
+        <v>79300</v>
+      </c>
+      <c r="M59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="N59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="O59" s="3">
         <v>6700</v>
       </c>
-      <c r="J59" s="3">
-        <v>5800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>79300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>6400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>5600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>6700</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>87200</v>
+        <v>81300</v>
       </c>
       <c r="E60" s="3">
-        <v>87000</v>
+        <v>87800</v>
       </c>
       <c r="F60" s="3">
-        <v>91000</v>
+        <v>87600</v>
       </c>
       <c r="G60" s="3">
-        <v>87900</v>
+        <v>91700</v>
       </c>
       <c r="H60" s="3">
-        <v>70900</v>
+        <v>88500</v>
       </c>
       <c r="I60" s="3">
-        <v>64500</v>
+        <v>71400</v>
       </c>
       <c r="J60" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K60" s="3">
         <v>57800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>144500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>97600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>97500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>92200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>95700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>121900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18000</v>
+        <v>17600</v>
       </c>
       <c r="E61" s="3">
-        <v>18400</v>
+        <v>18100</v>
       </c>
       <c r="F61" s="3">
+        <v>18500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H61" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I61" s="3">
         <v>12600</v>
       </c>
-      <c r="G61" s="3">
-        <v>11300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>12600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>11300</v>
-      </c>
       <c r="J61" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>36200</v>
-      </c>
-      <c r="P61" s="3">
-        <v>52000</v>
       </c>
       <c r="Q61" s="3">
         <v>52000</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53200</v>
+        <v>54500</v>
       </c>
       <c r="E62" s="3">
-        <v>54700</v>
+        <v>53500</v>
       </c>
       <c r="F62" s="3">
-        <v>57900</v>
+        <v>55100</v>
       </c>
       <c r="G62" s="3">
-        <v>57600</v>
+        <v>58300</v>
       </c>
       <c r="H62" s="3">
-        <v>10100</v>
+        <v>58000</v>
       </c>
       <c r="I62" s="3">
-        <v>7100</v>
+        <v>10200</v>
       </c>
       <c r="J62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K62" s="3">
         <v>6900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>158400</v>
+        <v>153400</v>
       </c>
       <c r="E66" s="3">
-        <v>160100</v>
+        <v>159400</v>
       </c>
       <c r="F66" s="3">
-        <v>161600</v>
+        <v>161200</v>
       </c>
       <c r="G66" s="3">
-        <v>156700</v>
+        <v>162700</v>
       </c>
       <c r="H66" s="3">
-        <v>93600</v>
+        <v>157800</v>
       </c>
       <c r="I66" s="3">
-        <v>82900</v>
+        <v>94200</v>
       </c>
       <c r="J66" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K66" s="3">
         <v>68500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>154800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>126400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>133400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>130400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>134600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>177400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-89400</v>
+        <v>-89300</v>
       </c>
       <c r="E72" s="3">
-        <v>-87100</v>
+        <v>-90000</v>
       </c>
       <c r="F72" s="3">
-        <v>-84900</v>
+        <v>-87700</v>
       </c>
       <c r="G72" s="3">
-        <v>-78500</v>
+        <v>-85500</v>
       </c>
       <c r="H72" s="3">
-        <v>-76800</v>
+        <v>-79000</v>
       </c>
       <c r="I72" s="3">
-        <v>-70600</v>
+        <v>-77300</v>
       </c>
       <c r="J72" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-62200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-64900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-56300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-58700</v>
       </c>
       <c r="N72" s="3">
         <v>-58700</v>
       </c>
       <c r="O72" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="P72" s="3">
         <v>-62100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-84300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-79700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2700</v>
       </c>
-      <c r="G76" s="3">
-        <v>9100</v>
-      </c>
       <c r="H76" s="3">
-        <v>10700</v>
+        <v>9200</v>
       </c>
       <c r="I76" s="3">
-        <v>16900</v>
+        <v>10800</v>
       </c>
       <c r="J76" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K76" s="3">
         <v>25300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E80" s="2">
         <v>44282</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43001</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42819</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42637</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42455</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42273</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42091</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2300</v>
+        <v>800</v>
       </c>
       <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3600</v>
       </c>
-      <c r="H81" s="3">
-        <v>-6100</v>
-      </c>
       <c r="I81" s="3">
-        <v>-8400</v>
+        <v>-6200</v>
       </c>
       <c r="J81" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K81" s="3">
         <v>15300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,55 +4028,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>2000</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
-        <v>2200</v>
+        <v>4300</v>
       </c>
       <c r="F83" s="3">
-        <v>1900</v>
+        <v>-1600</v>
       </c>
       <c r="G83" s="3">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="H83" s="3">
-        <v>1500</v>
+        <v>-1100</v>
       </c>
       <c r="I83" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>1300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2000</v>
       </c>
       <c r="N83" s="3">
         <v>2000</v>
       </c>
       <c r="O83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P83" s="3">
         <v>1900</v>
-      </c>
-      <c r="P83" s="3">
-        <v>3000</v>
       </c>
       <c r="Q83" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>5600</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
-        <v>-7000</v>
+        <v>-1400</v>
       </c>
       <c r="F89" s="3">
-        <v>1500</v>
+        <v>-3600</v>
       </c>
       <c r="G89" s="3">
-        <v>-4900</v>
+        <v>-3400</v>
       </c>
       <c r="H89" s="3">
-        <v>1800</v>
+        <v>-1200</v>
       </c>
       <c r="I89" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="J89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>-13200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1500</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
-        <v>-800</v>
+        <v>-2300</v>
       </c>
       <c r="F91" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-2400</v>
       </c>
       <c r="P91" s="3">
         <v>-2400</v>
       </c>
       <c r="Q91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1500</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
-        <v>-800</v>
+        <v>-2300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1900</v>
+        <v>4200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3100</v>
+        <v>-5000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3700</v>
+        <v>7500</v>
       </c>
       <c r="I94" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="J94" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>102500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,8 +4618,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4432,8 +4666,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,69 +4816,75 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-4500</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>9200</v>
+        <v>4700</v>
       </c>
       <c r="F100" s="3">
-        <v>-400</v>
+        <v>1300</v>
       </c>
       <c r="G100" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="H100" s="3">
-        <v>1900</v>
+        <v>-6100</v>
       </c>
       <c r="I100" s="3">
-        <v>12600</v>
-      </c>
-      <c r="J100" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>-72700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>18800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -4644,74 +4893,80 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G102" s="3">
-        <v>300</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I102" s="3">
-        <v>200</v>
-      </c>
-      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -760,7 +760,7 @@
         <v>66000</v>
       </c>
       <c r="H8" s="3">
-        <v>67000</v>
+        <v>66900</v>
       </c>
       <c r="I8" s="3">
         <v>64600</v>
@@ -816,7 +816,7 @@
         <v>39300</v>
       </c>
       <c r="J9" s="3">
-        <v>33300</v>
+        <v>33200</v>
       </c>
       <c r="K9" s="3">
         <v>40500</v>
@@ -1138,10 +1138,10 @@
         <v>64300</v>
       </c>
       <c r="E17" s="3">
-        <v>68700</v>
+        <v>68600</v>
       </c>
       <c r="F17" s="3">
-        <v>45900</v>
+        <v>45800</v>
       </c>
       <c r="G17" s="3">
         <v>69500</v>
@@ -2303,10 +2303,10 @@
         <v>69500</v>
       </c>
       <c r="E44" s="3">
-        <v>76800</v>
+        <v>76700</v>
       </c>
       <c r="F44" s="3">
-        <v>78800</v>
+        <v>78700</v>
       </c>
       <c r="G44" s="3">
         <v>80000</v>
@@ -2315,10 +2315,10 @@
         <v>79800</v>
       </c>
       <c r="I44" s="3">
-        <v>71900</v>
+        <v>71800</v>
       </c>
       <c r="J44" s="3">
-        <v>69600</v>
+        <v>69500</v>
       </c>
       <c r="K44" s="3">
         <v>66100</v>
@@ -2400,19 +2400,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>79700</v>
+        <v>79600</v>
       </c>
       <c r="E46" s="3">
         <v>85500</v>
       </c>
       <c r="F46" s="3">
-        <v>87200</v>
+        <v>87100</v>
       </c>
       <c r="G46" s="3">
         <v>86700</v>
       </c>
       <c r="H46" s="3">
-        <v>87500</v>
+        <v>87400</v>
       </c>
       <c r="I46" s="3">
         <v>77200</v>
@@ -2506,7 +2506,7 @@
         <v>64500</v>
       </c>
       <c r="F48" s="3">
-        <v>67000</v>
+        <v>66900</v>
       </c>
       <c r="G48" s="3">
         <v>71200</v>
@@ -2806,19 +2806,19 @@
         <v>158300</v>
       </c>
       <c r="F54" s="3">
-        <v>161700</v>
+        <v>161600</v>
       </c>
       <c r="G54" s="3">
-        <v>165400</v>
+        <v>165300</v>
       </c>
       <c r="H54" s="3">
-        <v>167000</v>
+        <v>166900</v>
       </c>
       <c r="I54" s="3">
         <v>105000</v>
       </c>
       <c r="J54" s="3">
-        <v>100600</v>
+        <v>100500</v>
       </c>
       <c r="K54" s="3">
         <v>93800</v>
@@ -2940,7 +2940,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>40500</v>
+        <v>40400</v>
       </c>
       <c r="E58" s="3">
         <v>44200</v>
@@ -2958,7 +2958,7 @@
         <v>37700</v>
       </c>
       <c r="J58" s="3">
-        <v>36900</v>
+        <v>36800</v>
       </c>
       <c r="K58" s="3">
         <v>31400</v>
@@ -3049,7 +3049,7 @@
         <v>87600</v>
       </c>
       <c r="G60" s="3">
-        <v>91700</v>
+        <v>91600</v>
       </c>
       <c r="H60" s="3">
         <v>88500</v>
@@ -3058,7 +3058,7 @@
         <v>71400</v>
       </c>
       <c r="J60" s="3">
-        <v>65000</v>
+        <v>64900</v>
       </c>
       <c r="K60" s="3">
         <v>57800</v>
@@ -3152,7 +3152,7 @@
         <v>58300</v>
       </c>
       <c r="H62" s="3">
-        <v>58000</v>
+        <v>57900</v>
       </c>
       <c r="I62" s="3">
         <v>10200</v>
@@ -3340,16 +3340,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>153400</v>
+        <v>153300</v>
       </c>
       <c r="E66" s="3">
         <v>159400</v>
       </c>
       <c r="F66" s="3">
-        <v>161200</v>
+        <v>161100</v>
       </c>
       <c r="G66" s="3">
-        <v>162700</v>
+        <v>162600</v>
       </c>
       <c r="H66" s="3">
         <v>157800</v>
@@ -3610,16 +3610,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-89300</v>
+        <v>-89200</v>
       </c>
       <c r="E72" s="3">
         <v>-90000</v>
       </c>
       <c r="F72" s="3">
-        <v>-87700</v>
+        <v>-87600</v>
       </c>
       <c r="G72" s="3">
-        <v>-85500</v>
+        <v>-85400</v>
       </c>
       <c r="H72" s="3">
         <v>-79000</v>
@@ -3828,7 +3828,7 @@
         <v>10800</v>
       </c>
       <c r="J76" s="3">
-        <v>17100</v>
+        <v>17000</v>
       </c>
       <c r="K76" s="3">
         <v>25300</v>
@@ -4417,7 +4417,7 @@
         <v>-4600</v>
       </c>
       <c r="H91" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="I91" s="3">
         <v>-9100</v>

--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>66400</v>
+        <v>64900</v>
       </c>
       <c r="E8" s="3">
-        <v>67500</v>
+        <v>65900</v>
       </c>
       <c r="F8" s="3">
-        <v>44700</v>
+        <v>43700</v>
       </c>
       <c r="G8" s="3">
-        <v>66000</v>
+        <v>64500</v>
       </c>
       <c r="H8" s="3">
-        <v>66900</v>
+        <v>65400</v>
       </c>
       <c r="I8" s="3">
-        <v>64600</v>
+        <v>63100</v>
       </c>
       <c r="J8" s="3">
-        <v>53900</v>
+        <v>52700</v>
       </c>
       <c r="K8" s="3">
         <v>63500</v>
@@ -798,25 +798,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>39000</v>
+        <v>38100</v>
       </c>
       <c r="E9" s="3">
-        <v>41200</v>
+        <v>40300</v>
       </c>
       <c r="F9" s="3">
-        <v>26800</v>
+        <v>26200</v>
       </c>
       <c r="G9" s="3">
-        <v>41000</v>
+        <v>40000</v>
       </c>
       <c r="H9" s="3">
-        <v>41400</v>
+        <v>40400</v>
       </c>
       <c r="I9" s="3">
-        <v>39300</v>
+        <v>38400</v>
       </c>
       <c r="J9" s="3">
-        <v>33200</v>
+        <v>32500</v>
       </c>
       <c r="K9" s="3">
         <v>40500</v>
@@ -848,25 +848,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>27400</v>
+        <v>26700</v>
       </c>
       <c r="E10" s="3">
-        <v>26300</v>
+        <v>25700</v>
       </c>
       <c r="F10" s="3">
-        <v>17900</v>
+        <v>17500</v>
       </c>
       <c r="G10" s="3">
+        <v>24400</v>
+      </c>
+      <c r="H10" s="3">
         <v>25000</v>
       </c>
-      <c r="H10" s="3">
-        <v>25600</v>
-      </c>
       <c r="I10" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="J10" s="3">
-        <v>20700</v>
+        <v>20200</v>
       </c>
       <c r="K10" s="3">
         <v>23100</v>
@@ -1068,10 +1068,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E15" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F15" s="3">
         <v>2200</v>
@@ -1080,7 +1080,7 @@
         <v>1900</v>
       </c>
       <c r="H15" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I15" s="3">
         <v>1500</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>64300</v>
+        <v>62800</v>
       </c>
       <c r="E17" s="3">
-        <v>68600</v>
+        <v>67100</v>
       </c>
       <c r="F17" s="3">
-        <v>45800</v>
+        <v>44800</v>
       </c>
       <c r="G17" s="3">
-        <v>69500</v>
+        <v>67900</v>
       </c>
       <c r="H17" s="3">
-        <v>68600</v>
+        <v>67000</v>
       </c>
       <c r="I17" s="3">
-        <v>68600</v>
+        <v>67000</v>
       </c>
       <c r="J17" s="3">
-        <v>60600</v>
+        <v>59200</v>
       </c>
       <c r="K17" s="3">
         <v>73000</v>
@@ -1185,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E18" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="F18" s="3">
         <v>-1100</v>
       </c>
       <c r="G18" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="H18" s="3">
         <v>-1600</v>
       </c>
       <c r="I18" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="J18" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="K18" s="3">
         <v>-9500</v>
@@ -1308,16 +1308,16 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F21" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G21" s="3">
         <v>300</v>
       </c>
       <c r="H21" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I21" s="3">
         <v>-1000</v>
@@ -1364,7 +1364,7 @@
         <v>1100</v>
       </c>
       <c r="G22" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H22" s="3">
         <v>1900</v>
@@ -1373,7 +1373,7 @@
         <v>2200</v>
       </c>
       <c r="J22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K22" s="3">
         <v>2000</v>
@@ -1408,22 +1408,22 @@
         <v>800</v>
       </c>
       <c r="E23" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F23" s="3">
         <v>-2200</v>
       </c>
       <c r="G23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-6100</v>
       </c>
-      <c r="H23" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-6200</v>
-      </c>
       <c r="J23" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="K23" s="3">
         <v>-11400</v>
@@ -1558,22 +1558,22 @@
         <v>800</v>
       </c>
       <c r="E26" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F26" s="3">
         <v>-2200</v>
       </c>
       <c r="G26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-6100</v>
       </c>
-      <c r="H26" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-6200</v>
-      </c>
       <c r="J26" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="K26" s="3">
         <v>-11400</v>
@@ -1608,22 +1608,22 @@
         <v>800</v>
       </c>
       <c r="E27" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F27" s="3">
         <v>-2200</v>
       </c>
       <c r="G27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-6100</v>
       </c>
-      <c r="H27" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-6200</v>
-      </c>
       <c r="J27" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="K27" s="3">
         <v>-11400</v>
@@ -1908,22 +1908,22 @@
         <v>800</v>
       </c>
       <c r="E33" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F33" s="3">
         <v>-2200</v>
       </c>
       <c r="G33" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="H33" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="I33" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="J33" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="K33" s="3">
         <v>15300</v>
@@ -2008,22 +2008,22 @@
         <v>800</v>
       </c>
       <c r="E35" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F35" s="3">
         <v>-2200</v>
       </c>
       <c r="G35" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="H35" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="I35" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="J35" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="K35" s="3">
         <v>15300</v>
@@ -2156,7 +2156,7 @@
         <v>1400</v>
       </c>
       <c r="F41" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G41" s="3">
         <v>400</v>
@@ -2168,7 +2168,7 @@
         <v>900</v>
       </c>
       <c r="J41" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K41" s="3">
         <v>800</v>
@@ -2250,22 +2250,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="E43" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="F43" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H43" s="3">
         <v>4700</v>
       </c>
-      <c r="H43" s="3">
-        <v>4800</v>
-      </c>
       <c r="I43" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J43" s="3">
         <v>3100</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>69500</v>
+        <v>67900</v>
       </c>
       <c r="E44" s="3">
-        <v>76700</v>
+        <v>75000</v>
       </c>
       <c r="F44" s="3">
-        <v>78700</v>
+        <v>76900</v>
       </c>
       <c r="G44" s="3">
-        <v>80000</v>
+        <v>78100</v>
       </c>
       <c r="H44" s="3">
-        <v>79800</v>
+        <v>77900</v>
       </c>
       <c r="I44" s="3">
-        <v>71800</v>
+        <v>70200</v>
       </c>
       <c r="J44" s="3">
-        <v>69500</v>
+        <v>67900</v>
       </c>
       <c r="K44" s="3">
         <v>66100</v>
@@ -2350,7 +2350,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E45" s="3">
         <v>1600</v>
@@ -2359,16 +2359,16 @@
         <v>1600</v>
       </c>
       <c r="G45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1700</v>
-      </c>
       <c r="J45" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K45" s="3">
         <v>3800</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>79600</v>
+        <v>77800</v>
       </c>
       <c r="E46" s="3">
-        <v>85500</v>
+        <v>83500</v>
       </c>
       <c r="F46" s="3">
-        <v>87100</v>
+        <v>85100</v>
       </c>
       <c r="G46" s="3">
-        <v>86700</v>
+        <v>84700</v>
       </c>
       <c r="H46" s="3">
-        <v>87400</v>
+        <v>85400</v>
       </c>
       <c r="I46" s="3">
-        <v>77200</v>
+        <v>75400</v>
       </c>
       <c r="J46" s="3">
-        <v>76300</v>
+        <v>74500</v>
       </c>
       <c r="K46" s="3">
         <v>75600</v>
@@ -2450,19 +2450,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E47" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="F47" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G47" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H47" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I47" s="3">
         <v>1000</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>64500</v>
+        <v>63000</v>
       </c>
       <c r="E48" s="3">
-        <v>64500</v>
+        <v>63000</v>
       </c>
       <c r="F48" s="3">
-        <v>66900</v>
+        <v>65400</v>
       </c>
       <c r="G48" s="3">
-        <v>71200</v>
+        <v>69500</v>
       </c>
       <c r="H48" s="3">
-        <v>73000</v>
+        <v>71300</v>
       </c>
       <c r="I48" s="3">
-        <v>23300</v>
+        <v>22800</v>
       </c>
       <c r="J48" s="3">
-        <v>18900</v>
+        <v>18400</v>
       </c>
       <c r="K48" s="3">
         <v>15100</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="E49" s="3">
         <v>3800</v>
       </c>
       <c r="F49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="H49" s="3">
         <v>3400</v>
       </c>
       <c r="I49" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J49" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K49" s="3">
         <v>3000</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>153000</v>
+        <v>149400</v>
       </c>
       <c r="E54" s="3">
-        <v>158300</v>
+        <v>154600</v>
       </c>
       <c r="F54" s="3">
-        <v>161600</v>
+        <v>157900</v>
       </c>
       <c r="G54" s="3">
-        <v>165300</v>
+        <v>161500</v>
       </c>
       <c r="H54" s="3">
-        <v>166900</v>
+        <v>163100</v>
       </c>
       <c r="I54" s="3">
-        <v>105000</v>
+        <v>102600</v>
       </c>
       <c r="J54" s="3">
-        <v>100500</v>
+        <v>98200</v>
       </c>
       <c r="K54" s="3">
         <v>93800</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27200</v>
+        <v>26600</v>
       </c>
       <c r="E57" s="3">
-        <v>29800</v>
+        <v>29100</v>
       </c>
       <c r="F57" s="3">
-        <v>28400</v>
+        <v>27700</v>
       </c>
       <c r="G57" s="3">
-        <v>37800</v>
+        <v>36900</v>
       </c>
       <c r="H57" s="3">
-        <v>31500</v>
+        <v>30800</v>
       </c>
       <c r="I57" s="3">
-        <v>26100</v>
+        <v>25500</v>
       </c>
       <c r="J57" s="3">
-        <v>21300</v>
+        <v>20800</v>
       </c>
       <c r="K57" s="3">
         <v>20600</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>40400</v>
+        <v>39500</v>
       </c>
       <c r="E58" s="3">
-        <v>44200</v>
+        <v>43200</v>
       </c>
       <c r="F58" s="3">
-        <v>49100</v>
+        <v>47900</v>
       </c>
       <c r="G58" s="3">
-        <v>45600</v>
+        <v>44500</v>
       </c>
       <c r="H58" s="3">
-        <v>47500</v>
+        <v>46400</v>
       </c>
       <c r="I58" s="3">
-        <v>37700</v>
+        <v>36800</v>
       </c>
       <c r="J58" s="3">
-        <v>36800</v>
+        <v>36000</v>
       </c>
       <c r="K58" s="3">
         <v>31400</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="E59" s="3">
-        <v>13700</v>
+        <v>13400</v>
       </c>
       <c r="F59" s="3">
-        <v>10100</v>
+        <v>9900</v>
       </c>
       <c r="G59" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="H59" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="I59" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="J59" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="K59" s="3">
         <v>5800</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>81300</v>
+        <v>79400</v>
       </c>
       <c r="E60" s="3">
-        <v>87800</v>
+        <v>85700</v>
       </c>
       <c r="F60" s="3">
-        <v>87600</v>
+        <v>85500</v>
       </c>
       <c r="G60" s="3">
-        <v>91600</v>
+        <v>89500</v>
       </c>
       <c r="H60" s="3">
-        <v>88500</v>
+        <v>86400</v>
       </c>
       <c r="I60" s="3">
-        <v>71400</v>
+        <v>69700</v>
       </c>
       <c r="J60" s="3">
-        <v>64900</v>
+        <v>63400</v>
       </c>
       <c r="K60" s="3">
         <v>57800</v>
@@ -3090,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17600</v>
+        <v>17200</v>
       </c>
       <c r="E61" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F61" s="3">
         <v>18100</v>
       </c>
-      <c r="F61" s="3">
-        <v>18500</v>
-      </c>
       <c r="G61" s="3">
-        <v>12700</v>
+        <v>12400</v>
       </c>
       <c r="H61" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="I61" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="J61" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="K61" s="3">
         <v>3800</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>54500</v>
+        <v>53200</v>
       </c>
       <c r="E62" s="3">
-        <v>53500</v>
+        <v>52300</v>
       </c>
       <c r="F62" s="3">
-        <v>55100</v>
+        <v>53800</v>
       </c>
       <c r="G62" s="3">
-        <v>58300</v>
+        <v>56900</v>
       </c>
       <c r="H62" s="3">
-        <v>57900</v>
+        <v>56600</v>
       </c>
       <c r="I62" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="J62" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="K62" s="3">
         <v>6900</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>153300</v>
+        <v>149800</v>
       </c>
       <c r="E66" s="3">
-        <v>159400</v>
+        <v>155700</v>
       </c>
       <c r="F66" s="3">
-        <v>161100</v>
+        <v>157400</v>
       </c>
       <c r="G66" s="3">
-        <v>162600</v>
+        <v>158900</v>
       </c>
       <c r="H66" s="3">
-        <v>157800</v>
+        <v>154100</v>
       </c>
       <c r="I66" s="3">
-        <v>94200</v>
+        <v>92000</v>
       </c>
       <c r="J66" s="3">
-        <v>83500</v>
+        <v>81500</v>
       </c>
       <c r="K66" s="3">
         <v>68500</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-89200</v>
+        <v>-87200</v>
       </c>
       <c r="E72" s="3">
-        <v>-90000</v>
+        <v>-87900</v>
       </c>
       <c r="F72" s="3">
-        <v>-87600</v>
+        <v>-85600</v>
       </c>
       <c r="G72" s="3">
-        <v>-85400</v>
+        <v>-83500</v>
       </c>
       <c r="H72" s="3">
-        <v>-79000</v>
+        <v>-77200</v>
       </c>
       <c r="I72" s="3">
-        <v>-77300</v>
+        <v>-75500</v>
       </c>
       <c r="J72" s="3">
-        <v>-71100</v>
+        <v>-69500</v>
       </c>
       <c r="K72" s="3">
         <v>-62200</v>
@@ -3819,16 +3819,16 @@
         <v>500</v>
       </c>
       <c r="G76" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H76" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="I76" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="J76" s="3">
-        <v>17000</v>
+        <v>16700</v>
       </c>
       <c r="K76" s="3">
         <v>25300</v>
@@ -3968,22 +3968,22 @@
         <v>800</v>
       </c>
       <c r="E81" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F81" s="3">
         <v>-2200</v>
       </c>
       <c r="G81" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="H81" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="I81" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="J81" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="K81" s="3">
         <v>15300</v>
@@ -4038,13 +4038,13 @@
         <v>4</v>
       </c>
       <c r="E83" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="F83" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="G83" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H83" s="3">
         <v>-1100</v>
@@ -4338,19 +4338,19 @@
         <v>4</v>
       </c>
       <c r="E89" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F89" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="G89" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="H89" s="3">
         <v>-1200</v>
       </c>
       <c r="I89" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>4</v>
@@ -4411,16 +4411,16 @@
         <v>-2300</v>
       </c>
       <c r="F91" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G91" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="H91" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="I91" s="3">
-        <v>-9100</v>
+        <v>-8900</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -4561,16 +4561,16 @@
         <v>-2300</v>
       </c>
       <c r="F94" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="G94" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="H94" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I94" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -4828,19 +4828,19 @@
         <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F100" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G100" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="H100" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="I100" s="3">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>

--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>BGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E7" s="2">
         <v>44464</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44282</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43001</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42819</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42637</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42455</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42273</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42091</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>64900</v>
+        <v>74800</v>
       </c>
       <c r="E8" s="3">
-        <v>65900</v>
+        <v>65500</v>
       </c>
       <c r="F8" s="3">
-        <v>43700</v>
+        <v>66500</v>
       </c>
       <c r="G8" s="3">
-        <v>64500</v>
+        <v>44100</v>
       </c>
       <c r="H8" s="3">
-        <v>65400</v>
+        <v>65100</v>
       </c>
       <c r="I8" s="3">
-        <v>63100</v>
+        <v>66000</v>
       </c>
       <c r="J8" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K8" s="3">
         <v>52700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>63500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>54000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>113000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>99700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>161900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>38100</v>
+        <v>42900</v>
       </c>
       <c r="E9" s="3">
-        <v>40300</v>
+        <v>38500</v>
       </c>
       <c r="F9" s="3">
-        <v>26200</v>
+        <v>40600</v>
       </c>
       <c r="G9" s="3">
-        <v>40000</v>
+        <v>26400</v>
       </c>
       <c r="H9" s="3">
         <v>40400</v>
       </c>
       <c r="I9" s="3">
-        <v>38400</v>
+        <v>40800</v>
       </c>
       <c r="J9" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K9" s="3">
         <v>32500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>28400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>70000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>61300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>99500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>26700</v>
+        <v>32000</v>
       </c>
       <c r="E10" s="3">
-        <v>25700</v>
+        <v>27000</v>
       </c>
       <c r="F10" s="3">
-        <v>17500</v>
+        <v>25900</v>
       </c>
       <c r="G10" s="3">
-        <v>24400</v>
+        <v>17700</v>
       </c>
       <c r="H10" s="3">
-        <v>25000</v>
+        <v>24700</v>
       </c>
       <c r="I10" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="J10" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K10" s="3">
         <v>20200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>21600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>43000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>62400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,108 +1029,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5500</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="E15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F15" s="3">
         <v>2000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1500</v>
       </c>
       <c r="J15" s="3">
         <v>1500</v>
       </c>
       <c r="K15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L15" s="3">
         <v>1300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>62800</v>
+        <v>73500</v>
       </c>
       <c r="E17" s="3">
-        <v>67100</v>
+        <v>63400</v>
       </c>
       <c r="F17" s="3">
-        <v>44800</v>
+        <v>67700</v>
       </c>
       <c r="G17" s="3">
-        <v>67900</v>
+        <v>45200</v>
       </c>
       <c r="H17" s="3">
-        <v>67000</v>
+        <v>68500</v>
       </c>
       <c r="I17" s="3">
-        <v>67000</v>
+        <v>67600</v>
       </c>
       <c r="J17" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K17" s="3">
         <v>59200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>73000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>58800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>48100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>106000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>95200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>161900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="E18" s="3">
-        <v>-1100</v>
+        <v>2100</v>
       </c>
       <c r="F18" s="3">
         <v>-1100</v>
       </c>
       <c r="G18" s="3">
-        <v>-3400</v>
+        <v>-1100</v>
       </c>
       <c r="H18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
-        <v>-3900</v>
-      </c>
       <c r="J18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4500</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,8 +1282,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1299,158 +1333,170 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-400</v>
       </c>
       <c r="N21" s="3">
         <v>-400</v>
       </c>
       <c r="O21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P21" s="3">
         <v>7200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-5900</v>
-      </c>
       <c r="H23" s="3">
-        <v>-3400</v>
+        <v>-6000</v>
       </c>
       <c r="I23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1499,8 +1545,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-5900</v>
-      </c>
       <c r="H26" s="3">
-        <v>-3400</v>
+        <v>-6000</v>
       </c>
       <c r="I26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-5900</v>
-      </c>
       <c r="H27" s="3">
-        <v>-3400</v>
+        <v>-6000</v>
       </c>
       <c r="I27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,58 +1757,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>26700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>7600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1500</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,8 +1916,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1899,58 +1969,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
-        <v>-6000</v>
-      </c>
       <c r="J33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
-        <v>-6000</v>
-      </c>
       <c r="J35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E38" s="2">
         <v>44464</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44282</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43001</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42819</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42637</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42455</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42273</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42091</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,58 +2230,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
-        <v>1800</v>
-      </c>
       <c r="G41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>900</v>
       </c>
       <c r="J41" s="3">
         <v>900</v>
       </c>
       <c r="K41" s="3">
+        <v>900</v>
+      </c>
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2244,8 +2334,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2253,104 +2346,110 @@
         <v>6200</v>
       </c>
       <c r="E43" s="3">
-        <v>5600</v>
+        <v>6300</v>
       </c>
       <c r="F43" s="3">
-        <v>4800</v>
+        <v>5700</v>
       </c>
       <c r="G43" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="H43" s="3">
         <v>4700</v>
       </c>
       <c r="I43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J43" s="3">
         <v>2700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>68500</v>
+      </c>
+      <c r="F44" s="3">
+        <v>75700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>77600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>78800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>78700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>70800</v>
+      </c>
+      <c r="K44" s="3">
         <v>67900</v>
       </c>
-      <c r="E44" s="3">
-        <v>75000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>76900</v>
-      </c>
-      <c r="G44" s="3">
-        <v>78100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>77900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>70200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>67900</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>66100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>59700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>100500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>103800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>102600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>101300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>135700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>150400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E45" s="3">
         <v>1600</v>
@@ -2359,122 +2458,128 @@
         <v>1600</v>
       </c>
       <c r="G45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M45" s="3">
+        <v>82200</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L45" s="3">
-        <v>82200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>77800</v>
+        <v>70200</v>
       </c>
       <c r="E46" s="3">
-        <v>83500</v>
+        <v>78500</v>
       </c>
       <c r="F46" s="3">
-        <v>85100</v>
+        <v>84300</v>
       </c>
       <c r="G46" s="3">
-        <v>84700</v>
+        <v>85900</v>
       </c>
       <c r="H46" s="3">
-        <v>85400</v>
+        <v>85500</v>
       </c>
       <c r="I46" s="3">
-        <v>75400</v>
+        <v>86200</v>
       </c>
       <c r="J46" s="3">
+        <v>76100</v>
+      </c>
+      <c r="K46" s="3">
         <v>74500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>147700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>114000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>115600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>113300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>112500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>148000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E47" s="3">
         <v>4400</v>
       </c>
-      <c r="E47" s="3">
-        <v>4300</v>
-      </c>
       <c r="F47" s="3">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="G47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H47" s="3">
         <v>3500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>700</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2488,72 +2593,78 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>63000</v>
+        <v>62600</v>
       </c>
       <c r="E48" s="3">
-        <v>63000</v>
+        <v>63600</v>
       </c>
       <c r="F48" s="3">
-        <v>65400</v>
+        <v>63600</v>
       </c>
       <c r="G48" s="3">
-        <v>69500</v>
+        <v>66000</v>
       </c>
       <c r="H48" s="3">
-        <v>71300</v>
+        <v>70200</v>
       </c>
       <c r="I48" s="3">
-        <v>22800</v>
+        <v>72000</v>
       </c>
       <c r="J48" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K48" s="3">
         <v>18400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4200</v>
+        <v>4700</v>
       </c>
       <c r="E49" s="3">
-        <v>3800</v>
+        <v>4300</v>
       </c>
       <c r="F49" s="3">
         <v>3800</v>
@@ -2562,40 +2673,43 @@
         <v>3800</v>
       </c>
       <c r="H49" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="I49" s="3">
         <v>3400</v>
       </c>
       <c r="J49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K49" s="3">
         <v>4500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2800</v>
-      </c>
-      <c r="M49" s="3">
-        <v>500</v>
       </c>
       <c r="N49" s="3">
         <v>500</v>
       </c>
       <c r="O49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P49" s="3">
         <v>600</v>
       </c>
       <c r="Q49" s="3">
+        <v>600</v>
+      </c>
+      <c r="R49" s="3">
         <v>900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,8 +2811,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2727,25 +2847,28 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>4200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
       </c>
       <c r="P52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>149400</v>
+        <v>141800</v>
       </c>
       <c r="E54" s="3">
-        <v>154600</v>
+        <v>150800</v>
       </c>
       <c r="F54" s="3">
-        <v>157900</v>
+        <v>156000</v>
       </c>
       <c r="G54" s="3">
-        <v>161500</v>
+        <v>159400</v>
       </c>
       <c r="H54" s="3">
-        <v>163100</v>
+        <v>163000</v>
       </c>
       <c r="I54" s="3">
-        <v>102600</v>
+        <v>164600</v>
       </c>
       <c r="J54" s="3">
+        <v>103500</v>
+      </c>
+      <c r="K54" s="3">
         <v>98200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>162300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>136200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>137700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>136200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>136800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>180200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26600</v>
+        <v>21900</v>
       </c>
       <c r="E57" s="3">
-        <v>29100</v>
+        <v>26800</v>
       </c>
       <c r="F57" s="3">
-        <v>27700</v>
+        <v>29400</v>
       </c>
       <c r="G57" s="3">
-        <v>36900</v>
+        <v>28000</v>
       </c>
       <c r="H57" s="3">
-        <v>30800</v>
+        <v>37300</v>
       </c>
       <c r="I57" s="3">
-        <v>25500</v>
+        <v>31100</v>
       </c>
       <c r="J57" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K57" s="3">
         <v>20800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>35500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>44700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>39500</v>
+        <v>35000</v>
       </c>
       <c r="E58" s="3">
-        <v>43200</v>
+        <v>39900</v>
       </c>
       <c r="F58" s="3">
-        <v>47900</v>
+        <v>43600</v>
       </c>
       <c r="G58" s="3">
-        <v>44500</v>
+        <v>48400</v>
       </c>
       <c r="H58" s="3">
-        <v>46400</v>
+        <v>45000</v>
       </c>
       <c r="I58" s="3">
-        <v>36800</v>
+        <v>46800</v>
       </c>
       <c r="J58" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K58" s="3">
         <v>36000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>31400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>46100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>55700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>56800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>50700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>58200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>69100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13300</v>
+        <v>11800</v>
       </c>
       <c r="E59" s="3">
         <v>13400</v>
       </c>
       <c r="F59" s="3">
-        <v>9900</v>
+        <v>13500</v>
       </c>
       <c r="G59" s="3">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="H59" s="3">
-        <v>9200</v>
+        <v>8100</v>
       </c>
       <c r="I59" s="3">
-        <v>7400</v>
+        <v>9300</v>
       </c>
       <c r="J59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K59" s="3">
         <v>6600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>79300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>79400</v>
+        <v>68800</v>
       </c>
       <c r="E60" s="3">
-        <v>85700</v>
+        <v>80100</v>
       </c>
       <c r="F60" s="3">
-        <v>85500</v>
+        <v>86500</v>
       </c>
       <c r="G60" s="3">
-        <v>89500</v>
+        <v>86300</v>
       </c>
       <c r="H60" s="3">
-        <v>86400</v>
+        <v>90300</v>
       </c>
       <c r="I60" s="3">
-        <v>69700</v>
+        <v>87200</v>
       </c>
       <c r="J60" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K60" s="3">
         <v>63400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>144500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>97600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>97500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>92200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>95700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>121900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17200</v>
+        <v>16500</v>
       </c>
       <c r="E61" s="3">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="F61" s="3">
-        <v>18100</v>
+        <v>17800</v>
       </c>
       <c r="G61" s="3">
-        <v>12400</v>
+        <v>18200</v>
       </c>
       <c r="H61" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I61" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K61" s="3">
         <v>11100</v>
       </c>
-      <c r="I61" s="3">
-        <v>12400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>11100</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>36200</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>52000</v>
       </c>
       <c r="R61" s="3">
         <v>52000</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53200</v>
+        <v>52000</v>
       </c>
       <c r="E62" s="3">
-        <v>52300</v>
+        <v>53700</v>
       </c>
       <c r="F62" s="3">
-        <v>53800</v>
+        <v>52800</v>
       </c>
       <c r="G62" s="3">
-        <v>56900</v>
+        <v>54300</v>
       </c>
       <c r="H62" s="3">
-        <v>56600</v>
+        <v>57500</v>
       </c>
       <c r="I62" s="3">
-        <v>9900</v>
+        <v>57100</v>
       </c>
       <c r="J62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K62" s="3">
         <v>7000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>149800</v>
+        <v>137300</v>
       </c>
       <c r="E66" s="3">
-        <v>155700</v>
+        <v>151200</v>
       </c>
       <c r="F66" s="3">
-        <v>157400</v>
+        <v>157200</v>
       </c>
       <c r="G66" s="3">
         <v>158900</v>
       </c>
       <c r="H66" s="3">
-        <v>154100</v>
+        <v>160400</v>
       </c>
       <c r="I66" s="3">
-        <v>92000</v>
+        <v>155500</v>
       </c>
       <c r="J66" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K66" s="3">
         <v>81500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>154800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>126400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>133400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>130400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>134600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>177400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-87200</v>
+        <v>-87800</v>
       </c>
       <c r="E72" s="3">
-        <v>-87900</v>
+        <v>-88000</v>
       </c>
       <c r="F72" s="3">
-        <v>-85600</v>
+        <v>-88700</v>
       </c>
       <c r="G72" s="3">
-        <v>-83500</v>
+        <v>-86400</v>
       </c>
       <c r="H72" s="3">
-        <v>-77200</v>
+        <v>-84200</v>
       </c>
       <c r="I72" s="3">
-        <v>-75500</v>
+        <v>-77900</v>
       </c>
       <c r="J72" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-69500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-62200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-64900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-56300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-58700</v>
       </c>
       <c r="O72" s="3">
         <v>-58700</v>
       </c>
       <c r="P72" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-62100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-84300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-79700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2600</v>
       </c>
-      <c r="H76" s="3">
-        <v>8900</v>
-      </c>
       <c r="I76" s="3">
-        <v>10600</v>
+        <v>9000</v>
       </c>
       <c r="J76" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K76" s="3">
         <v>16700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E80" s="2">
         <v>44464</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44282</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43001</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42819</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42637</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42455</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42273</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42091</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
-        <v>-6000</v>
-      </c>
       <c r="J81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,58 +4227,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2000</v>
       </c>
       <c r="O83" s="3">
         <v>2000</v>
       </c>
       <c r="P83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>3000</v>
       </c>
       <c r="R83" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-2400</v>
       </c>
       <c r="Q91" s="3">
         <v>-2400</v>
       </c>
       <c r="R91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="S91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
+      <c r="L94" s="3">
+        <v>102500</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="F94" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="H94" s="3">
-        <v>7400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>102500</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,8 +4852,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4669,8 +4903,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,58 +5062,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>4600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>7800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="I100" s="3">
-        <v>14200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-72700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>18800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4896,77 +5145,83 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>74800</v>
+        <v>72600</v>
       </c>
       <c r="E8" s="3">
-        <v>65500</v>
+        <v>63500</v>
       </c>
       <c r="F8" s="3">
-        <v>66500</v>
+        <v>64600</v>
       </c>
       <c r="G8" s="3">
-        <v>44100</v>
+        <v>42800</v>
       </c>
       <c r="H8" s="3">
-        <v>65100</v>
+        <v>63100</v>
       </c>
       <c r="I8" s="3">
-        <v>66000</v>
+        <v>64000</v>
       </c>
       <c r="J8" s="3">
-        <v>63700</v>
+        <v>61800</v>
       </c>
       <c r="K8" s="3">
         <v>52700</v>
@@ -805,25 +805,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>42900</v>
+        <v>41600</v>
       </c>
       <c r="E9" s="3">
-        <v>38500</v>
+        <v>37300</v>
       </c>
       <c r="F9" s="3">
-        <v>40600</v>
+        <v>39400</v>
       </c>
       <c r="G9" s="3">
-        <v>26400</v>
+        <v>25700</v>
       </c>
       <c r="H9" s="3">
-        <v>40400</v>
+        <v>39200</v>
       </c>
       <c r="I9" s="3">
-        <v>40800</v>
+        <v>39600</v>
       </c>
       <c r="J9" s="3">
-        <v>38800</v>
+        <v>37600</v>
       </c>
       <c r="K9" s="3">
         <v>32500</v>
@@ -858,25 +858,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="E10" s="3">
-        <v>27000</v>
+        <v>26200</v>
       </c>
       <c r="F10" s="3">
-        <v>25900</v>
+        <v>25100</v>
       </c>
       <c r="G10" s="3">
-        <v>17700</v>
+        <v>17100</v>
       </c>
       <c r="H10" s="3">
-        <v>24700</v>
+        <v>23900</v>
       </c>
       <c r="I10" s="3">
-        <v>25200</v>
+        <v>24500</v>
       </c>
       <c r="J10" s="3">
-        <v>24900</v>
+        <v>24200</v>
       </c>
       <c r="K10" s="3">
         <v>20200</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K14" s="3">
         <v>400</v>
@@ -1094,16 +1094,16 @@
         <v>1900</v>
       </c>
       <c r="E15" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F15" s="3">
         <v>2000</v>
       </c>
       <c r="G15" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H15" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I15" s="3">
         <v>1800</v>
@@ -1162,25 +1162,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>73500</v>
+        <v>71300</v>
       </c>
       <c r="E17" s="3">
-        <v>63400</v>
+        <v>61500</v>
       </c>
       <c r="F17" s="3">
-        <v>67700</v>
+        <v>65700</v>
       </c>
       <c r="G17" s="3">
-        <v>45200</v>
+        <v>43900</v>
       </c>
       <c r="H17" s="3">
-        <v>68500</v>
+        <v>66500</v>
       </c>
       <c r="I17" s="3">
-        <v>67600</v>
+        <v>65600</v>
       </c>
       <c r="J17" s="3">
-        <v>67700</v>
+        <v>65700</v>
       </c>
       <c r="K17" s="3">
         <v>59200</v>
@@ -1215,10 +1215,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E18" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="3">
         <v>-1100</v>
@@ -1227,13 +1227,13 @@
         <v>-1100</v>
       </c>
       <c r="H18" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="I18" s="3">
         <v>-1600</v>
       </c>
       <c r="J18" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="K18" s="3">
         <v>-6500</v>
@@ -1342,10 +1342,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E21" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="F21" s="3">
         <v>900</v>
@@ -1354,7 +1354,7 @@
         <v>1100</v>
       </c>
       <c r="H21" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="I21" s="3">
         <v>300</v>
@@ -1395,7 +1395,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="3">
         <v>1300</v>
@@ -1410,10 +1410,10 @@
         <v>2500</v>
       </c>
       <c r="I22" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J22" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K22" s="3">
         <v>1400</v>
@@ -1451,22 +1451,22 @@
         <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F23" s="3">
         <v>-2300</v>
       </c>
       <c r="G23" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-6000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-6100</v>
       </c>
       <c r="K23" s="3">
         <v>-7900</v>
@@ -1610,22 +1610,22 @@
         <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F26" s="3">
         <v>-2300</v>
       </c>
       <c r="G26" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-6000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-6100</v>
       </c>
       <c r="K26" s="3">
         <v>-7900</v>
@@ -1663,22 +1663,22 @@
         <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F27" s="3">
         <v>-2300</v>
       </c>
       <c r="G27" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-6000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-6100</v>
       </c>
       <c r="K27" s="3">
         <v>-7900</v>
@@ -1981,22 +1981,22 @@
         <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F33" s="3">
         <v>-2300</v>
       </c>
       <c r="G33" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H33" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="I33" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="J33" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="K33" s="3">
         <v>-8300</v>
@@ -2087,22 +2087,22 @@
         <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F35" s="3">
         <v>-2300</v>
       </c>
       <c r="G35" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H35" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="I35" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="J35" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="K35" s="3">
         <v>-8300</v>
@@ -2237,16 +2237,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E41" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F41" s="3">
         <v>1400</v>
       </c>
       <c r="G41" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H41" s="3">
         <v>400</v>
@@ -2343,22 +2343,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="E43" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="F43" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="G43" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="H43" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="I43" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="J43" s="3">
         <v>2700</v>
@@ -2396,25 +2396,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>61100</v>
+        <v>59200</v>
       </c>
       <c r="E44" s="3">
-        <v>68500</v>
+        <v>66500</v>
       </c>
       <c r="F44" s="3">
-        <v>75700</v>
+        <v>73400</v>
       </c>
       <c r="G44" s="3">
-        <v>77600</v>
+        <v>75300</v>
       </c>
       <c r="H44" s="3">
-        <v>78800</v>
+        <v>76500</v>
       </c>
       <c r="I44" s="3">
-        <v>78700</v>
+        <v>76300</v>
       </c>
       <c r="J44" s="3">
-        <v>70800</v>
+        <v>68700</v>
       </c>
       <c r="K44" s="3">
         <v>67900</v>
@@ -2455,19 +2455,19 @@
         <v>1600</v>
       </c>
       <c r="F45" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G45" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H45" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I45" s="3">
         <v>1500</v>
       </c>
       <c r="J45" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K45" s="3">
         <v>2600</v>
@@ -2502,25 +2502,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>70200</v>
+        <v>68200</v>
       </c>
       <c r="E46" s="3">
-        <v>78500</v>
+        <v>76200</v>
       </c>
       <c r="F46" s="3">
-        <v>84300</v>
+        <v>81800</v>
       </c>
       <c r="G46" s="3">
-        <v>85900</v>
+        <v>83400</v>
       </c>
       <c r="H46" s="3">
-        <v>85500</v>
+        <v>83000</v>
       </c>
       <c r="I46" s="3">
-        <v>86200</v>
+        <v>83600</v>
       </c>
       <c r="J46" s="3">
-        <v>76100</v>
+        <v>73900</v>
       </c>
       <c r="K46" s="3">
         <v>74500</v>
@@ -2555,22 +2555,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E47" s="3">
         <v>4300</v>
       </c>
-      <c r="E47" s="3">
-        <v>4400</v>
-      </c>
       <c r="F47" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G47" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H47" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I47" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J47" s="3">
         <v>1000</v>
@@ -2608,25 +2608,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>62600</v>
+        <v>60700</v>
       </c>
       <c r="E48" s="3">
-        <v>63600</v>
+        <v>61700</v>
       </c>
       <c r="F48" s="3">
-        <v>63600</v>
+        <v>61700</v>
       </c>
       <c r="G48" s="3">
-        <v>66000</v>
+        <v>64000</v>
       </c>
       <c r="H48" s="3">
-        <v>70200</v>
+        <v>68100</v>
       </c>
       <c r="I48" s="3">
-        <v>72000</v>
+        <v>69800</v>
       </c>
       <c r="J48" s="3">
-        <v>23000</v>
+        <v>22300</v>
       </c>
       <c r="K48" s="3">
         <v>18400</v>
@@ -2661,25 +2661,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="E49" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="F49" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G49" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H49" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I49" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J49" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K49" s="3">
         <v>4500</v>
@@ -2926,25 +2926,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>141800</v>
+        <v>137600</v>
       </c>
       <c r="E54" s="3">
-        <v>150800</v>
+        <v>146400</v>
       </c>
       <c r="F54" s="3">
-        <v>156000</v>
+        <v>151400</v>
       </c>
       <c r="G54" s="3">
-        <v>159400</v>
+        <v>154700</v>
       </c>
       <c r="H54" s="3">
-        <v>163000</v>
+        <v>158200</v>
       </c>
       <c r="I54" s="3">
-        <v>164600</v>
+        <v>159700</v>
       </c>
       <c r="J54" s="3">
-        <v>103500</v>
+        <v>100500</v>
       </c>
       <c r="K54" s="3">
         <v>98200</v>
@@ -3021,25 +3021,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="E57" s="3">
-        <v>26800</v>
+        <v>26000</v>
       </c>
       <c r="F57" s="3">
-        <v>29400</v>
+        <v>28500</v>
       </c>
       <c r="G57" s="3">
-        <v>28000</v>
+        <v>27100</v>
       </c>
       <c r="H57" s="3">
-        <v>37300</v>
+        <v>36200</v>
       </c>
       <c r="I57" s="3">
-        <v>31100</v>
+        <v>30100</v>
       </c>
       <c r="J57" s="3">
-        <v>25700</v>
+        <v>25000</v>
       </c>
       <c r="K57" s="3">
         <v>20800</v>
@@ -3074,25 +3074,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="E58" s="3">
-        <v>39900</v>
+        <v>38700</v>
       </c>
       <c r="F58" s="3">
+        <v>42300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>46900</v>
+      </c>
+      <c r="H58" s="3">
         <v>43600</v>
       </c>
-      <c r="G58" s="3">
-        <v>48400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>45000</v>
-      </c>
       <c r="I58" s="3">
-        <v>46800</v>
+        <v>45500</v>
       </c>
       <c r="J58" s="3">
-        <v>37200</v>
+        <v>36100</v>
       </c>
       <c r="K58" s="3">
         <v>36000</v>
@@ -3127,25 +3127,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="E59" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="F59" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="G59" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="H59" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="I59" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="J59" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="K59" s="3">
         <v>6600</v>
@@ -3180,25 +3180,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>68800</v>
+        <v>66700</v>
       </c>
       <c r="E60" s="3">
-        <v>80100</v>
+        <v>77800</v>
       </c>
       <c r="F60" s="3">
-        <v>86500</v>
+        <v>84000</v>
       </c>
       <c r="G60" s="3">
-        <v>86300</v>
+        <v>83800</v>
       </c>
       <c r="H60" s="3">
-        <v>90300</v>
+        <v>87700</v>
       </c>
       <c r="I60" s="3">
-        <v>87200</v>
+        <v>84600</v>
       </c>
       <c r="J60" s="3">
-        <v>70400</v>
+        <v>68300</v>
       </c>
       <c r="K60" s="3">
         <v>63400</v>
@@ -3233,25 +3233,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="E61" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F61" s="3">
         <v>17300</v>
       </c>
-      <c r="F61" s="3">
-        <v>17800</v>
-      </c>
       <c r="G61" s="3">
-        <v>18200</v>
+        <v>17700</v>
       </c>
       <c r="H61" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="I61" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="J61" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="K61" s="3">
         <v>11100</v>
@@ -3286,25 +3286,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>52000</v>
+        <v>50400</v>
       </c>
       <c r="E62" s="3">
-        <v>53700</v>
+        <v>52100</v>
       </c>
       <c r="F62" s="3">
-        <v>52800</v>
+        <v>51200</v>
       </c>
       <c r="G62" s="3">
-        <v>54300</v>
+        <v>52700</v>
       </c>
       <c r="H62" s="3">
-        <v>57500</v>
+        <v>55800</v>
       </c>
       <c r="I62" s="3">
-        <v>57100</v>
+        <v>55400</v>
       </c>
       <c r="J62" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="K62" s="3">
         <v>7000</v>
@@ -3498,25 +3498,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>137300</v>
+        <v>133200</v>
       </c>
       <c r="E66" s="3">
-        <v>151200</v>
+        <v>146700</v>
       </c>
       <c r="F66" s="3">
-        <v>157200</v>
+        <v>152500</v>
       </c>
       <c r="G66" s="3">
-        <v>158900</v>
+        <v>154200</v>
       </c>
       <c r="H66" s="3">
-        <v>160400</v>
+        <v>155600</v>
       </c>
       <c r="I66" s="3">
-        <v>155500</v>
+        <v>150900</v>
       </c>
       <c r="J66" s="3">
-        <v>92900</v>
+        <v>90100</v>
       </c>
       <c r="K66" s="3">
         <v>81500</v>
@@ -3784,25 +3784,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-87800</v>
+        <v>-85200</v>
       </c>
       <c r="E72" s="3">
-        <v>-88000</v>
+        <v>-85400</v>
       </c>
       <c r="F72" s="3">
-        <v>-88700</v>
+        <v>-86100</v>
       </c>
       <c r="G72" s="3">
-        <v>-86400</v>
+        <v>-83900</v>
       </c>
       <c r="H72" s="3">
-        <v>-84200</v>
+        <v>-81700</v>
       </c>
       <c r="I72" s="3">
-        <v>-77900</v>
+        <v>-75600</v>
       </c>
       <c r="J72" s="3">
-        <v>-76200</v>
+        <v>-73900</v>
       </c>
       <c r="K72" s="3">
         <v>-69500</v>
@@ -3996,7 +3996,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E76" s="3">
         <v>-300</v>
@@ -4011,10 +4011,10 @@
         <v>2600</v>
       </c>
       <c r="I76" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="J76" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="K76" s="3">
         <v>16700</v>
@@ -4163,22 +4163,22 @@
         <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F81" s="3">
         <v>-2300</v>
       </c>
       <c r="G81" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H81" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="I81" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="J81" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="K81" s="3">
         <v>-8300</v>
@@ -4237,19 +4237,19 @@
         <v>1900</v>
       </c>
       <c r="E83" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F83" s="3">
         <v>2000</v>
       </c>
       <c r="G83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H83" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I83" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J83" s="3">
         <v>1500</v>
@@ -4552,25 +4552,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="E89" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="F89" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="G89" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="H89" s="3">
         <v>1500</v>
       </c>
       <c r="I89" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="J89" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
@@ -4641,10 +4641,10 @@
         <v>-1400</v>
       </c>
       <c r="I91" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="J91" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4785,7 +4785,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E94" s="3">
         <v>-2200</v>
@@ -4797,13 +4797,13 @@
         <v>-800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="I94" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="J94" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -5071,22 +5071,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="E100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4400</v>
       </c>
-      <c r="F100" s="3">
-        <v>-4500</v>
-      </c>
       <c r="G100" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="H100" s="3">
         <v>-400</v>
       </c>
       <c r="I100" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="J100" s="3">
         <v>1800</v>

--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>BGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E7" s="2">
         <v>44646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44464</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44282</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43001</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42819</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42637</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42455</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42273</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42091</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>72600</v>
+        <v>57900</v>
       </c>
       <c r="E8" s="3">
+        <v>69900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>61200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>62200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>41200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>60800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K8" s="3">
+        <v>61800</v>
+      </c>
+      <c r="L8" s="3">
+        <v>52700</v>
+      </c>
+      <c r="M8" s="3">
         <v>63500</v>
       </c>
-      <c r="F8" s="3">
-        <v>64600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>42800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>63100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>64000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>61800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>52700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>63500</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>54000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>113000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>99700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>161900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>41600</v>
+        <v>33400</v>
       </c>
       <c r="E9" s="3">
-        <v>37300</v>
+        <v>40100</v>
       </c>
       <c r="F9" s="3">
-        <v>39400</v>
+        <v>36000</v>
       </c>
       <c r="G9" s="3">
-        <v>25700</v>
+        <v>38000</v>
       </c>
       <c r="H9" s="3">
-        <v>39200</v>
+        <v>24700</v>
       </c>
       <c r="I9" s="3">
-        <v>39600</v>
+        <v>37800</v>
       </c>
       <c r="J9" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K9" s="3">
         <v>37600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>28400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>70000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>61300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>99500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>31000</v>
+        <v>24500</v>
       </c>
       <c r="E10" s="3">
-        <v>26200</v>
+        <v>29900</v>
       </c>
       <c r="F10" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="G10" s="3">
-        <v>17100</v>
+        <v>24200</v>
       </c>
       <c r="H10" s="3">
-        <v>23900</v>
+        <v>16500</v>
       </c>
       <c r="I10" s="3">
-        <v>24500</v>
+        <v>23100</v>
       </c>
       <c r="J10" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K10" s="3">
         <v>24200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>43000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>62400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,8 +1049,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1043,50 +1063,53 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2900</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5500</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,52 +1117,55 @@
         <v>1900</v>
       </c>
       <c r="E15" s="3">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="F15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H15" s="3">
         <v>2000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1800</v>
       </c>
       <c r="I15" s="3">
         <v>1800</v>
       </c>
       <c r="J15" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K15" s="3">
         <v>1500</v>
       </c>
       <c r="L15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M15" s="3">
         <v>1300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>71300</v>
+        <v>58400</v>
       </c>
       <c r="E17" s="3">
-        <v>61500</v>
+        <v>68700</v>
       </c>
       <c r="F17" s="3">
+        <v>59300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>63300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>42200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>64100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>63200</v>
+      </c>
+      <c r="K17" s="3">
         <v>65700</v>
       </c>
-      <c r="G17" s="3">
-        <v>43900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>66500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>65600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>65700</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>73000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>58800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>48100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>106000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>95200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>161900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
-        <v>2000</v>
-      </c>
       <c r="F18" s="3">
-        <v>-1100</v>
+        <v>1900</v>
       </c>
       <c r="G18" s="3">
         <v>-1100</v>
       </c>
       <c r="H18" s="3">
-        <v>-3400</v>
+        <v>-1000</v>
       </c>
       <c r="I18" s="3">
-        <v>-1600</v>
+        <v>-3200</v>
       </c>
       <c r="J18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4500</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,13 +1316,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1336,69 +1370,75 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3200</v>
+        <v>2100</v>
       </c>
       <c r="E21" s="3">
-        <v>4500</v>
+        <v>3100</v>
       </c>
       <c r="F21" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
-        <v>1100</v>
-      </c>
       <c r="H21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-400</v>
       </c>
       <c r="O21" s="3">
         <v>-400</v>
       </c>
       <c r="P21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q21" s="3">
         <v>7200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1300</v>
       </c>
       <c r="F22" s="3">
         <v>1200</v>
@@ -1407,96 +1447,102 @@
         <v>1100</v>
       </c>
       <c r="H22" s="3">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="3">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="J22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1548,8 +1594,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1771,50 +1832,53 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>26700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>7600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1500</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,13 +1986,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1972,61 +2042,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G33" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="H33" s="3">
-        <v>-6200</v>
+        <v>-2000</v>
       </c>
       <c r="I33" s="3">
-        <v>-3400</v>
+        <v>-5900</v>
       </c>
       <c r="J33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-5900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G35" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="H35" s="3">
-        <v>-6200</v>
+        <v>-2000</v>
       </c>
       <c r="I35" s="3">
-        <v>-3400</v>
+        <v>-5900</v>
       </c>
       <c r="J35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-5900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E38" s="2">
         <v>44646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44464</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44282</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43001</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42819</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42637</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42455</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42273</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42091</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,61 +2317,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
-        <v>2000</v>
-      </c>
       <c r="F41" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="G41" s="3">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="H41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
-        <v>1200</v>
-      </c>
       <c r="J41" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K41" s="3">
         <v>900</v>
       </c>
       <c r="L41" s="3">
+        <v>900</v>
+      </c>
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2337,122 +2427,131 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6000</v>
+        <v>8800</v>
       </c>
       <c r="E43" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="F43" s="3">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="G43" s="3">
-        <v>4700</v>
+        <v>5300</v>
       </c>
       <c r="H43" s="3">
         <v>4500</v>
       </c>
       <c r="I43" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="J43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>59200</v>
+        <v>56300</v>
       </c>
       <c r="E44" s="3">
-        <v>66500</v>
+        <v>57100</v>
       </c>
       <c r="F44" s="3">
-        <v>73400</v>
+        <v>64000</v>
       </c>
       <c r="G44" s="3">
-        <v>75300</v>
+        <v>70700</v>
       </c>
       <c r="H44" s="3">
-        <v>76500</v>
+        <v>72600</v>
       </c>
       <c r="I44" s="3">
-        <v>76300</v>
+        <v>73700</v>
       </c>
       <c r="J44" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K44" s="3">
         <v>68700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>67900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>66100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>59700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>100500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>103800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>102600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>101300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>135700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>150400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="E45" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="F45" s="3">
         <v>1500</v>
@@ -2467,37 +2566,40 @@
         <v>1500</v>
       </c>
       <c r="J45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>82200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2505,84 +2607,87 @@
         <v>68200</v>
       </c>
       <c r="E46" s="3">
-        <v>76200</v>
+        <v>65700</v>
       </c>
       <c r="F46" s="3">
-        <v>81800</v>
+        <v>73400</v>
       </c>
       <c r="G46" s="3">
-        <v>83400</v>
+        <v>78800</v>
       </c>
       <c r="H46" s="3">
-        <v>83000</v>
+        <v>80300</v>
       </c>
       <c r="I46" s="3">
-        <v>83600</v>
+        <v>79900</v>
       </c>
       <c r="J46" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K46" s="3">
         <v>73900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>74500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>147700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>114000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>115600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>113300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>112500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>148000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F47" s="3">
         <v>4200</v>
       </c>
-      <c r="E47" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>4300</v>
-      </c>
       <c r="G47" s="3">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="H47" s="3">
         <v>3400</v>
       </c>
       <c r="I47" s="3">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="J47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>700</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -2596,120 +2701,129 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>60700</v>
+        <v>59300</v>
       </c>
       <c r="E48" s="3">
+        <v>58500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>59400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>59400</v>
+      </c>
+      <c r="H48" s="3">
         <v>61700</v>
       </c>
-      <c r="F48" s="3">
-        <v>61700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>64000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>68100</v>
-      </c>
       <c r="I48" s="3">
-        <v>69800</v>
+        <v>65600</v>
       </c>
       <c r="J48" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K48" s="3">
         <v>22300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L49" s="3">
         <v>4500</v>
       </c>
-      <c r="E49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>4500</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2800</v>
-      </c>
-      <c r="N49" s="3">
-        <v>500</v>
       </c>
       <c r="O49" s="3">
         <v>500</v>
       </c>
       <c r="P49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q49" s="3">
         <v>600</v>
       </c>
       <c r="R49" s="3">
+        <v>600</v>
+      </c>
+      <c r="S49" s="3">
         <v>900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,8 +2931,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2850,25 +2970,28 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>4200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
       </c>
       <c r="Q52" s="3">
+        <v>400</v>
+      </c>
+      <c r="R52" s="3">
         <v>1600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>137600</v>
+        <v>135100</v>
       </c>
       <c r="E54" s="3">
-        <v>146400</v>
+        <v>132500</v>
       </c>
       <c r="F54" s="3">
-        <v>151400</v>
+        <v>141000</v>
       </c>
       <c r="G54" s="3">
-        <v>154700</v>
+        <v>145900</v>
       </c>
       <c r="H54" s="3">
-        <v>158200</v>
+        <v>149000</v>
       </c>
       <c r="I54" s="3">
-        <v>159700</v>
+        <v>152300</v>
       </c>
       <c r="J54" s="3">
+        <v>153800</v>
+      </c>
+      <c r="K54" s="3">
         <v>100500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>93800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>162300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>136200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>137700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>136200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>136800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>180200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3145,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21200</v>
+        <v>19400</v>
       </c>
       <c r="E57" s="3">
-        <v>26000</v>
+        <v>20500</v>
       </c>
       <c r="F57" s="3">
-        <v>28500</v>
+        <v>25100</v>
       </c>
       <c r="G57" s="3">
-        <v>27100</v>
+        <v>27500</v>
       </c>
       <c r="H57" s="3">
-        <v>36200</v>
+        <v>26100</v>
       </c>
       <c r="I57" s="3">
-        <v>30100</v>
+        <v>34800</v>
       </c>
       <c r="J57" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K57" s="3">
         <v>25000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>35100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>31800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>44700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>34000</v>
+        <v>38900</v>
       </c>
       <c r="E58" s="3">
-        <v>38700</v>
+        <v>32800</v>
       </c>
       <c r="F58" s="3">
-        <v>42300</v>
+        <v>37300</v>
       </c>
       <c r="G58" s="3">
-        <v>46900</v>
+        <v>40800</v>
       </c>
       <c r="H58" s="3">
-        <v>43600</v>
+        <v>45200</v>
       </c>
       <c r="I58" s="3">
-        <v>45500</v>
+        <v>42000</v>
       </c>
       <c r="J58" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K58" s="3">
         <v>36100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>31400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>46100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>55700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>56800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>50700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>58200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>69100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11500</v>
+        <v>9900</v>
       </c>
       <c r="E59" s="3">
-        <v>13000</v>
+        <v>11100</v>
       </c>
       <c r="F59" s="3">
-        <v>13100</v>
+        <v>12600</v>
       </c>
       <c r="G59" s="3">
-        <v>9700</v>
+        <v>12700</v>
       </c>
       <c r="H59" s="3">
-        <v>7900</v>
+        <v>9300</v>
       </c>
       <c r="I59" s="3">
-        <v>9100</v>
+        <v>7600</v>
       </c>
       <c r="J59" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K59" s="3">
         <v>7300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>79300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>66700</v>
+        <v>68300</v>
       </c>
       <c r="E60" s="3">
-        <v>77800</v>
+        <v>64300</v>
       </c>
       <c r="F60" s="3">
-        <v>84000</v>
+        <v>74900</v>
       </c>
       <c r="G60" s="3">
-        <v>83800</v>
+        <v>80900</v>
       </c>
       <c r="H60" s="3">
-        <v>87700</v>
+        <v>80700</v>
       </c>
       <c r="I60" s="3">
-        <v>84600</v>
+        <v>84400</v>
       </c>
       <c r="J60" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K60" s="3">
         <v>68300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>63400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>144500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>97600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>97500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>92200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>95700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>121900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16000</v>
+        <v>15900</v>
       </c>
       <c r="E61" s="3">
-        <v>16800</v>
+        <v>15500</v>
       </c>
       <c r="F61" s="3">
-        <v>17300</v>
+        <v>16200</v>
       </c>
       <c r="G61" s="3">
-        <v>17700</v>
+        <v>16700</v>
       </c>
       <c r="H61" s="3">
-        <v>12200</v>
+        <v>17000</v>
       </c>
       <c r="I61" s="3">
-        <v>10900</v>
+        <v>11700</v>
       </c>
       <c r="J61" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K61" s="3">
         <v>12100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>36200</v>
-      </c>
-      <c r="R61" s="3">
-        <v>52000</v>
       </c>
       <c r="S61" s="3">
         <v>52000</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>50400</v>
+        <v>47700</v>
       </c>
       <c r="E62" s="3">
-        <v>52100</v>
+        <v>48600</v>
       </c>
       <c r="F62" s="3">
-        <v>51200</v>
+        <v>50200</v>
       </c>
       <c r="G62" s="3">
-        <v>52700</v>
+        <v>49300</v>
       </c>
       <c r="H62" s="3">
-        <v>55800</v>
+        <v>50800</v>
       </c>
       <c r="I62" s="3">
-        <v>55400</v>
+        <v>53700</v>
       </c>
       <c r="J62" s="3">
+        <v>53400</v>
+      </c>
+      <c r="K62" s="3">
         <v>9700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>133200</v>
+        <v>131900</v>
       </c>
       <c r="E66" s="3">
-        <v>146700</v>
+        <v>128300</v>
       </c>
       <c r="F66" s="3">
-        <v>152500</v>
+        <v>141300</v>
       </c>
       <c r="G66" s="3">
-        <v>154200</v>
+        <v>146900</v>
       </c>
       <c r="H66" s="3">
-        <v>155600</v>
+        <v>148500</v>
       </c>
       <c r="I66" s="3">
-        <v>150900</v>
+        <v>149900</v>
       </c>
       <c r="J66" s="3">
+        <v>145400</v>
+      </c>
+      <c r="K66" s="3">
         <v>90100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>81500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>154800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>126400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>133400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>130400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>134600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>177400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-85200</v>
+        <v>-83500</v>
       </c>
       <c r="E72" s="3">
-        <v>-85400</v>
+        <v>-82000</v>
       </c>
       <c r="F72" s="3">
-        <v>-86100</v>
+        <v>-82200</v>
       </c>
       <c r="G72" s="3">
-        <v>-83900</v>
+        <v>-83000</v>
       </c>
       <c r="H72" s="3">
-        <v>-81700</v>
+        <v>-80800</v>
       </c>
       <c r="I72" s="3">
-        <v>-75600</v>
+        <v>-78700</v>
       </c>
       <c r="J72" s="3">
+        <v>-72800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-73900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-62200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-64900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-56300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-58700</v>
       </c>
       <c r="P72" s="3">
         <v>-58700</v>
       </c>
       <c r="Q72" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="R72" s="3">
         <v>-62100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-84300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-79700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4400</v>
+        <v>3200</v>
       </c>
       <c r="E76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
-        <v>-1100</v>
-      </c>
       <c r="G76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
-        <v>2600</v>
-      </c>
       <c r="I76" s="3">
-        <v>8800</v>
+        <v>2500</v>
       </c>
       <c r="J76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K76" s="3">
         <v>10300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E80" s="2">
         <v>44646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44464</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44282</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43001</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42819</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42637</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42455</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42273</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42091</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G81" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="H81" s="3">
-        <v>-6200</v>
+        <v>-2000</v>
       </c>
       <c r="I81" s="3">
-        <v>-3400</v>
+        <v>-5900</v>
       </c>
       <c r="J81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-5900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,8 +4426,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4237,52 +4436,55 @@
         <v>1900</v>
       </c>
       <c r="E83" s="3">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="F83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H83" s="3">
         <v>2000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1800</v>
       </c>
       <c r="I83" s="3">
         <v>1800</v>
       </c>
       <c r="J83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1500</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2000</v>
       </c>
       <c r="P83" s="3">
         <v>2000</v>
       </c>
       <c r="Q83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R83" s="3">
         <v>1900</v>
-      </c>
-      <c r="R83" s="3">
-        <v>3000</v>
       </c>
       <c r="S83" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6900</v>
+        <v>-3500</v>
       </c>
       <c r="E89" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="F89" s="3">
-        <v>5400</v>
+        <v>6800</v>
       </c>
       <c r="G89" s="3">
-        <v>-6700</v>
+        <v>5200</v>
       </c>
       <c r="H89" s="3">
-        <v>1500</v>
+        <v>-6500</v>
       </c>
       <c r="I89" s="3">
-        <v>-4700</v>
+        <v>1400</v>
       </c>
       <c r="J89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1800</v>
+        <v>-3600</v>
       </c>
       <c r="E91" s="3">
         <v>-1700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G91" s="3">
-        <v>-800</v>
+        <v>-1400</v>
       </c>
       <c r="H91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-2400</v>
       </c>
       <c r="R91" s="3">
         <v>-2400</v>
       </c>
       <c r="S91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="T91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2200</v>
+        <v>-3600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="G94" s="3">
-        <v>-800</v>
+        <v>-1400</v>
       </c>
       <c r="H94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1800</v>
       </c>
-      <c r="I94" s="3">
-        <v>-3000</v>
-      </c>
       <c r="J94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3600</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>102500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,8 +5086,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4906,8 +5140,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,61 +5308,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5300</v>
+        <v>6700</v>
       </c>
       <c r="E100" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-4200</v>
       </c>
-      <c r="F100" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>8800</v>
-      </c>
       <c r="H100" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
-        <v>8000</v>
-      </c>
       <c r="J100" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-72700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>18800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5148,80 +5397,86 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>-100</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
-        <v>700</v>
-      </c>
       <c r="F102" s="3">
-        <v>-500</v>
+        <v>600</v>
       </c>
       <c r="G102" s="3">
-        <v>1400</v>
+        <v>-400</v>
       </c>
       <c r="H102" s="3">
-        <v>-800</v>
+        <v>1300</v>
       </c>
       <c r="I102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -756,25 +756,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57900</v>
+        <v>59300</v>
       </c>
       <c r="E8" s="3">
-        <v>69900</v>
+        <v>71600</v>
       </c>
       <c r="F8" s="3">
-        <v>61200</v>
+        <v>62700</v>
       </c>
       <c r="G8" s="3">
-        <v>62200</v>
+        <v>63700</v>
       </c>
       <c r="H8" s="3">
-        <v>41200</v>
+        <v>42200</v>
       </c>
       <c r="I8" s="3">
-        <v>60800</v>
+        <v>62300</v>
       </c>
       <c r="J8" s="3">
-        <v>61700</v>
+        <v>63200</v>
       </c>
       <c r="K8" s="3">
         <v>61800</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>33400</v>
+        <v>34200</v>
       </c>
       <c r="E9" s="3">
-        <v>40100</v>
+        <v>41000</v>
       </c>
       <c r="F9" s="3">
-        <v>36000</v>
+        <v>36800</v>
       </c>
       <c r="G9" s="3">
-        <v>38000</v>
+        <v>38900</v>
       </c>
       <c r="H9" s="3">
-        <v>24700</v>
+        <v>25300</v>
       </c>
       <c r="I9" s="3">
-        <v>37800</v>
+        <v>38700</v>
       </c>
       <c r="J9" s="3">
-        <v>38100</v>
+        <v>39100</v>
       </c>
       <c r="K9" s="3">
         <v>37600</v>
@@ -868,25 +868,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>24500</v>
+        <v>25100</v>
       </c>
       <c r="E10" s="3">
-        <v>29900</v>
+        <v>30600</v>
       </c>
       <c r="F10" s="3">
-        <v>25200</v>
+        <v>25800</v>
       </c>
       <c r="G10" s="3">
-        <v>24200</v>
+        <v>24800</v>
       </c>
       <c r="H10" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="I10" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="J10" s="3">
-        <v>23600</v>
+        <v>24100</v>
       </c>
       <c r="K10" s="3">
         <v>24200</v>
@@ -1120,19 +1120,19 @@
         <v>1800</v>
       </c>
       <c r="F15" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G15" s="3">
         <v>1900</v>
       </c>
       <c r="H15" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I15" s="3">
         <v>1800</v>
       </c>
       <c r="J15" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K15" s="3">
         <v>1500</v>
@@ -1189,25 +1189,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>58400</v>
+        <v>59800</v>
       </c>
       <c r="E17" s="3">
-        <v>68700</v>
+        <v>70300</v>
       </c>
       <c r="F17" s="3">
-        <v>59300</v>
+        <v>60700</v>
       </c>
       <c r="G17" s="3">
-        <v>63300</v>
+        <v>64800</v>
       </c>
       <c r="H17" s="3">
-        <v>42200</v>
+        <v>43300</v>
       </c>
       <c r="I17" s="3">
-        <v>64100</v>
+        <v>65600</v>
       </c>
       <c r="J17" s="3">
-        <v>63200</v>
+        <v>64700</v>
       </c>
       <c r="K17" s="3">
         <v>65700</v>
@@ -1251,7 +1251,7 @@
         <v>1300</v>
       </c>
       <c r="F18" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G18" s="3">
         <v>-1100</v>
@@ -1260,10 +1260,10 @@
         <v>-1000</v>
       </c>
       <c r="I18" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J18" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="K18" s="3">
         <v>-3900</v>
@@ -1382,16 +1382,16 @@
         <v>2100</v>
       </c>
       <c r="E21" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F21" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G21" s="3">
         <v>900</v>
       </c>
       <c r="H21" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I21" s="3">
         <v>-1500</v>
@@ -1435,7 +1435,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="3">
         <v>1100</v>
@@ -1444,16 +1444,16 @@
         <v>1200</v>
       </c>
       <c r="G22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H22" s="3">
         <v>1100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1000</v>
       </c>
       <c r="I22" s="3">
         <v>2400</v>
       </c>
       <c r="J22" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K22" s="3">
         <v>2100</v>
@@ -1491,7 +1491,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E23" s="3">
         <v>200</v>
@@ -1503,13 +1503,13 @@
         <v>-2200</v>
       </c>
       <c r="H23" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I23" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="J23" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="K23" s="3">
         <v>-6000</v>
@@ -1659,7 +1659,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
         <v>200</v>
@@ -1671,13 +1671,13 @@
         <v>-2200</v>
       </c>
       <c r="H26" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I26" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="J26" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="K26" s="3">
         <v>-6000</v>
@@ -1715,7 +1715,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E27" s="3">
         <v>200</v>
@@ -1727,13 +1727,13 @@
         <v>-2200</v>
       </c>
       <c r="H27" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I27" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="J27" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="K27" s="3">
         <v>-6000</v>
@@ -2051,7 +2051,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E33" s="3">
         <v>200</v>
@@ -2063,13 +2063,13 @@
         <v>-2200</v>
       </c>
       <c r="H33" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I33" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="J33" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="K33" s="3">
         <v>-5900</v>
@@ -2163,7 +2163,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E35" s="3">
         <v>200</v>
@@ -2175,13 +2175,13 @@
         <v>-2200</v>
       </c>
       <c r="H35" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I35" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="J35" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="K35" s="3">
         <v>-5900</v>
@@ -2324,25 +2324,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
         <v>1500</v>
       </c>
       <c r="F41" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G41" s="3">
         <v>1300</v>
       </c>
       <c r="H41" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I41" s="3">
         <v>400</v>
       </c>
       <c r="J41" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K41" s="3">
         <v>900</v>
@@ -2436,25 +2436,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="E43" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="F43" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G43" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="H43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I43" s="3">
         <v>4500</v>
       </c>
-      <c r="I43" s="3">
-        <v>4400</v>
-      </c>
       <c r="J43" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="K43" s="3">
         <v>2700</v>
@@ -2492,25 +2492,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>56300</v>
+        <v>57700</v>
       </c>
       <c r="E44" s="3">
-        <v>57100</v>
+        <v>58400</v>
       </c>
       <c r="F44" s="3">
-        <v>64000</v>
+        <v>65600</v>
       </c>
       <c r="G44" s="3">
-        <v>70700</v>
+        <v>72400</v>
       </c>
       <c r="H44" s="3">
-        <v>72600</v>
+        <v>74300</v>
       </c>
       <c r="I44" s="3">
-        <v>73700</v>
+        <v>75500</v>
       </c>
       <c r="J44" s="3">
-        <v>73500</v>
+        <v>75300</v>
       </c>
       <c r="K44" s="3">
         <v>68700</v>
@@ -2548,13 +2548,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E45" s="3">
         <v>1300</v>
       </c>
       <c r="F45" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G45" s="3">
         <v>1500</v>
@@ -2566,7 +2566,7 @@
         <v>1500</v>
       </c>
       <c r="J45" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K45" s="3">
         <v>1600</v>
@@ -2604,25 +2604,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>68200</v>
+        <v>69800</v>
       </c>
       <c r="E46" s="3">
-        <v>65700</v>
+        <v>67200</v>
       </c>
       <c r="F46" s="3">
-        <v>73400</v>
+        <v>75200</v>
       </c>
       <c r="G46" s="3">
-        <v>78800</v>
+        <v>80700</v>
       </c>
       <c r="H46" s="3">
-        <v>80300</v>
+        <v>82300</v>
       </c>
       <c r="I46" s="3">
-        <v>79900</v>
+        <v>81800</v>
       </c>
       <c r="J46" s="3">
-        <v>80600</v>
+        <v>82500</v>
       </c>
       <c r="K46" s="3">
         <v>73900</v>
@@ -2660,25 +2660,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E47" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F47" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G47" s="3">
         <v>4200</v>
       </c>
-      <c r="G47" s="3">
-        <v>4100</v>
-      </c>
       <c r="H47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I47" s="3">
         <v>3400</v>
       </c>
-      <c r="I47" s="3">
-        <v>3300</v>
-      </c>
       <c r="J47" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K47" s="3">
         <v>1000</v>
@@ -2716,25 +2716,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>59300</v>
+        <v>60700</v>
       </c>
       <c r="E48" s="3">
-        <v>58500</v>
+        <v>59900</v>
       </c>
       <c r="F48" s="3">
-        <v>59400</v>
+        <v>60900</v>
       </c>
       <c r="G48" s="3">
-        <v>59400</v>
+        <v>60900</v>
       </c>
       <c r="H48" s="3">
-        <v>61700</v>
+        <v>63200</v>
       </c>
       <c r="I48" s="3">
-        <v>65600</v>
+        <v>67200</v>
       </c>
       <c r="J48" s="3">
-        <v>67300</v>
+        <v>68900</v>
       </c>
       <c r="K48" s="3">
         <v>22300</v>
@@ -2772,22 +2772,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="E49" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F49" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G49" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H49" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I49" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J49" s="3">
         <v>3200</v>
@@ -3052,25 +3052,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>135100</v>
+        <v>138400</v>
       </c>
       <c r="E54" s="3">
-        <v>132500</v>
+        <v>135700</v>
       </c>
       <c r="F54" s="3">
-        <v>141000</v>
+        <v>144400</v>
       </c>
       <c r="G54" s="3">
-        <v>145900</v>
+        <v>149400</v>
       </c>
       <c r="H54" s="3">
-        <v>149000</v>
+        <v>152600</v>
       </c>
       <c r="I54" s="3">
-        <v>152300</v>
+        <v>156000</v>
       </c>
       <c r="J54" s="3">
-        <v>153800</v>
+        <v>157600</v>
       </c>
       <c r="K54" s="3">
         <v>100500</v>
@@ -3152,25 +3152,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19400</v>
+        <v>19900</v>
       </c>
       <c r="E57" s="3">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="F57" s="3">
-        <v>25100</v>
+        <v>25700</v>
       </c>
       <c r="G57" s="3">
-        <v>27500</v>
+        <v>28100</v>
       </c>
       <c r="H57" s="3">
-        <v>26100</v>
+        <v>26800</v>
       </c>
       <c r="I57" s="3">
-        <v>34800</v>
+        <v>35700</v>
       </c>
       <c r="J57" s="3">
-        <v>29000</v>
+        <v>29700</v>
       </c>
       <c r="K57" s="3">
         <v>25000</v>
@@ -3208,25 +3208,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38900</v>
+        <v>39900</v>
       </c>
       <c r="E58" s="3">
-        <v>32800</v>
+        <v>33500</v>
       </c>
       <c r="F58" s="3">
-        <v>37300</v>
+        <v>38200</v>
       </c>
       <c r="G58" s="3">
-        <v>40800</v>
+        <v>41700</v>
       </c>
       <c r="H58" s="3">
-        <v>45200</v>
+        <v>46300</v>
       </c>
       <c r="I58" s="3">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="J58" s="3">
-        <v>43800</v>
+        <v>44800</v>
       </c>
       <c r="K58" s="3">
         <v>36100</v>
@@ -3264,25 +3264,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="E59" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="F59" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="G59" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="H59" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="I59" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="J59" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="K59" s="3">
         <v>7300</v>
@@ -3320,25 +3320,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>68300</v>
+        <v>69900</v>
       </c>
       <c r="E60" s="3">
-        <v>64300</v>
+        <v>65800</v>
       </c>
       <c r="F60" s="3">
-        <v>74900</v>
+        <v>76700</v>
       </c>
       <c r="G60" s="3">
-        <v>80900</v>
+        <v>82800</v>
       </c>
       <c r="H60" s="3">
-        <v>80700</v>
+        <v>82600</v>
       </c>
       <c r="I60" s="3">
-        <v>84400</v>
+        <v>86500</v>
       </c>
       <c r="J60" s="3">
-        <v>81500</v>
+        <v>83500</v>
       </c>
       <c r="K60" s="3">
         <v>68300</v>
@@ -3376,25 +3376,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15900</v>
+        <v>16300</v>
       </c>
       <c r="E61" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="F61" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="G61" s="3">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="H61" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="I61" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="J61" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="K61" s="3">
         <v>12100</v>
@@ -3432,25 +3432,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>47700</v>
+        <v>48900</v>
       </c>
       <c r="E62" s="3">
-        <v>48600</v>
+        <v>49700</v>
       </c>
       <c r="F62" s="3">
-        <v>50200</v>
+        <v>51400</v>
       </c>
       <c r="G62" s="3">
-        <v>49300</v>
+        <v>50500</v>
       </c>
       <c r="H62" s="3">
-        <v>50800</v>
+        <v>52000</v>
       </c>
       <c r="I62" s="3">
-        <v>53700</v>
+        <v>55000</v>
       </c>
       <c r="J62" s="3">
-        <v>53400</v>
+        <v>54700</v>
       </c>
       <c r="K62" s="3">
         <v>9700</v>
@@ -3656,25 +3656,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>131900</v>
+        <v>135100</v>
       </c>
       <c r="E66" s="3">
-        <v>128300</v>
+        <v>131400</v>
       </c>
       <c r="F66" s="3">
-        <v>141300</v>
+        <v>144700</v>
       </c>
       <c r="G66" s="3">
-        <v>146900</v>
+        <v>150400</v>
       </c>
       <c r="H66" s="3">
-        <v>148500</v>
+        <v>152100</v>
       </c>
       <c r="I66" s="3">
-        <v>149900</v>
+        <v>153500</v>
       </c>
       <c r="J66" s="3">
-        <v>145400</v>
+        <v>148900</v>
       </c>
       <c r="K66" s="3">
         <v>90100</v>
@@ -3958,25 +3958,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-83500</v>
+        <v>-85500</v>
       </c>
       <c r="E72" s="3">
-        <v>-82000</v>
+        <v>-84000</v>
       </c>
       <c r="F72" s="3">
-        <v>-82200</v>
+        <v>-84200</v>
       </c>
       <c r="G72" s="3">
-        <v>-83000</v>
+        <v>-85000</v>
       </c>
       <c r="H72" s="3">
-        <v>-80800</v>
+        <v>-82700</v>
       </c>
       <c r="I72" s="3">
-        <v>-78700</v>
+        <v>-80600</v>
       </c>
       <c r="J72" s="3">
-        <v>-72800</v>
+        <v>-74600</v>
       </c>
       <c r="K72" s="3">
         <v>-73900</v>
@@ -4185,13 +4185,13 @@
         <v>3200</v>
       </c>
       <c r="E76" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
       </c>
       <c r="G76" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H76" s="3">
         <v>500</v>
@@ -4200,7 +4200,7 @@
         <v>2500</v>
       </c>
       <c r="J76" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="K76" s="3">
         <v>10300</v>
@@ -4355,7 +4355,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E81" s="3">
         <v>200</v>
@@ -4367,13 +4367,13 @@
         <v>-2200</v>
       </c>
       <c r="H81" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I81" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="J81" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="K81" s="3">
         <v>-5900</v>
@@ -4439,19 +4439,19 @@
         <v>1800</v>
       </c>
       <c r="F83" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G83" s="3">
         <v>1900</v>
       </c>
       <c r="H83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I83" s="3">
         <v>1800</v>
       </c>
       <c r="J83" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K83" s="3">
         <v>1500</v>
@@ -4772,22 +4772,22 @@
         <v>-3500</v>
       </c>
       <c r="E89" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="F89" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="G89" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="H89" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="I89" s="3">
         <v>1400</v>
       </c>
       <c r="J89" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="K89" s="3">
         <v>1700</v>
@@ -4847,25 +4847,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3600</v>
+        <v>-4900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1700</v>
+        <v>-2900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1600</v>
+        <v>-2900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1400</v>
+        <v>-2000</v>
       </c>
       <c r="H91" s="3">
-        <v>-700</v>
+        <v>-1000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1300</v>
+        <v>-2400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2900</v>
+        <v>-4000</v>
       </c>
       <c r="K91" s="3">
         <v>-3800</v>
@@ -5018,22 +5018,22 @@
         <v>-3600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F94" s="3">
         <v>-2100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H94" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="I94" s="3">
         <v>-1800</v>
       </c>
       <c r="J94" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K94" s="3">
         <v>-3600</v>
@@ -5317,25 +5317,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="E100" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="F100" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="G100" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H100" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="I100" s="3">
         <v>-400</v>
       </c>
       <c r="J100" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="K100" s="3">
         <v>1800</v>
@@ -5441,10 +5441,10 @@
         <v>-400</v>
       </c>
       <c r="H102" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I102" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J102" s="3">
         <v>300</v>

--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>BGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45010</v>
+      </c>
+      <c r="E7" s="2">
         <v>44828</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44464</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44282</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43001</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42819</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42637</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42455</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42273</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42091</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>59300</v>
+        <v>61400</v>
       </c>
       <c r="E8" s="3">
+        <v>59200</v>
+      </c>
+      <c r="F8" s="3">
         <v>71600</v>
       </c>
-      <c r="F8" s="3">
-        <v>62700</v>
-      </c>
       <c r="G8" s="3">
+        <v>62600</v>
+      </c>
+      <c r="H8" s="3">
         <v>63700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>42200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>62300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>63200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>61800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>52700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>63500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>54000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>113000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>99700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>161900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E9" s="3">
         <v>34200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>38900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>25300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>39100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>28400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>23500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>70000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>61300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>99500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="E10" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F10" s="3">
         <v>30600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>43000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>38400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>62400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1010,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,8 +1069,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1066,106 +1086,112 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2900</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5500</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E15" s="3">
         <v>1900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1800</v>
       </c>
       <c r="J15" s="3">
         <v>1800</v>
       </c>
       <c r="K15" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L15" s="3">
         <v>1500</v>
       </c>
       <c r="M15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N15" s="3">
         <v>1300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E17" s="3">
         <v>59800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>60700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>64800</v>
       </c>
-      <c r="H17" s="3">
-        <v>43300</v>
-      </c>
       <c r="I17" s="3">
+        <v>43200</v>
+      </c>
+      <c r="J17" s="3">
         <v>65600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>64700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>59200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>73000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>58800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>48100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>106000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>95200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>161900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4500</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,17 +1350,18 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1373,176 +1407,188 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-400</v>
       </c>
       <c r="Q21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R21" s="3">
         <v>7200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1200</v>
       </c>
       <c r="G22" s="3">
         <v>1200</v>
       </c>
       <c r="H22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,8 +1643,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1835,50 +1896,53 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>26700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>7600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,17 +2056,20 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2045,64 +2115,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45010</v>
+      </c>
+      <c r="E38" s="2">
         <v>44828</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44464</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44282</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43001</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42819</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42637</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42455</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42273</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42091</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,64 +2404,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>900</v>
       </c>
       <c r="L41" s="3">
         <v>900</v>
       </c>
       <c r="M41" s="3">
+        <v>900</v>
+      </c>
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2430,120 +2520,129 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E43" s="3">
         <v>9000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>6000</v>
       </c>
       <c r="F43" s="3">
         <v>6000</v>
       </c>
       <c r="G43" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H43" s="3">
         <v>5400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E44" s="3">
         <v>57700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>58400</v>
       </c>
-      <c r="F44" s="3">
-        <v>65600</v>
-      </c>
       <c r="G44" s="3">
+        <v>65500</v>
+      </c>
+      <c r="H44" s="3">
         <v>72400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>74300</v>
       </c>
-      <c r="I44" s="3">
-        <v>75500</v>
-      </c>
       <c r="J44" s="3">
+        <v>75400</v>
+      </c>
+      <c r="K44" s="3">
         <v>75300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>68700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>67900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>66100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>59700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>100500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>103800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>102600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>101300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>135700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>150400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2551,13 +2650,13 @@
         <v>2000</v>
       </c>
       <c r="E45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1500</v>
       </c>
       <c r="H45" s="3">
         <v>1500</v>
@@ -2569,128 +2668,134 @@
         <v>1500</v>
       </c>
       <c r="K45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>82200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E46" s="3">
         <v>69800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>67200</v>
       </c>
-      <c r="F46" s="3">
-        <v>75200</v>
-      </c>
       <c r="G46" s="3">
+        <v>75100</v>
+      </c>
+      <c r="H46" s="3">
         <v>80700</v>
       </c>
-      <c r="H46" s="3">
-        <v>82300</v>
-      </c>
       <c r="I46" s="3">
+        <v>82200</v>
+      </c>
+      <c r="J46" s="3">
         <v>81800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>82500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>73900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>74500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>75600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>147700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>114000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>115600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>113300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>112500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>148000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E47" s="3">
         <v>3400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>700</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
@@ -2704,126 +2809,135 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E48" s="3">
         <v>60700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>60900</v>
       </c>
       <c r="G48" s="3">
         <v>60900</v>
       </c>
       <c r="H48" s="3">
-        <v>63200</v>
+        <v>60800</v>
       </c>
       <c r="I48" s="3">
-        <v>67200</v>
+        <v>63100</v>
       </c>
       <c r="J48" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K48" s="3">
         <v>68900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E49" s="3">
         <v>4400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3700</v>
       </c>
       <c r="I49" s="3">
         <v>3700</v>
       </c>
       <c r="J49" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K49" s="3">
         <v>3200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2800</v>
-      </c>
-      <c r="O49" s="3">
-        <v>500</v>
       </c>
       <c r="P49" s="3">
         <v>500</v>
       </c>
       <c r="Q49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R49" s="3">
         <v>600</v>
       </c>
       <c r="S49" s="3">
+        <v>600</v>
+      </c>
+      <c r="T49" s="3">
         <v>900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,8 +3051,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2973,25 +3093,28 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>4200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>400</v>
       </c>
       <c r="Q52" s="3">
         <v>400</v>
       </c>
       <c r="R52" s="3">
+        <v>400</v>
+      </c>
+      <c r="S52" s="3">
         <v>1600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>138400</v>
+        <v>145800</v>
       </c>
       <c r="E54" s="3">
+        <v>138300</v>
+      </c>
+      <c r="F54" s="3">
         <v>135700</v>
       </c>
-      <c r="F54" s="3">
-        <v>144400</v>
-      </c>
       <c r="G54" s="3">
-        <v>149400</v>
+        <v>144300</v>
       </c>
       <c r="H54" s="3">
-        <v>152600</v>
+        <v>149300</v>
       </c>
       <c r="I54" s="3">
+        <v>152500</v>
+      </c>
+      <c r="J54" s="3">
         <v>156000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>157600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>98200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>93800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>162300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>136200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>137700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>136200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>136800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>180200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,344 +3276,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E57" s="3">
         <v>19900</v>
       </c>
-      <c r="E57" s="3">
-        <v>21000</v>
-      </c>
       <c r="F57" s="3">
+        <v>20900</v>
+      </c>
+      <c r="G57" s="3">
         <v>25700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>35700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>35500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>44700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E58" s="3">
         <v>39900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>33500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>38200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>41700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>46300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>43000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>44800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>36000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>31400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>46100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>55700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>56800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>50700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>58200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>69100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E59" s="3">
         <v>10100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13000</v>
       </c>
-      <c r="H59" s="3">
-        <v>9600</v>
-      </c>
       <c r="I59" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J59" s="3">
         <v>7800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>79300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E60" s="3">
         <v>69900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>65800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>76700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>82800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>82600</v>
       </c>
-      <c r="I60" s="3">
-        <v>86500</v>
-      </c>
       <c r="J60" s="3">
+        <v>86400</v>
+      </c>
+      <c r="K60" s="3">
         <v>83500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>63400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>57800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>144500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>97600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>97500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>92200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>95700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>121900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E61" s="3">
         <v>16300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>34700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>36200</v>
-      </c>
-      <c r="S61" s="3">
-        <v>52000</v>
       </c>
       <c r="T61" s="3">
         <v>52000</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E62" s="3">
         <v>48900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>49700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>51400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>52000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>54700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>135100</v>
+        <v>146300</v>
       </c>
       <c r="E66" s="3">
-        <v>131400</v>
+        <v>135000</v>
       </c>
       <c r="F66" s="3">
-        <v>144700</v>
+        <v>131300</v>
       </c>
       <c r="G66" s="3">
+        <v>144600</v>
+      </c>
+      <c r="H66" s="3">
         <v>150400</v>
       </c>
-      <c r="H66" s="3">
-        <v>152100</v>
-      </c>
       <c r="I66" s="3">
-        <v>153500</v>
+        <v>152000</v>
       </c>
       <c r="J66" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K66" s="3">
         <v>148900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>81500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>154800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>126400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>133400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>130400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>134600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>177400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-85500</v>
+        <v>-89500</v>
       </c>
       <c r="E72" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-84000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-84200</v>
       </c>
-      <c r="G72" s="3">
-        <v>-85000</v>
-      </c>
       <c r="H72" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-82700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-80600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-74600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-73900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-62200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-64900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-56300</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-58700</v>
       </c>
       <c r="Q72" s="3">
         <v>-58700</v>
       </c>
       <c r="R72" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="S72" s="3">
         <v>-62100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-84300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-79700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45010</v>
+      </c>
+      <c r="E80" s="2">
         <v>44828</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44464</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44282</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43001</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42819</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42637</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42455</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42273</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42091</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,64 +4625,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1800</v>
       </c>
       <c r="J83" s="3">
         <v>1800</v>
       </c>
       <c r="K83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L83" s="3">
         <v>1500</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1800</v>
-      </c>
-      <c r="P83" s="3">
-        <v>2000</v>
       </c>
       <c r="Q83" s="3">
         <v>2000</v>
       </c>
       <c r="R83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S83" s="3">
         <v>1900</v>
-      </c>
-      <c r="S83" s="3">
-        <v>3000</v>
       </c>
       <c r="T83" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="L89" s="3" t="s">
+      <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,64 +5061,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4900</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-2900</v>
       </c>
       <c r="F91" s="3">
         <v>-2900</v>
       </c>
       <c r="G91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3800</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-2400</v>
       </c>
       <c r="S91" s="3">
         <v>-2400</v>
       </c>
       <c r="T91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="U91" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3600</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>102500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,8 +5320,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5143,8 +5377,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,64 +5554,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E100" s="3">
         <v>6900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-72700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>18800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5400,83 +5649,89 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>-100</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BGI_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>61400</v>
+        <v>60300</v>
       </c>
       <c r="E8" s="3">
-        <v>59200</v>
+        <v>58200</v>
       </c>
       <c r="F8" s="3">
-        <v>71600</v>
+        <v>70300</v>
       </c>
       <c r="G8" s="3">
-        <v>62600</v>
+        <v>61500</v>
       </c>
       <c r="H8" s="3">
-        <v>63700</v>
+        <v>62500</v>
       </c>
       <c r="I8" s="3">
-        <v>42200</v>
+        <v>41400</v>
       </c>
       <c r="J8" s="3">
-        <v>62300</v>
+        <v>61100</v>
       </c>
       <c r="K8" s="3">
         <v>63200</v>
@@ -819,25 +819,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>36100</v>
+        <v>35500</v>
       </c>
       <c r="E9" s="3">
-        <v>34200</v>
+        <v>33600</v>
       </c>
       <c r="F9" s="3">
-        <v>41000</v>
+        <v>40300</v>
       </c>
       <c r="G9" s="3">
-        <v>36800</v>
+        <v>36200</v>
       </c>
       <c r="H9" s="3">
-        <v>38900</v>
+        <v>38200</v>
       </c>
       <c r="I9" s="3">
-        <v>25300</v>
+        <v>24900</v>
       </c>
       <c r="J9" s="3">
-        <v>38700</v>
+        <v>38000</v>
       </c>
       <c r="K9" s="3">
         <v>39100</v>
@@ -878,25 +878,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>25200</v>
+        <v>24800</v>
       </c>
       <c r="E10" s="3">
-        <v>25000</v>
+        <v>24600</v>
       </c>
       <c r="F10" s="3">
-        <v>30600</v>
+        <v>30000</v>
       </c>
       <c r="G10" s="3">
-        <v>25800</v>
+        <v>25400</v>
       </c>
       <c r="H10" s="3">
-        <v>24800</v>
+        <v>24300</v>
       </c>
       <c r="I10" s="3">
-        <v>16900</v>
+        <v>16600</v>
       </c>
       <c r="J10" s="3">
-        <v>23600</v>
+        <v>23200</v>
       </c>
       <c r="K10" s="3">
         <v>24100</v>
@@ -1137,7 +1137,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E15" s="3">
         <v>1900</v>
@@ -1146,7 +1146,7 @@
         <v>1800</v>
       </c>
       <c r="G15" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H15" s="3">
         <v>1900</v>
@@ -1216,25 +1216,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>63700</v>
+        <v>62600</v>
       </c>
       <c r="E17" s="3">
-        <v>59800</v>
+        <v>58700</v>
       </c>
       <c r="F17" s="3">
-        <v>70300</v>
+        <v>69000</v>
       </c>
       <c r="G17" s="3">
-        <v>60700</v>
+        <v>59600</v>
       </c>
       <c r="H17" s="3">
-        <v>64800</v>
+        <v>63600</v>
       </c>
       <c r="I17" s="3">
-        <v>43200</v>
+        <v>42500</v>
       </c>
       <c r="J17" s="3">
-        <v>65600</v>
+        <v>64400</v>
       </c>
       <c r="K17" s="3">
         <v>64700</v>
@@ -1284,7 +1284,7 @@
         <v>1300</v>
       </c>
       <c r="G18" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H18" s="3">
         <v>-1100</v>
@@ -1293,7 +1293,7 @@
         <v>-1000</v>
       </c>
       <c r="J18" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="K18" s="3">
         <v>-1600</v>
@@ -1357,7 +1357,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E20" s="3">
         <v>700</v>
@@ -1422,7 +1422,7 @@
         <v>2100</v>
       </c>
       <c r="F21" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G21" s="3">
         <v>4400</v>
@@ -1431,7 +1431,7 @@
         <v>900</v>
       </c>
       <c r="I21" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J21" s="3">
         <v>-1500</v>
@@ -1475,10 +1475,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
@@ -1487,10 +1487,10 @@
         <v>1200</v>
       </c>
       <c r="H22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J22" s="3">
         <v>2400</v>
@@ -1552,7 +1552,7 @@
         <v>-2100</v>
       </c>
       <c r="J23" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="K23" s="3">
         <v>-3300</v>
@@ -1729,7 +1729,7 @@
         <v>-2100</v>
       </c>
       <c r="J26" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="K26" s="3">
         <v>-3300</v>
@@ -1788,7 +1788,7 @@
         <v>-2100</v>
       </c>
       <c r="J27" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="K27" s="3">
         <v>-3300</v>
@@ -2065,7 +2065,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
         <v>-700</v>
@@ -2142,7 +2142,7 @@
         <v>-2100</v>
       </c>
       <c r="J33" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="K33" s="3">
         <v>-3400</v>
@@ -2260,7 +2260,7 @@
         <v>-2100</v>
       </c>
       <c r="J35" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="K35" s="3">
         <v>-3400</v>
@@ -2414,13 +2414,13 @@
         <v>900</v>
       </c>
       <c r="E41" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F41" s="3">
         <v>1500</v>
       </c>
       <c r="G41" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H41" s="3">
         <v>1300</v>
@@ -2529,25 +2529,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="E43" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="F43" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="G43" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="H43" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="I43" s="3">
         <v>4600</v>
       </c>
       <c r="J43" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K43" s="3">
         <v>4600</v>
@@ -2588,25 +2588,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>65400</v>
+        <v>64200</v>
       </c>
       <c r="E44" s="3">
-        <v>57700</v>
+        <v>56600</v>
       </c>
       <c r="F44" s="3">
-        <v>58400</v>
+        <v>57400</v>
       </c>
       <c r="G44" s="3">
-        <v>65500</v>
+        <v>64400</v>
       </c>
       <c r="H44" s="3">
-        <v>72400</v>
+        <v>71100</v>
       </c>
       <c r="I44" s="3">
-        <v>74300</v>
+        <v>72900</v>
       </c>
       <c r="J44" s="3">
-        <v>75400</v>
+        <v>74100</v>
       </c>
       <c r="K44" s="3">
         <v>75300</v>
@@ -2650,13 +2650,13 @@
         <v>2000</v>
       </c>
       <c r="E45" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F45" s="3">
         <v>1300</v>
       </c>
       <c r="G45" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H45" s="3">
         <v>1500</v>
@@ -2706,25 +2706,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>76800</v>
+        <v>75400</v>
       </c>
       <c r="E46" s="3">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="F46" s="3">
-        <v>67200</v>
+        <v>66000</v>
       </c>
       <c r="G46" s="3">
-        <v>75100</v>
+        <v>73800</v>
       </c>
       <c r="H46" s="3">
+        <v>79200</v>
+      </c>
+      <c r="I46" s="3">
         <v>80700</v>
       </c>
-      <c r="I46" s="3">
-        <v>82200</v>
-      </c>
       <c r="J46" s="3">
-        <v>81800</v>
+        <v>80300</v>
       </c>
       <c r="K46" s="3">
         <v>82500</v>
@@ -2768,22 +2768,22 @@
         <v>2900</v>
       </c>
       <c r="E47" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F47" s="3">
         <v>4100</v>
       </c>
       <c r="G47" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="H47" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I47" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J47" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K47" s="3">
         <v>2900</v>
@@ -2824,25 +2824,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>61000</v>
+        <v>59900</v>
       </c>
       <c r="E48" s="3">
-        <v>60700</v>
+        <v>59600</v>
       </c>
       <c r="F48" s="3">
-        <v>59900</v>
+        <v>58800</v>
       </c>
       <c r="G48" s="3">
-        <v>60900</v>
+        <v>59800</v>
       </c>
       <c r="H48" s="3">
-        <v>60800</v>
+        <v>59700</v>
       </c>
       <c r="I48" s="3">
-        <v>63100</v>
+        <v>62000</v>
       </c>
       <c r="J48" s="3">
-        <v>67100</v>
+        <v>65900</v>
       </c>
       <c r="K48" s="3">
         <v>68900</v>
@@ -2883,25 +2883,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="E49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F49" s="3">
         <v>4400</v>
       </c>
-      <c r="F49" s="3">
-        <v>4500</v>
-      </c>
       <c r="G49" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H49" s="3">
         <v>3600</v>
       </c>
       <c r="I49" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="J49" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K49" s="3">
         <v>3200</v>
@@ -3178,25 +3178,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>145800</v>
+        <v>143200</v>
       </c>
       <c r="E54" s="3">
-        <v>138300</v>
+        <v>135800</v>
       </c>
       <c r="F54" s="3">
-        <v>135700</v>
+        <v>133200</v>
       </c>
       <c r="G54" s="3">
-        <v>144300</v>
+        <v>141700</v>
       </c>
       <c r="H54" s="3">
-        <v>149300</v>
+        <v>146600</v>
       </c>
       <c r="I54" s="3">
-        <v>152500</v>
+        <v>149700</v>
       </c>
       <c r="J54" s="3">
-        <v>156000</v>
+        <v>153100</v>
       </c>
       <c r="K54" s="3">
         <v>157600</v>
@@ -3283,25 +3283,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27900</v>
+        <v>27400</v>
       </c>
       <c r="E57" s="3">
-        <v>19900</v>
+        <v>19500</v>
       </c>
       <c r="F57" s="3">
-        <v>20900</v>
+        <v>20600</v>
       </c>
       <c r="G57" s="3">
-        <v>25700</v>
+        <v>25200</v>
       </c>
       <c r="H57" s="3">
-        <v>28100</v>
+        <v>27600</v>
       </c>
       <c r="I57" s="3">
-        <v>26800</v>
+        <v>26300</v>
       </c>
       <c r="J57" s="3">
-        <v>35700</v>
+        <v>35000</v>
       </c>
       <c r="K57" s="3">
         <v>29700</v>
@@ -3342,25 +3342,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>44400</v>
+        <v>43600</v>
       </c>
       <c r="E58" s="3">
-        <v>39900</v>
+        <v>39200</v>
       </c>
       <c r="F58" s="3">
-        <v>33500</v>
+        <v>32900</v>
       </c>
       <c r="G58" s="3">
-        <v>38200</v>
+        <v>37500</v>
       </c>
       <c r="H58" s="3">
-        <v>41700</v>
+        <v>41000</v>
       </c>
       <c r="I58" s="3">
-        <v>46300</v>
+        <v>45500</v>
       </c>
       <c r="J58" s="3">
-        <v>43000</v>
+        <v>42200</v>
       </c>
       <c r="K58" s="3">
         <v>44800</v>
@@ -3401,25 +3401,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10700</v>
+        <v>10500</v>
       </c>
       <c r="E59" s="3">
-        <v>10100</v>
+        <v>9900</v>
       </c>
       <c r="F59" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="G59" s="3">
-        <v>12900</v>
+        <v>12600</v>
       </c>
       <c r="H59" s="3">
-        <v>13000</v>
+        <v>12700</v>
       </c>
       <c r="I59" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="J59" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="K59" s="3">
         <v>8900</v>
@@ -3460,25 +3460,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>83000</v>
+        <v>81500</v>
       </c>
       <c r="E60" s="3">
-        <v>69900</v>
+        <v>68600</v>
       </c>
       <c r="F60" s="3">
-        <v>65800</v>
+        <v>64600</v>
       </c>
       <c r="G60" s="3">
-        <v>76700</v>
+        <v>75300</v>
       </c>
       <c r="H60" s="3">
-        <v>82800</v>
+        <v>81300</v>
       </c>
       <c r="I60" s="3">
-        <v>82600</v>
+        <v>81100</v>
       </c>
       <c r="J60" s="3">
-        <v>86400</v>
+        <v>84900</v>
       </c>
       <c r="K60" s="3">
         <v>83500</v>
@@ -3519,25 +3519,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16400</v>
+        <v>16100</v>
       </c>
       <c r="E61" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>15500</v>
+      </c>
+      <c r="G61" s="3">
         <v>16300</v>
       </c>
-      <c r="F61" s="3">
-        <v>15800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>16600</v>
-      </c>
       <c r="H61" s="3">
+        <v>16800</v>
+      </c>
+      <c r="I61" s="3">
         <v>17100</v>
       </c>
-      <c r="I61" s="3">
-        <v>17400</v>
-      </c>
       <c r="J61" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="K61" s="3">
         <v>10700</v>
@@ -3578,25 +3578,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>46900</v>
+        <v>46100</v>
       </c>
       <c r="E62" s="3">
-        <v>48900</v>
+        <v>48000</v>
       </c>
       <c r="F62" s="3">
-        <v>49700</v>
+        <v>48800</v>
       </c>
       <c r="G62" s="3">
-        <v>51400</v>
+        <v>50500</v>
       </c>
       <c r="H62" s="3">
-        <v>50500</v>
+        <v>49600</v>
       </c>
       <c r="I62" s="3">
-        <v>52000</v>
+        <v>51000</v>
       </c>
       <c r="J62" s="3">
-        <v>55000</v>
+        <v>54000</v>
       </c>
       <c r="K62" s="3">
         <v>54700</v>
@@ -3814,25 +3814,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>146300</v>
+        <v>143600</v>
       </c>
       <c r="E66" s="3">
-        <v>135000</v>
+        <v>132600</v>
       </c>
       <c r="F66" s="3">
-        <v>131300</v>
+        <v>129000</v>
       </c>
       <c r="G66" s="3">
-        <v>144600</v>
+        <v>142000</v>
       </c>
       <c r="H66" s="3">
-        <v>150400</v>
+        <v>147700</v>
       </c>
       <c r="I66" s="3">
-        <v>152000</v>
+        <v>149300</v>
       </c>
       <c r="J66" s="3">
-        <v>153400</v>
+        <v>150700</v>
       </c>
       <c r="K66" s="3">
         <v>148900</v>
@@ -4132,25 +4132,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-89500</v>
+        <v>-87900</v>
       </c>
       <c r="E72" s="3">
-        <v>-85400</v>
+        <v>-83900</v>
       </c>
       <c r="F72" s="3">
-        <v>-84000</v>
+        <v>-82500</v>
       </c>
       <c r="G72" s="3">
-        <v>-84200</v>
+        <v>-82700</v>
       </c>
       <c r="H72" s="3">
-        <v>-84900</v>
+        <v>-83400</v>
       </c>
       <c r="I72" s="3">
-        <v>-82700</v>
+        <v>-81200</v>
       </c>
       <c r="J72" s="3">
-        <v>-80600</v>
+        <v>-79100</v>
       </c>
       <c r="K72" s="3">
         <v>-74600</v>
@@ -4380,7 +4380,7 @@
         <v>-300</v>
       </c>
       <c r="H76" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I76" s="3">
         <v>500</v>
@@ -4568,7 +4568,7 @@
         <v>-2100</v>
       </c>
       <c r="J81" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="K81" s="3">
         <v>-3400</v>
@@ -4632,7 +4632,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E83" s="3">
         <v>1900</v>
@@ -4641,7 +4641,7 @@
         <v>1800</v>
       </c>
       <c r="G83" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H83" s="3">
         <v>1900</v>
@@ -4992,16 +4992,16 @@
         <v>-3500</v>
       </c>
       <c r="F89" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G89" s="3">
         <v>6800</v>
       </c>
-      <c r="G89" s="3">
-        <v>7000</v>
-      </c>
       <c r="H89" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="I89" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="J89" s="3">
         <v>1400</v>
@@ -5251,16 +5251,16 @@
         <v>-3600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="G94" s="3">
         <v>-2100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I94" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J94" s="3">
         <v>-1800</v>
@@ -5563,22 +5563,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E100" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="F100" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="G100" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-4200</v>
       </c>
-      <c r="H100" s="3">
-        <v>-4300</v>
-      </c>
       <c r="I100" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="J100" s="3">
         <v>-400</v>
@@ -5696,10 +5696,10 @@
         <v>-400</v>
       </c>
       <c r="I102" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J102" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K102" s="3">
         <v>300</v>
